--- a/Documentacion/Sprint_Backlog.xlsx
+++ b/Documentacion/Sprint_Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813CE7CC-C720-4481-A5F8-4DE3B57D4BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37056300-B83F-427B-940B-902E754C40C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -245,13 +245,76 @@
   </si>
   <si>
     <t>Bryan Castelo, Cesar Ayala, Jaime Peñaherrera, Milton Coello</t>
+  </si>
+  <si>
+    <t>SPRINT 3 BACKLOG</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 3</t>
+  </si>
+  <si>
+    <t>HT-12</t>
+  </si>
+  <si>
+    <t>Creación de diagrama de procesos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación de procesos </t>
+  </si>
+  <si>
+    <t>Reconocimiento de procesos a automatizar</t>
+  </si>
+  <si>
+    <t>Creación de esquema de procesos  (condicionales, estados..)</t>
+  </si>
+  <si>
+    <t>Creación de diagrama de procesos por medio de una herramienta</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 3</t>
+  </si>
+  <si>
+    <t>HT-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación de capa lógica de negocio </t>
+  </si>
+  <si>
+    <t>Análisis detallado de los requisitos y especificaciones de la lógica del negocio.</t>
+  </si>
+  <si>
+    <t>Diseño y planificación de la estructura y funcionalidad de la capa de lógica del negocio.</t>
+  </si>
+  <si>
+    <t>Implementación de algoritmos y reglas del negocio específicas del domino</t>
+  </si>
+  <si>
+    <t>Desarrollo de pruebas unitarias</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Día 9</t>
+  </si>
+  <si>
+    <t>Día 10</t>
+  </si>
+  <si>
+    <t>Día 11</t>
+  </si>
+  <si>
+    <t>Día 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +392,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -621,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -665,30 +736,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -701,62 +823,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,7 +1155,7 @@
   <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,59 +1172,76 @@
     <row r="4" spans="2:6" ht="24.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="24.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:6" ht="24.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="24.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45">
+      <c r="B8" s="24">
         <v>45264</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="45">
+      <c r="B9" s="24">
         <v>45265</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="23" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="24">
+        <v>45278</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1163,10 +1257,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:R46"/>
+  <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,95 +1276,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="2:18" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="6" spans="2:18" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:18" s="4" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="6"/>
@@ -1282,22 +1376,22 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="44" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="28">
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1314,16 +1408,16 @@
       </c>
     </row>
     <row r="10" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -1338,8 +1432,8 @@
       </c>
     </row>
     <row r="11" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
@@ -1349,7 +1443,7 @@
       <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="11">
         <v>8</v>
       </c>
@@ -1364,22 +1458,22 @@
       </c>
     </row>
     <row r="12" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="27">
         <v>70</v>
       </c>
       <c r="H12" s="10">
@@ -1396,18 +1490,18 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
@@ -1422,18 +1516,18 @@
       </c>
     </row>
     <row r="14" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="8">
         <v>0</v>
       </c>
@@ -1448,8 +1542,8 @@
       </c>
     </row>
     <row r="15" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +1553,7 @@
       <c r="F15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="11">
         <v>0</v>
       </c>
@@ -1474,22 +1568,22 @@
       </c>
     </row>
     <row r="16" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="27">
         <v>30</v>
       </c>
       <c r="H16" s="10">
@@ -1506,18 +1600,18 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="8">
         <v>0</v>
       </c>
@@ -1532,18 +1626,18 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="8">
         <v>0</v>
       </c>
@@ -1558,8 +1652,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="11" t="s">
         <v>38</v>
       </c>
@@ -1569,7 +1663,7 @@
       <c r="F19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="12">
         <v>0</v>
       </c>
@@ -1584,13 +1678,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="9">
         <f>SUM(G9:G19)</f>
         <v>110</v>
@@ -1613,18 +1707,18 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -1639,54 +1733,54 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="28">
         <v>40</v>
       </c>
       <c r="H26" s="7">
@@ -1703,18 +1797,18 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="37" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="7">
         <v>10</v>
       </c>
@@ -1729,16 +1823,16 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="33" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="7">
         <v>7.5</v>
       </c>
@@ -1753,16 +1847,16 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="7">
         <v>5</v>
       </c>
@@ -1777,16 +1871,16 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="33" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="7">
         <v>5</v>
       </c>
@@ -1801,18 +1895,18 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="7">
         <v>2.5</v>
       </c>
@@ -1827,8 +1921,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="19"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="13" t="s">
         <v>47</v>
       </c>
@@ -1838,7 +1932,7 @@
       <c r="F32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="7">
         <v>7.5</v>
       </c>
@@ -1853,22 +1947,22 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="27">
         <v>100</v>
       </c>
       <c r="H33" s="10">
@@ -1885,16 +1979,16 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="29" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -1909,16 +2003,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="29" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -1933,16 +2027,16 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="29" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -1957,18 +2051,18 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="16"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -1983,18 +2077,18 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -2009,18 +2103,18 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="16"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -2035,8 +2129,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="64.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="21"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="13" t="s">
         <v>54</v>
       </c>
@@ -2046,7 +2140,7 @@
       <c r="F40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="17"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -2061,22 +2155,22 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="27">
         <v>10</v>
       </c>
       <c r="H41" s="10">
@@ -2093,16 +2187,16 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="29" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -2117,16 +2211,16 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="29" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -2141,16 +2235,16 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="29" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="28"/>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -2165,18 +2259,18 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="8">
         <v>0</v>
       </c>
@@ -2191,13 +2285,13 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="9">
         <f>SUM(G26:G45)</f>
         <v>150</v>
@@ -2219,21 +2313,616 @@
         <v>20</v>
       </c>
     </row>
+    <row r="49" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
+      <c r="B49" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="28">
+        <v>50</v>
+      </c>
+      <c r="H52" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="36"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="36"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="36"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="36"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="36"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="36"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="36"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="28"/>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="36"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>5</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="36"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="28"/>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>5</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="36"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="28"/>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>5</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="36"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="28"/>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>5</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="38"/>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>5</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="27">
+        <v>120</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="26"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="28"/>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="26"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="28"/>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="26"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="26"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="28"/>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0</v>
+      </c>
+      <c r="L69" s="47"/>
+    </row>
+    <row r="70" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="28"/>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="26"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G71" s="28"/>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="9">
+        <f>SUM(G52:G71)</f>
+        <v>170</v>
+      </c>
+      <c r="H72" s="9">
+        <f>SUM(H52:H71)</f>
+        <v>12.48</v>
+      </c>
+      <c r="I72" s="9">
+        <f>SUM(I52:I71)</f>
+        <v>12.48</v>
+      </c>
+      <c r="J72" s="9">
+        <f>SUM(J52:J71)</f>
+        <v>25</v>
+      </c>
+      <c r="K72" s="9">
+        <f>SUM(K52:K71)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="G33:G40"/>
+  <mergeCells count="40">
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="D56:D59"/>
     <mergeCell ref="C1:K3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="B20:F20"/>
@@ -2249,7 +2938,21 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="G33:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/Sprint_Backlog.xlsx
+++ b/Documentacion/Sprint_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37056300-B83F-427B-940B-902E754C40C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD29BC-A1DA-40EA-AAA4-8424AB2E68A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIAL DE VERSIONES" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -55,30 +55,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Día 1</t>
-  </si>
-  <si>
-    <t>Día 2</t>
-  </si>
-  <si>
-    <t>Día 3</t>
-  </si>
-  <si>
-    <t>Día 4</t>
-  </si>
-  <si>
-    <t>Día 5</t>
-  </si>
-  <si>
-    <t>Día 6</t>
-  </si>
-  <si>
-    <t>Día 7</t>
-  </si>
-  <si>
-    <t>Día 8</t>
-  </si>
-  <si>
     <t>HT-01</t>
   </si>
   <si>
@@ -295,19 +271,180 @@
     <t>Desarrollo de pruebas unitarias</t>
   </si>
   <si>
+    <t>SPRINT 4 BACKLOG</t>
+  </si>
+  <si>
+    <t>HT-10</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 4</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 5</t>
+  </si>
+  <si>
+    <t>HU03</t>
+  </si>
+  <si>
+    <t>HU02</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión buses administrador </t>
+  </si>
+  <si>
+    <t>Gestión de usuario administrador</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación del sistema de registro
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación de usuarios
+</t>
+  </si>
+  <si>
+    <t>Implementación de identificación de usuario</t>
+  </si>
+  <si>
+    <t>SPRINT 5 BACKLOG</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 5</t>
+  </si>
+  <si>
+    <t>Gestión de ventas personal atención</t>
+  </si>
+  <si>
+    <t>HU04</t>
+  </si>
+  <si>
+    <t>HU08</t>
+  </si>
+  <si>
+    <t>Gestion de perfil pasajero</t>
+  </si>
+  <si>
+    <t>Administrar asientos vendidos en el sistema</t>
+  </si>
+  <si>
+    <t>SPRINT 6 BACKLOG</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 6</t>
+  </si>
+  <si>
+    <t>Gestión de reserva de boletos pasajero</t>
+  </si>
+  <si>
+    <t>Gestión compra de boletos pasajero</t>
+  </si>
+  <si>
+    <t>HU09</t>
+  </si>
+  <si>
+    <t>HU10</t>
+  </si>
+  <si>
+    <t>SPRINT 7 BACKLOG</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 7</t>
+  </si>
+  <si>
+    <t>Pasarelade pagos</t>
+  </si>
+  <si>
+    <t>HT-09</t>
+  </si>
+  <si>
+    <t>Como pasajero quiero entrar en mi perfil y ver mis boletos adquiridos</t>
+  </si>
+  <si>
     <t>En proceso</t>
   </si>
   <si>
-    <t>Día 9</t>
-  </si>
-  <si>
-    <t>Día 10</t>
-  </si>
-  <si>
-    <t>Día 11</t>
-  </si>
-  <si>
-    <t>Día 12</t>
+    <t xml:space="preserve">Implementacion de la verificacion del numero de tarjeta si es valido o invalido
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementacion pago por tarjeta de credito
+</t>
+  </si>
+  <si>
+    <t>Generacion de codigo QR de cada boleto reservado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista de reservas por cada unidad con ruta programada
+</t>
+  </si>
+  <si>
+    <t>Generar informes de los boletos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar a mi perfil con credenciales creadas por el administrador
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear unidades </t>
+  </si>
+  <si>
+    <t>Implementar vista de cooperativas creadas</t>
+  </si>
+  <si>
+    <t>Implementar conexión por medio de cronograma de unidades con rutas</t>
+  </si>
+  <si>
+    <t>Crear usuarios del tipo personal</t>
+  </si>
+  <si>
+    <t>Vista de usuarios creados</t>
+  </si>
+  <si>
+    <t>Gestion de eliminacion de buses con su relacionado</t>
+  </si>
+  <si>
+    <t>Verificacion de paginas principales para cada rol</t>
+  </si>
+  <si>
+    <t>Verificacion de vista para cada rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selección de asientos por unidad con validacion de maximo de seleccion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista de seleccionados y costo total con funcionalidad de reserva por efectivo
+</t>
+  </si>
+  <si>
+    <t>Vista de cada QR para cada boleto reservado</t>
+  </si>
+  <si>
+    <t>Vista de pago por tarjeta basica para verificar si se cumple con la verificacion de la tarjeta</t>
+  </si>
+  <si>
+    <t>Generar vista de perfil personal de atencion</t>
+  </si>
+  <si>
+    <t>Gestión de rutas administrador</t>
+  </si>
+  <si>
+    <t>Validacion: Crear rutas nuevas , y no duplicar las anteriores</t>
+  </si>
+  <si>
+    <t>Validacion: Crear cronogramas nuevos y no repetir para la misma unidad en la misma fecha</t>
+  </si>
+  <si>
+    <t>Crear rutas nuevas para asignar a unidades</t>
+  </si>
+  <si>
+    <t>Crear cronogramas nuevos de cada unidad</t>
   </si>
 </sst>
 </file>
@@ -692,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,16 +903,43 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,15 +963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,23 +972,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,8 +1297,8 @@
   </sheetPr>
   <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1306,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="41.8984375" customWidth="1"/>
     <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="26.69921875" customWidth="1"/>
   </cols>
@@ -1173,24 +1316,24 @@
     <row r="5" spans="2:6" ht="24.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:6" ht="24.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="24.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1198,16 +1341,16 @@
         <v>45264</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -1215,16 +1358,16 @@
         <v>45265</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -1232,20 +1375,54 @@
         <v>45278</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="24">
+        <v>45290</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="24">
+        <v>45268</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="38.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1257,10 +1434,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:R72"/>
+  <dimension ref="B1:R192"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A159" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,68 +1449,70 @@
     <col min="5" max="5" width="29.19921875" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.296875" style="5" customWidth="1"/>
     <col min="7" max="7" width="22.09765625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="5"/>
+    <col min="8" max="8" width="13.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:18" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="6" spans="2:18" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:18" s="4" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1341,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>4</v>
@@ -1353,19 +1532,19 @@
         <v>6</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H8" s="49">
+        <v>45244</v>
+      </c>
+      <c r="I8" s="49">
+        <v>45245</v>
+      </c>
+      <c r="J8" s="49">
+        <v>45246</v>
+      </c>
+      <c r="K8" s="49">
+        <v>45247</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -1376,20 +1555,20 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
-        <v>15</v>
+      <c r="B9" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G9" s="28">
         <v>10</v>
@@ -1408,14 +1587,14 @@
       </c>
     </row>
     <row r="10" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="45"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="35"/>
       <c r="F10" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="2">
@@ -1432,18 +1611,18 @@
       </c>
     </row>
     <row r="11" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="29"/>
       <c r="H11" s="11">
         <v>8</v>
       </c>
@@ -1458,20 +1637,20 @@
       </c>
     </row>
     <row r="12" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
-        <v>25</v>
+      <c r="B12" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G12" s="27">
         <v>70</v>
@@ -1490,16 +1669,16 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="28"/>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="8">
@@ -1516,16 +1695,16 @@
       </c>
     </row>
     <row r="14" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="28"/>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="8">
@@ -1542,18 +1721,18 @@
       </c>
     </row>
     <row r="15" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="39"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="11">
         <v>0</v>
       </c>
@@ -1568,20 +1747,20 @@
       </c>
     </row>
     <row r="16" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
-        <v>33</v>
+      <c r="B16" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G16" s="27">
         <v>30</v>
@@ -1600,16 +1779,16 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="28"/>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="8">
@@ -1626,16 +1805,16 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="28"/>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="8">
@@ -1652,18 +1831,18 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="39"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="29"/>
       <c r="H19" s="12">
         <v>0</v>
       </c>
@@ -1678,13 +1857,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="B20" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="9">
         <f>SUM(G9:G19)</f>
         <v>110</v>
@@ -1706,19 +1885,19 @@
         <v>29.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
-      <c r="B23" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+    <row r="23" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -1737,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>4</v>
@@ -1749,36 +1928,36 @@
         <v>6</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H25" s="49">
+        <v>45251</v>
+      </c>
+      <c r="I25" s="49">
+        <v>45252</v>
+      </c>
+      <c r="J25" s="49">
+        <v>45253</v>
+      </c>
+      <c r="K25" s="49">
+        <v>45254</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
-        <v>42</v>
+      <c r="B26" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G26" s="28">
         <v>40</v>
@@ -1797,16 +1976,16 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="32" t="s">
-        <v>45</v>
+      <c r="D27" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="7">
@@ -1823,14 +2002,14 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="33"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="7">
@@ -1847,14 +2026,14 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="7">
@@ -1871,14 +2050,14 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="7">
@@ -1895,16 +2074,16 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="28"/>
       <c r="D31" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="7">
@@ -1921,18 +2100,18 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G32" s="29"/>
       <c r="H32" s="7">
         <v>7.5</v>
       </c>
@@ -1947,20 +2126,20 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
-        <v>48</v>
+      <c r="B33" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G33" s="27">
         <v>100</v>
@@ -1979,14 +2158,14 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="7">
@@ -2003,14 +2182,14 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="33"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="7">
@@ -2027,14 +2206,14 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="28"/>
-      <c r="D36" s="34"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="7">
@@ -2051,16 +2230,16 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="26"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="28"/>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="7">
@@ -2077,16 +2256,16 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="28"/>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="7">
@@ -2103,16 +2282,16 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="26"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="28"/>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="7">
@@ -2129,18 +2308,18 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="64.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="39"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G40" s="29"/>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -2155,20 +2334,20 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
-        <v>55</v>
+      <c r="B41" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G41" s="27">
         <v>10</v>
@@ -2187,14 +2366,14 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="26"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="33"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="7">
@@ -2211,14 +2390,14 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="33"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="7">
@@ -2235,14 +2414,14 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="34"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="7">
@@ -2259,16 +2438,16 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="26"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="28"/>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="8">
@@ -2285,13 +2464,13 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B46" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="B46" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="9">
         <f>SUM(G26:G45)</f>
         <v>150</v>
@@ -2313,19 +2492,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
-      <c r="B49" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
+    <row r="49" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
@@ -2344,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>4</v>
@@ -2356,36 +2535,36 @@
         <v>6</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="H51" s="49">
+        <v>45258</v>
+      </c>
+      <c r="I51" s="49">
+        <v>45259</v>
+      </c>
+      <c r="J51" s="49">
+        <v>45260</v>
+      </c>
+      <c r="K51" s="49">
+        <v>45261</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="36" t="s">
-        <v>74</v>
+      <c r="B52" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G52" s="28">
         <v>50</v>
@@ -2404,14 +2583,14 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="33"/>
+      <c r="D53" s="42"/>
       <c r="E53" s="19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="7">
@@ -2428,14 +2607,14 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="33"/>
+      <c r="D54" s="42"/>
       <c r="E54" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="7">
@@ -2452,14 +2631,14 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="34"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="7">
@@ -2476,16 +2655,16 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="32" t="s">
-        <v>77</v>
+      <c r="D56" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="7">
@@ -2502,14 +2681,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="36"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="28"/>
-      <c r="D57" s="33"/>
+      <c r="D57" s="42"/>
       <c r="E57" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="7">
@@ -2526,14 +2705,14 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="28"/>
-      <c r="D58" s="33"/>
+      <c r="D58" s="42"/>
       <c r="E58" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G58" s="28"/>
       <c r="H58" s="7">
@@ -2550,14 +2729,14 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="34"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G59" s="28"/>
       <c r="H59" s="7">
@@ -2574,16 +2753,16 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="28"/>
       <c r="D60" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G60" s="28"/>
       <c r="H60" s="7">
@@ -2600,16 +2779,16 @@
       </c>
     </row>
     <row r="61" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="32" t="s">
-        <v>79</v>
+      <c r="D61" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G61" s="28"/>
       <c r="H61" s="7">
@@ -2626,14 +2805,14 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="36"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="33"/>
+      <c r="D62" s="42"/>
       <c r="E62" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G62" s="28"/>
       <c r="H62" s="7">
@@ -2650,14 +2829,14 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="33"/>
+      <c r="D63" s="42"/>
       <c r="E63" s="19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="7">
@@ -2674,16 +2853,16 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="46"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="G64" s="29"/>
       <c r="H64" s="7">
         <v>0</v>
       </c>
@@ -2697,21 +2876,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="25" t="s">
-        <v>81</v>
+    <row r="65" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>75</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G65" s="27">
         <v>120</v>
@@ -2726,18 +2905,18 @@
         <v>0</v>
       </c>
       <c r="K65" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="26"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="37"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="33"/>
+      <c r="D66" s="42"/>
       <c r="E66" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="7">
@@ -2749,19 +2928,19 @@
       <c r="J66" s="7">
         <v>0</v>
       </c>
-      <c r="K66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="26"/>
+      <c r="K66" s="10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="37"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="33"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G67" s="28"/>
       <c r="H67" s="7">
@@ -2773,19 +2952,19 @@
       <c r="J67" s="7">
         <v>0</v>
       </c>
-      <c r="K67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="26"/>
+      <c r="K67" s="10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="37"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="34"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="7">
@@ -2797,21 +2976,21 @@
       <c r="J68" s="7">
         <v>0</v>
       </c>
-      <c r="K68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="26"/>
+      <c r="K68" s="10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="37"/>
       <c r="C69" s="28"/>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="7">
@@ -2823,22 +3002,22 @@
       <c r="J69" s="7">
         <v>0</v>
       </c>
-      <c r="K69" s="7">
-        <v>0</v>
-      </c>
-      <c r="L69" s="47"/>
-    </row>
-    <row r="70" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="26"/>
+      <c r="K69" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="L69" s="25"/>
+    </row>
+    <row r="70" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="37"/>
       <c r="C70" s="28"/>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="7">
@@ -2850,21 +3029,21 @@
       <c r="J70" s="7">
         <v>0</v>
       </c>
-      <c r="K70" s="7">
-        <v>0</v>
+      <c r="K70" s="10">
+        <v>7.5</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="26"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="28"/>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="7">
@@ -2876,18 +3055,18 @@
       <c r="J71" s="7">
         <v>0</v>
       </c>
-      <c r="K71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B72" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="31"/>
+      <c r="K71" s="10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B72" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40"/>
       <c r="G72" s="9">
         <f>SUM(G52:G71)</f>
         <v>170</v>
@@ -2906,11 +3085,2875 @@
       </c>
       <c r="K72" s="9">
         <f>SUM(K52:K71)</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="B77" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="49">
+        <v>45265</v>
+      </c>
+      <c r="I77" s="49">
+        <v>45266</v>
+      </c>
+      <c r="J77" s="49">
+        <v>45267</v>
+      </c>
+      <c r="K77" s="49">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="28">
+        <v>90</v>
+      </c>
+      <c r="H78" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="33"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="28"/>
+      <c r="H79" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="33"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="28"/>
+      <c r="H80" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="33"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="28"/>
+      <c r="H81" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="33"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="28"/>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="33"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="28"/>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B84" s="33"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="28"/>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="33"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="28"/>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="33"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="28"/>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>5</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="33"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="28"/>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>5</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="33"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="28"/>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>5</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="33"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="28"/>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>5</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="34"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="29"/>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>5</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="27">
+        <v>50</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10">
+        <v>0</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0</v>
+      </c>
+      <c r="K91" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="37"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="28"/>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="37"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="37"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="37"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+      <c r="K95" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="37"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="37"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="28"/>
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="27">
+        <v>50</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+      <c r="I98" s="10">
+        <v>0</v>
+      </c>
+      <c r="J98" s="10">
+        <v>8</v>
+      </c>
+      <c r="K98" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="37"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>0</v>
+      </c>
+      <c r="J99" s="10">
+        <v>8</v>
+      </c>
+      <c r="K99" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="37"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="28"/>
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="10">
+        <v>8</v>
+      </c>
+      <c r="K100" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="37"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="7">
+        <v>0</v>
+      </c>
+      <c r="I101" s="7">
+        <v>0</v>
+      </c>
+      <c r="J101" s="10">
+        <v>8</v>
+      </c>
+      <c r="K101" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="37"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="7">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0</v>
+      </c>
+      <c r="J102" s="10">
+        <v>8</v>
+      </c>
+      <c r="K102" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="37"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="28"/>
+      <c r="H103" s="7">
+        <v>0</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0</v>
+      </c>
+      <c r="J103" s="10">
+        <v>8</v>
+      </c>
+      <c r="K103" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="37"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="28"/>
+      <c r="H104" s="7">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0</v>
+      </c>
+      <c r="J104" s="10">
+        <v>8</v>
+      </c>
+      <c r="K104" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B105" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="9">
+        <f>SUM(G85:G104:G78)</f>
+        <v>190</v>
+      </c>
+      <c r="H105" s="9">
+        <f>SUM(H78:H104)</f>
+        <v>12.48</v>
+      </c>
+      <c r="I105" s="9">
+        <f>SUM(I78:I104)</f>
+        <v>12.48</v>
+      </c>
+      <c r="J105" s="9">
+        <f>SUM(J85:J104)</f>
+        <v>81</v>
+      </c>
+      <c r="K105" s="9">
+        <f>SUM(K85:K104)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="B107" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="B109" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="49">
+        <v>45272</v>
+      </c>
+      <c r="I109" s="49">
+        <v>45273</v>
+      </c>
+      <c r="J109" s="49">
+        <v>45274</v>
+      </c>
+      <c r="K109" s="49">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="28">
+        <v>80</v>
+      </c>
+      <c r="H110" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7">
+        <v>0</v>
+      </c>
+      <c r="K110" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="33"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="28"/>
+      <c r="H111" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7">
+        <v>0</v>
+      </c>
+      <c r="K111" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="33"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="28"/>
+      <c r="H112" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I112" s="7">
+        <v>0</v>
+      </c>
+      <c r="J112" s="7">
+        <v>0</v>
+      </c>
+      <c r="K112" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="33"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="28"/>
+      <c r="H113" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7">
+        <v>0</v>
+      </c>
+      <c r="K113" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="33"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="28"/>
+      <c r="H114" s="7">
+        <v>0</v>
+      </c>
+      <c r="I114" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J114" s="7">
+        <v>0</v>
+      </c>
+      <c r="K114" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="33"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="28"/>
+      <c r="H115" s="7">
+        <v>0</v>
+      </c>
+      <c r="I115" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0</v>
+      </c>
+      <c r="K115" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="33"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="28"/>
+      <c r="H116" s="7">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J116" s="7">
+        <v>0</v>
+      </c>
+      <c r="K116" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117" s="33"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="28"/>
+      <c r="H117" s="7">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J117" s="7">
+        <v>0</v>
+      </c>
+      <c r="K117" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B118" s="33"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="28"/>
+      <c r="H118" s="7">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7">
+        <v>5</v>
+      </c>
+      <c r="K118" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="33"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="28"/>
+      <c r="H119" s="7">
+        <v>0</v>
+      </c>
+      <c r="I119" s="7">
+        <v>0</v>
+      </c>
+      <c r="J119" s="7">
+        <v>5</v>
+      </c>
+      <c r="K119" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="33"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="28"/>
+      <c r="H120" s="7">
+        <v>0</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0</v>
+      </c>
+      <c r="J120" s="7">
+        <v>5</v>
+      </c>
+      <c r="K120" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121" s="33"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="28"/>
+      <c r="H121" s="7">
+        <v>0</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7">
+        <v>5</v>
+      </c>
+      <c r="K121" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="34"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="29"/>
+      <c r="H122" s="7">
+        <v>0</v>
+      </c>
+      <c r="I122" s="7">
+        <v>0</v>
+      </c>
+      <c r="J122" s="7">
+        <v>5</v>
+      </c>
+      <c r="K122" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="27">
+        <v>43</v>
+      </c>
+      <c r="H123" s="10">
+        <v>0</v>
+      </c>
+      <c r="I123" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J123" s="10">
+        <v>0</v>
+      </c>
+      <c r="K123" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="37"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="28"/>
+      <c r="H124" s="7">
+        <v>0</v>
+      </c>
+      <c r="I124" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J124" s="7">
+        <v>0</v>
+      </c>
+      <c r="K124" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="37"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="28"/>
+      <c r="H125" s="7">
+        <v>0</v>
+      </c>
+      <c r="I125" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J125" s="7">
+        <v>0</v>
+      </c>
+      <c r="K125" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="37"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="28"/>
+      <c r="H126" s="7">
+        <v>0</v>
+      </c>
+      <c r="I126" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J126" s="7">
+        <v>0</v>
+      </c>
+      <c r="K126" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="37"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="28"/>
+      <c r="H127" s="7">
+        <v>0</v>
+      </c>
+      <c r="I127" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J127" s="7">
+        <v>0</v>
+      </c>
+      <c r="K127" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="37"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="28"/>
+      <c r="H128" s="7">
+        <v>0</v>
+      </c>
+      <c r="I128" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J128" s="7">
+        <v>0</v>
+      </c>
+      <c r="K128" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="37"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="28"/>
+      <c r="H129" s="7">
+        <v>0</v>
+      </c>
+      <c r="I129" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J129" s="7">
+        <v>0</v>
+      </c>
+      <c r="K129" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="27">
+        <v>47</v>
+      </c>
+      <c r="H130" s="10">
+        <v>0</v>
+      </c>
+      <c r="I130" s="10">
+        <v>0</v>
+      </c>
+      <c r="J130" s="10">
+        <v>3</v>
+      </c>
+      <c r="K130" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="37"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="28"/>
+      <c r="H131" s="7">
+        <v>0</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0</v>
+      </c>
+      <c r="J131" s="10">
+        <v>3</v>
+      </c>
+      <c r="K131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="37"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="28"/>
+      <c r="H132" s="7">
+        <v>0</v>
+      </c>
+      <c r="I132" s="7">
+        <v>0</v>
+      </c>
+      <c r="J132" s="10">
+        <v>3</v>
+      </c>
+      <c r="K132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="37"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="28"/>
+      <c r="H133" s="7">
+        <v>0</v>
+      </c>
+      <c r="I133" s="7">
+        <v>0</v>
+      </c>
+      <c r="J133" s="10">
+        <v>3</v>
+      </c>
+      <c r="K133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="37"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="28"/>
+      <c r="H134" s="7">
+        <v>0</v>
+      </c>
+      <c r="I134" s="7">
+        <v>0</v>
+      </c>
+      <c r="J134" s="10">
+        <v>3</v>
+      </c>
+      <c r="K134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="37"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="28"/>
+      <c r="H135" s="7">
+        <v>0</v>
+      </c>
+      <c r="I135" s="7">
+        <v>0</v>
+      </c>
+      <c r="J135" s="10">
+        <v>3</v>
+      </c>
+      <c r="K135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="37"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="28"/>
+      <c r="H136" s="7">
+        <v>0</v>
+      </c>
+      <c r="I136" s="7">
+        <v>0</v>
+      </c>
+      <c r="J136" s="10">
+        <v>3</v>
+      </c>
+      <c r="K136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B137" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="26">
+        <f>SUM(G110:G130)</f>
+        <v>170</v>
+      </c>
+      <c r="H137" s="26">
+        <f>SUM(H110:H136)</f>
+        <v>12.48</v>
+      </c>
+      <c r="I137" s="26">
+        <f>SUM(I110:I136)</f>
+        <v>43.980000000000004</v>
+      </c>
+      <c r="J137" s="26">
+        <f>SUM(J110:J136)</f>
+        <v>46</v>
+      </c>
+      <c r="K137" s="9">
+        <f>SUM(K110:K136)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="B139" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="B141" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="49">
+        <v>45293</v>
+      </c>
+      <c r="I141" s="49">
+        <v>45294</v>
+      </c>
+      <c r="J141" s="49">
+        <v>45295</v>
+      </c>
+      <c r="K141" s="49">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B142" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="28">
+        <v>80</v>
+      </c>
+      <c r="H142" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I142" s="7">
+        <v>0</v>
+      </c>
+      <c r="J142" s="7">
+        <v>0</v>
+      </c>
+      <c r="K142" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="33"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="28"/>
+      <c r="H143" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="7">
+        <v>0</v>
+      </c>
+      <c r="K143" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="33"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="28"/>
+      <c r="H144" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I144" s="7">
+        <v>0</v>
+      </c>
+      <c r="J144" s="7">
+        <v>0</v>
+      </c>
+      <c r="K144" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B145" s="33"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="28"/>
+      <c r="H145" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I145" s="7">
+        <v>0</v>
+      </c>
+      <c r="J145" s="7">
+        <v>0</v>
+      </c>
+      <c r="K145" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="33"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="28"/>
+      <c r="H146" s="7">
+        <v>0</v>
+      </c>
+      <c r="I146" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J146" s="7">
+        <v>0</v>
+      </c>
+      <c r="K146" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="33"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="28"/>
+      <c r="H147" s="7">
+        <v>0</v>
+      </c>
+      <c r="I147" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J147" s="7">
+        <v>0</v>
+      </c>
+      <c r="K147" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="33"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="28"/>
+      <c r="H148" s="7">
+        <v>0</v>
+      </c>
+      <c r="I148" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J148" s="7">
+        <v>0</v>
+      </c>
+      <c r="K148" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B149" s="33"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="28"/>
+      <c r="H149" s="7">
+        <v>0</v>
+      </c>
+      <c r="I149" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J149" s="7">
+        <v>0</v>
+      </c>
+      <c r="K149" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B150" s="33"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="28"/>
+      <c r="H150" s="7">
+        <v>0</v>
+      </c>
+      <c r="I150" s="7">
+        <v>0</v>
+      </c>
+      <c r="J150" s="7">
+        <v>5</v>
+      </c>
+      <c r="K150" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B151" s="33"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="28"/>
+      <c r="H151" s="7">
+        <v>0</v>
+      </c>
+      <c r="I151" s="7">
+        <v>0</v>
+      </c>
+      <c r="J151" s="7">
+        <v>5</v>
+      </c>
+      <c r="K151" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B152" s="33"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="28"/>
+      <c r="H152" s="7">
+        <v>0</v>
+      </c>
+      <c r="I152" s="7">
+        <v>0</v>
+      </c>
+      <c r="J152" s="7">
+        <v>5</v>
+      </c>
+      <c r="K152" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B153" s="33"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="28"/>
+      <c r="H153" s="7">
+        <v>0</v>
+      </c>
+      <c r="I153" s="7">
+        <v>0</v>
+      </c>
+      <c r="J153" s="7">
+        <v>5</v>
+      </c>
+      <c r="K153" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="34"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="29"/>
+      <c r="H154" s="7">
+        <v>0</v>
+      </c>
+      <c r="I154" s="7">
+        <v>0</v>
+      </c>
+      <c r="J154" s="7">
+        <v>5</v>
+      </c>
+      <c r="K154" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="27">
+        <v>43</v>
+      </c>
+      <c r="H155" s="10">
+        <v>0</v>
+      </c>
+      <c r="I155" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J155" s="10">
+        <v>0</v>
+      </c>
+      <c r="K155" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="37"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="28"/>
+      <c r="H156" s="7">
+        <v>0</v>
+      </c>
+      <c r="I156" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J156" s="7">
+        <v>0</v>
+      </c>
+      <c r="K156" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="37"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="28"/>
+      <c r="H157" s="7">
+        <v>0</v>
+      </c>
+      <c r="I157" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J157" s="7">
+        <v>0</v>
+      </c>
+      <c r="K157" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="37"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="28"/>
+      <c r="H158" s="7">
+        <v>0</v>
+      </c>
+      <c r="I158" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J158" s="7">
+        <v>0</v>
+      </c>
+      <c r="K158" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="37"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="28"/>
+      <c r="H159" s="7">
+        <v>0</v>
+      </c>
+      <c r="I159" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J159" s="7">
+        <v>0</v>
+      </c>
+      <c r="K159" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="37"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="28"/>
+      <c r="H160" s="7">
+        <v>0</v>
+      </c>
+      <c r="I160" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J160" s="7">
+        <v>0</v>
+      </c>
+      <c r="K160" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="37"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="28"/>
+      <c r="H161" s="7">
+        <v>0</v>
+      </c>
+      <c r="I161" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J161" s="7">
+        <v>0</v>
+      </c>
+      <c r="K161" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="27">
+        <v>43</v>
+      </c>
+      <c r="H162" s="10">
+        <v>0</v>
+      </c>
+      <c r="I162" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J162" s="10">
+        <v>0</v>
+      </c>
+      <c r="K162" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="37"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="28"/>
+      <c r="H163" s="7">
+        <v>0</v>
+      </c>
+      <c r="I163" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J163" s="7">
+        <v>0</v>
+      </c>
+      <c r="K163" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="37"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="28"/>
+      <c r="H164" s="7">
+        <v>0</v>
+      </c>
+      <c r="I164" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J164" s="7">
+        <v>0</v>
+      </c>
+      <c r="K164" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="37"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="28"/>
+      <c r="H165" s="7">
+        <v>0</v>
+      </c>
+      <c r="I165" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J165" s="7">
+        <v>0</v>
+      </c>
+      <c r="K165" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D166" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="27">
+        <v>10</v>
+      </c>
+      <c r="H166" s="10">
+        <v>0</v>
+      </c>
+      <c r="I166" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J166" s="10">
+        <v>0</v>
+      </c>
+      <c r="K166" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B167" s="37"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" s="28"/>
+      <c r="H167" s="7">
+        <v>0</v>
+      </c>
+      <c r="I167" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J167" s="7">
+        <v>0</v>
+      </c>
+      <c r="K167" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="37"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="28"/>
+      <c r="H168" s="7">
+        <v>0</v>
+      </c>
+      <c r="I168" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J168" s="7">
+        <v>0</v>
+      </c>
+      <c r="K168" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="37"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="28"/>
+      <c r="H169" s="7">
+        <v>0</v>
+      </c>
+      <c r="I169" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J169" s="7">
+        <v>0</v>
+      </c>
+      <c r="K169" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="37"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="28"/>
+      <c r="H170" s="7">
+        <v>0</v>
+      </c>
+      <c r="I170" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J170" s="7">
+        <v>0</v>
+      </c>
+      <c r="K170" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="37"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" s="28"/>
+      <c r="H171" s="7">
+        <v>0</v>
+      </c>
+      <c r="I171" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J171" s="7">
+        <v>0</v>
+      </c>
+      <c r="K171" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="37"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="28"/>
+      <c r="H172" s="7">
+        <v>0</v>
+      </c>
+      <c r="I172" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J172" s="7">
+        <v>0</v>
+      </c>
+      <c r="K172" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B173" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="26">
+        <f>SUM(G142:G172)</f>
+        <v>176</v>
+      </c>
+      <c r="H173" s="26">
+        <f>SUM(H142:H161)</f>
+        <v>12.48</v>
+      </c>
+      <c r="I173" s="26">
+        <f>SUM(I142:I161)</f>
+        <v>43.980000000000004</v>
+      </c>
+      <c r="J173" s="26">
+        <f>SUM(J142:J161)</f>
+        <v>25</v>
+      </c>
+      <c r="K173" s="9">
+        <f>SUM(K142:K161)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="32"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="B178" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178" s="49">
+        <v>45300</v>
+      </c>
+      <c r="I178" s="49">
+        <v>45301</v>
+      </c>
+      <c r="J178" s="49">
+        <v>45302</v>
+      </c>
+      <c r="K178" s="49">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="28">
+        <v>140</v>
+      </c>
+      <c r="H179" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I179" s="7">
+        <v>0</v>
+      </c>
+      <c r="J179" s="7">
+        <v>0</v>
+      </c>
+      <c r="K179" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B180" s="33"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="28"/>
+      <c r="H180" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I180" s="7">
+        <v>0</v>
+      </c>
+      <c r="J180" s="7">
+        <v>0</v>
+      </c>
+      <c r="K180" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B181" s="33"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="28"/>
+      <c r="H181" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I181" s="7">
+        <v>0</v>
+      </c>
+      <c r="J181" s="7">
+        <v>0</v>
+      </c>
+      <c r="K181" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B182" s="33"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="28"/>
+      <c r="H182" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="I182" s="7">
+        <v>0</v>
+      </c>
+      <c r="J182" s="7">
+        <v>0</v>
+      </c>
+      <c r="K182" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="33"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="28"/>
+      <c r="H183" s="7">
+        <v>0</v>
+      </c>
+      <c r="I183" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J183" s="7">
+        <v>0</v>
+      </c>
+      <c r="K183" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B184" s="33"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="28"/>
+      <c r="H184" s="7">
+        <v>0</v>
+      </c>
+      <c r="I184" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="J184" s="7">
+        <v>0</v>
+      </c>
+      <c r="K184" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B185" s="33"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G185" s="28"/>
+      <c r="H185" s="7">
+        <v>0</v>
+      </c>
+      <c r="I185" s="7">
+        <v>0</v>
+      </c>
+      <c r="J185" s="7">
+        <v>0</v>
+      </c>
+      <c r="K185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B186" s="33"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G186" s="28"/>
+      <c r="H186" s="7">
+        <v>0</v>
+      </c>
+      <c r="I186" s="7">
+        <v>0</v>
+      </c>
+      <c r="J186" s="7">
+        <v>0</v>
+      </c>
+      <c r="K186" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B187" s="33"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G187" s="28"/>
+      <c r="H187" s="7">
+        <v>0</v>
+      </c>
+      <c r="I187" s="7">
+        <v>0</v>
+      </c>
+      <c r="J187" s="7">
+        <v>0</v>
+      </c>
+      <c r="K187" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B188" s="33"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G188" s="28"/>
+      <c r="H188" s="7">
+        <v>0</v>
+      </c>
+      <c r="I188" s="7">
+        <v>0</v>
+      </c>
+      <c r="J188" s="7">
+        <v>0</v>
+      </c>
+      <c r="K188" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B189" s="33"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G189" s="28"/>
+      <c r="H189" s="7">
+        <v>0</v>
+      </c>
+      <c r="I189" s="7">
+        <v>0</v>
+      </c>
+      <c r="J189" s="7">
+        <v>0</v>
+      </c>
+      <c r="K189" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B190" s="33"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G190" s="28"/>
+      <c r="H190" s="7">
+        <v>0</v>
+      </c>
+      <c r="I190" s="7">
+        <v>0</v>
+      </c>
+      <c r="J190" s="7">
+        <v>0</v>
+      </c>
+      <c r="K190" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="34"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G191" s="29"/>
+      <c r="H191" s="7">
+        <v>0</v>
+      </c>
+      <c r="I191" s="7">
+        <v>0</v>
+      </c>
+      <c r="J191" s="7">
+        <v>0</v>
+      </c>
+      <c r="K191" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B192" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C192" s="39"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="26">
+        <f>SUM(G179:G191)</f>
+        <v>140</v>
+      </c>
+      <c r="H192" s="26">
+        <f>SUM(H179:H191)</f>
+        <v>12.48</v>
+      </c>
+      <c r="I192" s="26">
+        <f>SUM(I179:I191)</f>
+        <v>6.24</v>
+      </c>
+      <c r="J192" s="26">
+        <f>SUM(J179:J191)</f>
+        <v>0</v>
+      </c>
+      <c r="K192" s="9">
+        <f>SUM(K179:K191)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="103">
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="G166:G172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B176:K176"/>
+    <mergeCell ref="B179:B191"/>
+    <mergeCell ref="C179:C191"/>
+    <mergeCell ref="G179:G191"/>
+    <mergeCell ref="B155:B161"/>
+    <mergeCell ref="C155:C161"/>
+    <mergeCell ref="G155:G161"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="D150:D154"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="B142:B154"/>
+    <mergeCell ref="C142:C154"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="G142:G154"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="G91:G97"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D101"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="D52:D55"/>
     <mergeCell ref="D61:D64"/>
@@ -2951,6 +5994,27 @@
     <mergeCell ref="B33:B40"/>
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="G33:G40"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="G78:G90"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="G98:G104"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="D185:D191"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B110:B122"/>
+    <mergeCell ref="C110:C122"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="G110:G122"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="G130:G136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="B139:K139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documentacion/Sprint_Backlog.xlsx
+++ b/Documentacion/Sprint_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD29BC-A1DA-40EA-AAA4-8424AB2E68A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B194BCA-D008-4FE6-89B1-E1D17C5AAD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIAL DE VERSIONES" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -357,9 +357,6 @@
     <t>HORAS SPRINT 7</t>
   </si>
   <si>
-    <t>Pasarelade pagos</t>
-  </si>
-  <si>
     <t>HT-09</t>
   </si>
   <si>
@@ -373,10 +370,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Implementacion pago por tarjeta de credito
-</t>
-  </si>
-  <si>
     <t>Generacion de codigo QR de cada boleto reservado</t>
   </si>
   <si>
@@ -445,6 +438,75 @@
   </si>
   <si>
     <t>Crear cronogramas nuevos de cada unidad</t>
+  </si>
+  <si>
+    <t>Metodo de pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementacion pago por otro metodo 
+</t>
+  </si>
+  <si>
+    <t>SPRINT 8 BACKLOG</t>
+  </si>
+  <si>
+    <t>Maquetado de interfaces</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 8</t>
+  </si>
+  <si>
+    <t>Maquetado login</t>
+  </si>
+  <si>
+    <t>Maquetado usuario pasajero</t>
+  </si>
+  <si>
+    <t>Maquetado usuario administrador</t>
+  </si>
+  <si>
+    <t>Maquetado usuario personal de atencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elección de colores y  fuentes para las pantallas
+</t>
+  </si>
+  <si>
+    <t>HU05</t>
+  </si>
+  <si>
+    <t>Gestion de QR</t>
+  </si>
+  <si>
+    <t>Obtener informacion del qr</t>
+  </si>
+  <si>
+    <t>Validar informacion del qr</t>
+  </si>
+  <si>
+    <t>Acciones con el qr</t>
+  </si>
+  <si>
+    <t>Verificacion de qr unico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementacion de QR
+</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 6</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 7</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 8</t>
+  </si>
+  <si>
+    <t>91/2024</t>
+  </si>
+  <si>
+    <t>HT-14</t>
   </si>
 </sst>
 </file>
@@ -570,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -825,11 +887,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -909,16 +984,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,25 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -960,11 +1041,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -972,11 +1053,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,8 +1381,8 @@
   </sheetPr>
   <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="67" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,6 +1505,57 @@
         <v>82</v>
       </c>
     </row>
+    <row r="13" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="24">
+        <v>45293</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="24">
+        <v>45642</v>
+      </c>
+      <c r="C15" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="38.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1434,10 +1569,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:R192"/>
+  <dimension ref="B1:R223"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A159" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A197" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P197" sqref="P197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,64 +1590,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="2:18" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="6" spans="2:18" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:18" s="4" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1534,16 +1669,16 @@
       <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="28">
         <v>45244</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="28">
         <v>45245</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="28">
         <v>45246</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="28">
         <v>45247</v>
       </c>
       <c r="L8" s="6"/>
@@ -1555,22 +1690,22 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="34" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="30">
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1587,16 +1722,16 @@
       </c>
     </row>
     <row r="10" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -1611,8 +1746,8 @@
       </c>
     </row>
     <row r="11" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1622,7 +1757,7 @@
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="11">
         <v>8</v>
       </c>
@@ -1637,10 +1772,10 @@
       </c>
     </row>
     <row r="12" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1652,7 +1787,7 @@
       <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="29">
         <v>70</v>
       </c>
       <c r="H12" s="10">
@@ -1669,8 +1804,8 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1815,7 @@
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
@@ -1695,8 +1830,8 @@
       </c>
     </row>
     <row r="14" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1706,7 +1841,7 @@
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="8">
         <v>0</v>
       </c>
@@ -1721,8 +1856,8 @@
       </c>
     </row>
     <row r="15" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="45"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1867,7 @@
       <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="11">
         <v>0</v>
       </c>
@@ -1747,10 +1882,10 @@
       </c>
     </row>
     <row r="16" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1762,7 +1897,7 @@
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="29">
         <v>30</v>
       </c>
       <c r="H16" s="10">
@@ -1779,8 +1914,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1790,7 +1925,7 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="8">
         <v>0</v>
       </c>
@@ -1805,8 +1940,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1951,7 @@
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="8">
         <v>0</v>
       </c>
@@ -1831,8 +1966,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="45"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1977,7 @@
       <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="12">
         <v>0</v>
       </c>
@@ -1857,13 +1992,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="9">
         <f>SUM(G9:G19)</f>
         <v>110</v>
@@ -1886,18 +2021,18 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -1930,24 +2065,24 @@
       <c r="G25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="28">
         <v>45251</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="28">
         <v>45252</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25" s="28">
         <v>45253</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="28">
         <v>45254</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1959,7 +2094,7 @@
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="30">
         <v>40</v>
       </c>
       <c r="H26" s="7">
@@ -1976,9 +2111,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="41" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="46" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -1987,7 +2122,7 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="7">
         <v>10</v>
       </c>
@@ -2002,16 +2137,16 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="7">
         <v>7.5</v>
       </c>
@@ -2026,16 +2161,16 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="33"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="7">
         <v>5</v>
       </c>
@@ -2050,16 +2185,16 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="33"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="43"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="7">
         <v>5</v>
       </c>
@@ -2074,8 +2209,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
@@ -2085,7 +2220,7 @@
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="7">
         <v>2.5</v>
       </c>
@@ -2100,8 +2235,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="34"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
@@ -2111,7 +2246,7 @@
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="7">
         <v>7.5</v>
       </c>
@@ -2126,13 +2261,13 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="18" t="s">
@@ -2141,7 +2276,7 @@
       <c r="F33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="29">
         <v>100</v>
       </c>
       <c r="H33" s="10">
@@ -2158,16 +2293,16 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="42"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -2182,16 +2317,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="42"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -2206,16 +2341,16 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -2230,8 +2365,8 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
@@ -2241,7 +2376,7 @@
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -2256,8 +2391,8 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="28"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2267,7 +2402,7 @@
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="28"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -2282,8 +2417,8 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2293,7 +2428,7 @@
       <c r="F39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -2308,8 +2443,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="64.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="45"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="13" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2454,7 @@
       <c r="F40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="29"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -2334,13 +2469,13 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="18" t="s">
@@ -2349,7 +2484,7 @@
       <c r="F41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="29">
         <v>10</v>
       </c>
       <c r="H41" s="10">
@@ -2366,16 +2501,16 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="42"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="28"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -2390,16 +2525,16 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="42"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="28"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -2414,16 +2549,16 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="28"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -2438,8 +2573,8 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="37"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2449,7 +2584,7 @@
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="8">
         <v>0</v>
       </c>
@@ -2464,13 +2599,13 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
       <c r="G46" s="9">
         <f>SUM(G26:G45)</f>
         <v>150</v>
@@ -2493,18 +2628,18 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
@@ -2537,27 +2672,27 @@
       <c r="G51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H51" s="28">
         <v>45258</v>
       </c>
-      <c r="I51" s="49">
+      <c r="I51" s="28">
         <v>45259</v>
       </c>
-      <c r="J51" s="49">
+      <c r="J51" s="28">
         <v>45260</v>
       </c>
-      <c r="K51" s="49">
+      <c r="K51" s="28">
         <v>45261</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="46" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -2566,7 +2701,7 @@
       <c r="F52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="30">
         <v>50</v>
       </c>
       <c r="H52" s="7">
@@ -2583,16 +2718,16 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="33"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="7">
         <v>3.12</v>
       </c>
@@ -2607,16 +2742,16 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="33"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="42"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="7">
         <v>3.12</v>
       </c>
@@ -2631,16 +2766,16 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="33"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="43"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="7">
         <v>3.12</v>
       </c>
@@ -2655,9 +2790,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="33"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="41" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="46" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -2666,7 +2801,7 @@
       <c r="F56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="30"/>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -2681,16 +2816,16 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="33"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="42"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -2705,16 +2840,16 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="33"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="42"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="7">
         <v>0</v>
       </c>
@@ -2729,16 +2864,16 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="33"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="43"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="28"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="7">
         <v>0</v>
       </c>
@@ -2753,8 +2888,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="33"/>
-      <c r="C60" s="28"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="7" t="s">
         <v>70</v>
       </c>
@@ -2764,7 +2899,7 @@
       <c r="F60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="28"/>
+      <c r="G60" s="30"/>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -2779,9 +2914,9 @@
       </c>
     </row>
     <row r="61" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="33"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="41" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="46" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -2790,7 +2925,7 @@
       <c r="F61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="30"/>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -2805,16 +2940,16 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="33"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="42"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
@@ -2829,16 +2964,16 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="33"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="28"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="7">
         <v>0</v>
       </c>
@@ -2853,16 +2988,16 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="34"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="48"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="29"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="7">
         <v>0</v>
       </c>
@@ -2877,13 +3012,13 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="43" t="s">
         <v>75</v>
       </c>
       <c r="E65" s="18" t="s">
@@ -2892,7 +3027,7 @@
       <c r="F65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="27">
+      <c r="G65" s="29">
         <v>120</v>
       </c>
       <c r="H65" s="10">
@@ -2909,16 +3044,16 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="37"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="42"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="28"/>
+      <c r="G66" s="30"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
@@ -2933,16 +3068,16 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="37"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="42"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="28"/>
+      <c r="G67" s="30"/>
       <c r="H67" s="7">
         <v>0</v>
       </c>
@@ -2957,16 +3092,16 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="37"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="43"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="28"/>
+      <c r="G68" s="30"/>
       <c r="H68" s="7">
         <v>0</v>
       </c>
@@ -2981,8 +3116,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="37"/>
-      <c r="C69" s="28"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="2" t="s">
         <v>76</v>
       </c>
@@ -2992,7 +3127,7 @@
       <c r="F69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="28"/>
+      <c r="G69" s="30"/>
       <c r="H69" s="7">
         <v>0</v>
       </c>
@@ -3008,8 +3143,8 @@
       <c r="L69" s="25"/>
     </row>
     <row r="70" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="37"/>
-      <c r="C70" s="28"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="2" t="s">
         <v>77</v>
       </c>
@@ -3019,7 +3154,7 @@
       <c r="F70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="28"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="7">
         <v>0</v>
       </c>
@@ -3034,8 +3169,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="37"/>
-      <c r="C71" s="28"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="2" t="s">
         <v>78</v>
       </c>
@@ -3045,7 +3180,7 @@
       <c r="F71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="28"/>
+      <c r="G71" s="30"/>
       <c r="H71" s="7">
         <v>0</v>
       </c>
@@ -3060,13 +3195,13 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="40"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="9">
         <f>SUM(G52:G71)</f>
         <v>170</v>
@@ -3089,18 +3224,18 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
@@ -3133,27 +3268,27 @@
       <c r="G77" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="49">
+      <c r="H77" s="28">
         <v>45265</v>
       </c>
-      <c r="I77" s="49">
+      <c r="I77" s="28">
         <v>45266</v>
       </c>
-      <c r="J77" s="49">
+      <c r="J77" s="28">
         <v>45267</v>
       </c>
-      <c r="K77" s="49">
+      <c r="K77" s="28">
         <v>45268</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="34" t="s">
         <v>90</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -3162,7 +3297,7 @@
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="30">
         <v>90</v>
       </c>
       <c r="H78" s="7">
@@ -3179,16 +3314,16 @@
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="33"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="28"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="7">
         <v>3.12</v>
       </c>
@@ -3203,16 +3338,16 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="33"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="28"/>
+      <c r="G80" s="30"/>
       <c r="H80" s="7">
         <v>3.12</v>
       </c>
@@ -3227,16 +3362,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="33"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="30"/>
       <c r="H81" s="7">
         <v>3.12</v>
       </c>
@@ -3251,9 +3386,9 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="33"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="30" t="s">
+      <c r="B82" s="41"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="34" t="s">
         <v>89</v>
       </c>
       <c r="E82" s="19" t="s">
@@ -3262,7 +3397,7 @@
       <c r="F82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="28"/>
+      <c r="G82" s="30"/>
       <c r="H82" s="7">
         <v>0</v>
       </c>
@@ -3277,16 +3412,16 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="33"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="28"/>
+      <c r="G83" s="30"/>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -3301,16 +3436,16 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="33"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="28"/>
+      <c r="G84" s="30"/>
       <c r="H84" s="7">
         <v>0</v>
       </c>
@@ -3325,16 +3460,16 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="33"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="35"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="28"/>
+      <c r="G85" s="30"/>
       <c r="H85" s="7">
         <v>0</v>
       </c>
@@ -3349,9 +3484,9 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="33"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="30" t="s">
+      <c r="B86" s="41"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="34" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="19" t="s">
@@ -3360,7 +3495,7 @@
       <c r="F86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="28"/>
+      <c r="G86" s="30"/>
       <c r="H86" s="7">
         <v>0</v>
       </c>
@@ -3375,16 +3510,16 @@
       </c>
     </row>
     <row r="87" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="33"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="28"/>
+      <c r="G87" s="30"/>
       <c r="H87" s="7">
         <v>0</v>
       </c>
@@ -3399,16 +3534,16 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="33"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="28"/>
+      <c r="G88" s="30"/>
       <c r="H88" s="7">
         <v>0</v>
       </c>
@@ -3423,16 +3558,16 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="33"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="28"/>
+      <c r="G89" s="30"/>
       <c r="H89" s="7">
         <v>0</v>
       </c>
@@ -3447,16 +3582,16 @@
       </c>
     </row>
     <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="34"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="29"/>
+      <c r="G90" s="35"/>
       <c r="H90" s="7">
         <v>0</v>
       </c>
@@ -3471,14 +3606,14 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="44" t="s">
-        <v>117</v>
+      <c r="D91" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>14</v>
@@ -3486,7 +3621,7 @@
       <c r="F91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G91" s="29">
         <v>50</v>
       </c>
       <c r="H91" s="10">
@@ -3503,16 +3638,16 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="37"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="42"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="28"/>
+      <c r="G92" s="30"/>
       <c r="H92" s="7">
         <v>0</v>
       </c>
@@ -3527,16 +3662,16 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="37"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="42"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="28"/>
+      <c r="G93" s="30"/>
       <c r="H93" s="7">
         <v>0</v>
       </c>
@@ -3551,16 +3686,16 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="37"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="43"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="28"/>
+      <c r="G94" s="30"/>
       <c r="H94" s="7">
         <v>0</v>
       </c>
@@ -3575,10 +3710,10 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="37"/>
-      <c r="C95" s="28"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>11</v>
@@ -3586,7 +3721,7 @@
       <c r="F95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="28"/>
+      <c r="G95" s="30"/>
       <c r="H95" s="7">
         <v>0</v>
       </c>
@@ -3601,10 +3736,10 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="37"/>
-      <c r="C96" s="28"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>24</v>
@@ -3612,7 +3747,7 @@
       <c r="F96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="28"/>
+      <c r="G96" s="30"/>
       <c r="H96" s="7">
         <v>0</v>
       </c>
@@ -3627,10 +3762,10 @@
       </c>
     </row>
     <row r="97" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="37"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>23</v>
@@ -3638,7 +3773,7 @@
       <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="28"/>
+      <c r="G97" s="30"/>
       <c r="H97" s="7">
         <v>0</v>
       </c>
@@ -3653,14 +3788,14 @@
       </c>
     </row>
     <row r="98" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="44" t="s">
-        <v>120</v>
+      <c r="D98" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>14</v>
@@ -3668,7 +3803,7 @@
       <c r="F98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="27">
+      <c r="G98" s="29">
         <v>50</v>
       </c>
       <c r="H98" s="10">
@@ -3685,16 +3820,16 @@
       </c>
     </row>
     <row r="99" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="37"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="42"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="28"/>
+      <c r="G99" s="30"/>
       <c r="H99" s="7">
         <v>0</v>
       </c>
@@ -3709,16 +3844,16 @@
       </c>
     </row>
     <row r="100" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="37"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="42"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="44"/>
       <c r="E100" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="28"/>
+      <c r="G100" s="30"/>
       <c r="H100" s="7">
         <v>0</v>
       </c>
@@ -3733,16 +3868,16 @@
       </c>
     </row>
     <row r="101" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="37"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="43"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="45"/>
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="28"/>
+      <c r="G101" s="30"/>
       <c r="H101" s="7">
         <v>0</v>
       </c>
@@ -3757,10 +3892,10 @@
       </c>
     </row>
     <row r="102" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="37"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>11</v>
@@ -3768,7 +3903,7 @@
       <c r="F102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="28"/>
+      <c r="G102" s="30"/>
       <c r="H102" s="7">
         <v>0</v>
       </c>
@@ -3783,10 +3918,10 @@
       </c>
     </row>
     <row r="103" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="37"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="30"/>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>24</v>
@@ -3794,7 +3929,7 @@
       <c r="F103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="28"/>
+      <c r="G103" s="30"/>
       <c r="H103" s="7">
         <v>0</v>
       </c>
@@ -3809,10 +3944,10 @@
       </c>
     </row>
     <row r="104" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="37"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>23</v>
@@ -3820,7 +3955,7 @@
       <c r="F104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="28"/>
+      <c r="G104" s="30"/>
       <c r="H104" s="7">
         <v>0</v>
       </c>
@@ -3835,13 +3970,13 @@
       </c>
     </row>
     <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="40"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="38"/>
       <c r="G105" s="9">
         <f>SUM(G85:G104:G78)</f>
         <v>190</v>
@@ -3864,18 +3999,18 @@
       </c>
     </row>
     <row r="107" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="32"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="3"/>
@@ -3908,28 +4043,28 @@
       <c r="G109" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H109" s="49">
+      <c r="H109" s="28">
         <v>45272</v>
       </c>
-      <c r="I109" s="49">
+      <c r="I109" s="28">
         <v>45273</v>
       </c>
-      <c r="J109" s="49">
+      <c r="J109" s="28">
         <v>45274</v>
       </c>
-      <c r="K109" s="49">
+      <c r="K109" s="28">
         <v>45275</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="30" t="s">
-        <v>116</v>
+      <c r="D110" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>23</v>
@@ -3937,7 +4072,7 @@
       <c r="F110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G110" s="30">
         <v>80</v>
       </c>
       <c r="H110" s="7">
@@ -3954,16 +4089,16 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="33"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
       <c r="E111" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="28"/>
+      <c r="G111" s="30"/>
       <c r="H111" s="7">
         <v>3.12</v>
       </c>
@@ -3978,16 +4113,16 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="33"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
       <c r="E112" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="28"/>
+      <c r="G112" s="30"/>
       <c r="H112" s="7">
         <v>3.12</v>
       </c>
@@ -4002,16 +4137,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="33"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="35"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="31"/>
       <c r="E113" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="28"/>
+      <c r="G113" s="30"/>
       <c r="H113" s="7">
         <v>3.12</v>
       </c>
@@ -4026,9 +4161,9 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="33"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="30" t="s">
+      <c r="B114" s="41"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="34" t="s">
         <v>98</v>
       </c>
       <c r="E114" s="19" t="s">
@@ -4037,7 +4172,7 @@
       <c r="F114" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="28"/>
+      <c r="G114" s="30"/>
       <c r="H114" s="7">
         <v>0</v>
       </c>
@@ -4052,16 +4187,16 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="33"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
       <c r="E115" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="28"/>
+      <c r="G115" s="30"/>
       <c r="H115" s="7">
         <v>0</v>
       </c>
@@ -4076,16 +4211,16 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="33"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
       <c r="E116" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="28"/>
+      <c r="G116" s="30"/>
       <c r="H116" s="7">
         <v>0</v>
       </c>
@@ -4100,16 +4235,16 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="33"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="35"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="31"/>
       <c r="E117" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="28"/>
+      <c r="G117" s="30"/>
       <c r="H117" s="7">
         <v>0</v>
       </c>
@@ -4124,10 +4259,10 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="33"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="30" t="s">
-        <v>129</v>
+      <c r="B118" s="41"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>14</v>
@@ -4135,7 +4270,7 @@
       <c r="F118" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="28"/>
+      <c r="G118" s="30"/>
       <c r="H118" s="7">
         <v>0</v>
       </c>
@@ -4150,16 +4285,16 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="33"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
       <c r="E119" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="28"/>
+      <c r="G119" s="30"/>
       <c r="H119" s="7">
         <v>0</v>
       </c>
@@ -4174,16 +4309,16 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="33"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
       <c r="E120" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="28"/>
+      <c r="G120" s="30"/>
       <c r="H120" s="7">
         <v>0</v>
       </c>
@@ -4198,16 +4333,16 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="33"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
       <c r="E121" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="28"/>
+      <c r="G121" s="30"/>
       <c r="H121" s="7">
         <v>0</v>
       </c>
@@ -4222,16 +4357,16 @@
       </c>
     </row>
     <row r="122" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="34"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
       <c r="E122" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="29"/>
+      <c r="G122" s="35"/>
       <c r="H122" s="7">
         <v>0</v>
       </c>
@@ -4246,14 +4381,14 @@
       </c>
     </row>
     <row r="123" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="27" t="s">
-        <v>109</v>
+      <c r="D123" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="E123" s="18" t="s">
         <v>14</v>
@@ -4261,7 +4396,7 @@
       <c r="F123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="27">
+      <c r="G123" s="29">
         <v>43</v>
       </c>
       <c r="H123" s="10">
@@ -4278,16 +4413,16 @@
       </c>
     </row>
     <row r="124" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="37"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
       <c r="E124" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="28"/>
+      <c r="G124" s="30"/>
       <c r="H124" s="7">
         <v>0</v>
       </c>
@@ -4302,16 +4437,16 @@
       </c>
     </row>
     <row r="125" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="37"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
       <c r="E125" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="28"/>
+      <c r="G125" s="30"/>
       <c r="H125" s="7">
         <v>0</v>
       </c>
@@ -4326,16 +4461,16 @@
       </c>
     </row>
     <row r="126" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="37"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
       <c r="E126" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="28"/>
+      <c r="G126" s="30"/>
       <c r="H126" s="7">
         <v>0</v>
       </c>
@@ -4350,16 +4485,16 @@
       </c>
     </row>
     <row r="127" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="37"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
       <c r="E127" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="28"/>
+      <c r="G127" s="30"/>
       <c r="H127" s="7">
         <v>0</v>
       </c>
@@ -4374,16 +4509,16 @@
       </c>
     </row>
     <row r="128" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="37"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
       <c r="E128" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="28"/>
+      <c r="G128" s="30"/>
       <c r="H128" s="7">
         <v>0</v>
       </c>
@@ -4398,16 +4533,16 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="37"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="29"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="28"/>
+      <c r="G129" s="30"/>
       <c r="H129" s="7">
         <v>0</v>
       </c>
@@ -4422,14 +4557,14 @@
       </c>
     </row>
     <row r="130" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>133</v>
+      <c r="C130" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>131</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>14</v>
@@ -4437,7 +4572,7 @@
       <c r="F130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G130" s="29">
         <v>47</v>
       </c>
       <c r="H130" s="10">
@@ -4454,16 +4589,16 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="37"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
       <c r="E131" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G131" s="28"/>
+      <c r="G131" s="30"/>
       <c r="H131" s="7">
         <v>0</v>
       </c>
@@ -4478,16 +4613,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="37"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
       <c r="E132" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="28"/>
+      <c r="G132" s="30"/>
       <c r="H132" s="7">
         <v>0</v>
       </c>
@@ -4502,16 +4637,16 @@
       </c>
     </row>
     <row r="133" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="37"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="31"/>
       <c r="E133" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G133" s="28"/>
+      <c r="G133" s="30"/>
       <c r="H133" s="7">
         <v>0</v>
       </c>
@@ -4526,10 +4661,10 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="37"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="30" t="s">
-        <v>134</v>
+      <c r="B134" s="33"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>11</v>
@@ -4537,7 +4672,7 @@
       <c r="F134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G134" s="28"/>
+      <c r="G134" s="30"/>
       <c r="H134" s="7">
         <v>0</v>
       </c>
@@ -4552,16 +4687,16 @@
       </c>
     </row>
     <row r="135" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="37"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
       <c r="E135" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G135" s="28"/>
+      <c r="G135" s="30"/>
       <c r="H135" s="7">
         <v>0</v>
       </c>
@@ -4576,16 +4711,16 @@
       </c>
     </row>
     <row r="136" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="37"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="35"/>
       <c r="E136" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="28"/>
+      <c r="G136" s="30"/>
       <c r="H136" s="7">
         <v>0</v>
       </c>
@@ -4600,13 +4735,13 @@
       </c>
     </row>
     <row r="137" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="40"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="38"/>
       <c r="G137" s="26">
         <f>SUM(G110:G130)</f>
         <v>170</v>
@@ -4629,18 +4764,18 @@
       </c>
     </row>
     <row r="139" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B139" s="31" t="s">
+      <c r="B139" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="32"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="40"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
@@ -4673,28 +4808,28 @@
       <c r="G141" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H141" s="49">
+      <c r="H141" s="28">
         <v>45293</v>
       </c>
-      <c r="I141" s="49">
+      <c r="I141" s="28">
         <v>45294</v>
       </c>
-      <c r="J141" s="49">
+      <c r="J141" s="28">
         <v>45295</v>
       </c>
-      <c r="K141" s="49">
+      <c r="K141" s="28">
         <v>45296</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="33" t="s">
+      <c r="B142" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D142" s="30" t="s">
-        <v>114</v>
+      <c r="D142" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="E142" s="19" t="s">
         <v>23</v>
@@ -4702,7 +4837,7 @@
       <c r="F142" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="28">
+      <c r="G142" s="30">
         <v>80</v>
       </c>
       <c r="H142" s="7">
@@ -4719,16 +4854,16 @@
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="33"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
       <c r="E143" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="28"/>
+      <c r="G143" s="30"/>
       <c r="H143" s="7">
         <v>3.12</v>
       </c>
@@ -4743,16 +4878,16 @@
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="33"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
       <c r="E144" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="28"/>
+      <c r="G144" s="30"/>
       <c r="H144" s="7">
         <v>3.12</v>
       </c>
@@ -4767,16 +4902,16 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="33"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="35"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="31"/>
       <c r="E145" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G145" s="28"/>
+      <c r="G145" s="30"/>
       <c r="H145" s="7">
         <v>3.12</v>
       </c>
@@ -4791,10 +4926,10 @@
       </c>
     </row>
     <row r="146" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="33"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="30" t="s">
-        <v>125</v>
+      <c r="B146" s="41"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>11</v>
@@ -4802,7 +4937,7 @@
       <c r="F146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="28"/>
+      <c r="G146" s="30"/>
       <c r="H146" s="7">
         <v>0</v>
       </c>
@@ -4817,16 +4952,16 @@
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="33"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
       <c r="E147" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="28"/>
+      <c r="G147" s="30"/>
       <c r="H147" s="7">
         <v>0</v>
       </c>
@@ -4841,16 +4976,16 @@
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="33"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
       <c r="E148" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G148" s="28"/>
+      <c r="G148" s="30"/>
       <c r="H148" s="7">
         <v>0</v>
       </c>
@@ -4865,16 +5000,16 @@
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B149" s="33"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
       <c r="E149" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="28"/>
+      <c r="G149" s="30"/>
       <c r="H149" s="7">
         <v>0</v>
       </c>
@@ -4889,10 +5024,10 @@
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B150" s="33"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="30" t="s">
-        <v>126</v>
+      <c r="B150" s="41"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="E150" s="19" t="s">
         <v>14</v>
@@ -4900,7 +5035,7 @@
       <c r="F150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="28"/>
+      <c r="G150" s="30"/>
       <c r="H150" s="7">
         <v>0</v>
       </c>
@@ -4915,16 +5050,16 @@
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B151" s="33"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
       <c r="E151" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="28"/>
+      <c r="G151" s="30"/>
       <c r="H151" s="7">
         <v>0</v>
       </c>
@@ -4939,16 +5074,16 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B152" s="33"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
       <c r="E152" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="28"/>
+      <c r="G152" s="30"/>
       <c r="H152" s="7">
         <v>0</v>
       </c>
@@ -4963,16 +5098,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B153" s="33"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
       <c r="E153" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G153" s="28"/>
+      <c r="G153" s="30"/>
       <c r="H153" s="7">
         <v>0</v>
       </c>
@@ -4987,16 +5122,16 @@
       </c>
     </row>
     <row r="154" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="34"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
       <c r="E154" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G154" s="29"/>
+      <c r="G154" s="35"/>
       <c r="H154" s="7">
         <v>0</v>
       </c>
@@ -5011,14 +5146,14 @@
       </c>
     </row>
     <row r="155" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="36" t="s">
+      <c r="B155" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="27" t="s">
-        <v>113</v>
+      <c r="D155" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="E155" s="18" t="s">
         <v>14</v>
@@ -5026,7 +5161,7 @@
       <c r="F155" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="27">
+      <c r="G155" s="29">
         <v>43</v>
       </c>
       <c r="H155" s="10">
@@ -5043,16 +5178,16 @@
       </c>
     </row>
     <row r="156" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="37"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
       <c r="E156" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="28"/>
+      <c r="G156" s="30"/>
       <c r="H156" s="7">
         <v>0</v>
       </c>
@@ -5067,16 +5202,16 @@
       </c>
     </row>
     <row r="157" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="37"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
       <c r="E157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="28"/>
+      <c r="G157" s="30"/>
       <c r="H157" s="7">
         <v>0</v>
       </c>
@@ -5091,16 +5226,16 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="37"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
       <c r="E158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G158" s="28"/>
+      <c r="G158" s="30"/>
       <c r="H158" s="7">
         <v>0</v>
       </c>
@@ -5115,10 +5250,10 @@
       </c>
     </row>
     <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="37"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="30" t="s">
-        <v>127</v>
+      <c r="B159" s="33"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>11</v>
@@ -5126,7 +5261,7 @@
       <c r="F159" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G159" s="28"/>
+      <c r="G159" s="30"/>
       <c r="H159" s="7">
         <v>0</v>
       </c>
@@ -5141,16 +5276,16 @@
       </c>
     </row>
     <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="37"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
       <c r="E160" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="28"/>
+      <c r="G160" s="30"/>
       <c r="H160" s="7">
         <v>0</v>
       </c>
@@ -5165,16 +5300,16 @@
       </c>
     </row>
     <row r="161" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="37"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="29"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="35"/>
       <c r="E161" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="28"/>
+      <c r="G161" s="30"/>
       <c r="H161" s="7">
         <v>0</v>
       </c>
@@ -5189,14 +5324,14 @@
       </c>
     </row>
     <row r="162" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="36" t="s">
+      <c r="B162" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D162" s="27" t="s">
-        <v>115</v>
+      <c r="D162" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>14</v>
@@ -5204,7 +5339,7 @@
       <c r="F162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="27">
+      <c r="G162" s="29">
         <v>43</v>
       </c>
       <c r="H162" s="10">
@@ -5221,16 +5356,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="37"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
       <c r="E163" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="28"/>
+      <c r="G163" s="30"/>
       <c r="H163" s="7">
         <v>0</v>
       </c>
@@ -5245,16 +5380,16 @@
       </c>
     </row>
     <row r="164" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="37"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
       <c r="E164" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="28"/>
+      <c r="G164" s="30"/>
       <c r="H164" s="7">
         <v>0</v>
       </c>
@@ -5269,16 +5404,16 @@
       </c>
     </row>
     <row r="165" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="37"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
       <c r="E165" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="28"/>
+      <c r="G165" s="30"/>
       <c r="H165" s="7">
         <v>0</v>
       </c>
@@ -5293,14 +5428,14 @@
       </c>
     </row>
     <row r="166" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="36" t="s">
+      <c r="B166" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C166" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>131</v>
+      <c r="C166" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="E166" s="18" t="s">
         <v>14</v>
@@ -5308,7 +5443,7 @@
       <c r="F166" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G166" s="27">
+      <c r="G166" s="29">
         <v>10</v>
       </c>
       <c r="H166" s="10">
@@ -5325,16 +5460,16 @@
       </c>
     </row>
     <row r="167" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="37"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
       <c r="E167" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="28"/>
+      <c r="G167" s="30"/>
       <c r="H167" s="7">
         <v>0</v>
       </c>
@@ -5349,16 +5484,16 @@
       </c>
     </row>
     <row r="168" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="37"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
       <c r="E168" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G168" s="28"/>
+      <c r="G168" s="30"/>
       <c r="H168" s="7">
         <v>0</v>
       </c>
@@ -5373,16 +5508,16 @@
       </c>
     </row>
     <row r="169" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="37"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="35"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="31"/>
       <c r="E169" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G169" s="28"/>
+      <c r="G169" s="30"/>
       <c r="H169" s="7">
         <v>0</v>
       </c>
@@ -5397,10 +5532,10 @@
       </c>
     </row>
     <row r="170" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="37"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="30" t="s">
-        <v>132</v>
+      <c r="B170" s="33"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="E170" s="19" t="s">
         <v>11</v>
@@ -5408,7 +5543,7 @@
       <c r="F170" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="28"/>
+      <c r="G170" s="30"/>
       <c r="H170" s="7">
         <v>0</v>
       </c>
@@ -5423,16 +5558,16 @@
       </c>
     </row>
     <row r="171" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="37"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
       <c r="E171" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G171" s="28"/>
+      <c r="G171" s="30"/>
       <c r="H171" s="7">
         <v>0</v>
       </c>
@@ -5447,16 +5582,16 @@
       </c>
     </row>
     <row r="172" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="37"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="29"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G172" s="28"/>
+      <c r="G172" s="30"/>
       <c r="H172" s="7">
         <v>0</v>
       </c>
@@ -5471,13 +5606,13 @@
       </c>
     </row>
     <row r="173" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-      <c r="F173" s="40"/>
+      <c r="C173" s="37"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="38"/>
       <c r="G173" s="26">
         <f>SUM(G142:G172)</f>
         <v>176</v>
@@ -5500,18 +5635,18 @@
       </c>
     </row>
     <row r="176" spans="2:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="32"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="32"/>
-      <c r="J176" s="32"/>
-      <c r="K176" s="32"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="40"/>
+      <c r="I176" s="40"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="40"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
@@ -5544,28 +5679,28 @@
       <c r="G178" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H178" s="49">
+      <c r="H178" s="28">
         <v>45300</v>
       </c>
-      <c r="I178" s="49">
+      <c r="I178" s="28">
         <v>45301</v>
       </c>
-      <c r="J178" s="49">
+      <c r="J178" s="28">
         <v>45302</v>
       </c>
-      <c r="K178" s="49">
+      <c r="K178" s="28">
         <v>45303</v>
       </c>
     </row>
     <row r="179" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C179" s="28" t="s">
+      <c r="B179" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="D179" s="30" t="s">
-        <v>111</v>
+      <c r="C179" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="E179" s="19" t="s">
         <v>23</v>
@@ -5573,7 +5708,7 @@
       <c r="F179" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="28">
+      <c r="G179" s="34">
         <v>140</v>
       </c>
       <c r="H179" s="7">
@@ -5590,16 +5725,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B180" s="33"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
       <c r="E180" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="28"/>
+      <c r="G180" s="30"/>
       <c r="H180" s="7">
         <v>3.12</v>
       </c>
@@ -5614,16 +5749,16 @@
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B181" s="33"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
       <c r="E181" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="28"/>
+      <c r="G181" s="30"/>
       <c r="H181" s="7">
         <v>3.12</v>
       </c>
@@ -5638,16 +5773,16 @@
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B182" s="33"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="31"/>
       <c r="E182" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G182" s="28"/>
+      <c r="G182" s="30"/>
       <c r="H182" s="7">
         <v>3.12</v>
       </c>
@@ -5662,10 +5797,10 @@
       </c>
     </row>
     <row r="183" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="33"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="30" t="s">
-        <v>128</v>
+      <c r="B183" s="41"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="E183" s="19" t="s">
         <v>11</v>
@@ -5673,7 +5808,7 @@
       <c r="F183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G183" s="28"/>
+      <c r="G183" s="30"/>
       <c r="H183" s="7">
         <v>0</v>
       </c>
@@ -5688,16 +5823,16 @@
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B184" s="33"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="35"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="31"/>
       <c r="E184" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G184" s="28"/>
+      <c r="G184" s="30"/>
       <c r="H184" s="7">
         <v>0</v>
       </c>
@@ -5711,19 +5846,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B185" s="33"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28" t="s">
-        <v>112</v>
+    <row r="185" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="41"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="E185" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G185" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G185" s="30"/>
       <c r="H185" s="7">
         <v>0</v>
       </c>
@@ -5731,23 +5866,23 @@
         <v>0</v>
       </c>
       <c r="J185" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K185" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B186" s="33"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
       <c r="E186" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G186" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G186" s="30"/>
       <c r="H186" s="7">
         <v>0</v>
       </c>
@@ -5755,23 +5890,23 @@
         <v>0</v>
       </c>
       <c r="J186" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K186" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B187" s="33"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
       <c r="E187" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G187" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G187" s="30"/>
       <c r="H187" s="7">
         <v>0</v>
       </c>
@@ -5779,23 +5914,23 @@
         <v>0</v>
       </c>
       <c r="J187" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K187" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B188" s="33"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
       <c r="E188" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G188" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G188" s="30"/>
       <c r="H188" s="7">
         <v>0</v>
       </c>
@@ -5803,23 +5938,23 @@
         <v>0</v>
       </c>
       <c r="J188" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K188" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B189" s="33"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
       <c r="E189" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G189" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G189" s="30"/>
       <c r="H189" s="7">
         <v>0</v>
       </c>
@@ -5827,23 +5962,23 @@
         <v>0</v>
       </c>
       <c r="J189" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K189" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B190" s="33"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
       <c r="E190" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G190" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G190" s="30"/>
       <c r="H190" s="7">
         <v>0</v>
       </c>
@@ -5851,23 +5986,23 @@
         <v>0</v>
       </c>
       <c r="J190" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K190" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="34"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
       <c r="E191" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G191" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="G191" s="35"/>
       <c r="H191" s="7">
         <v>0</v>
       </c>
@@ -5875,55 +6010,813 @@
         <v>0</v>
       </c>
       <c r="J191" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B192" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B192" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C192" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D192" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E192" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="30">
+        <v>30</v>
+      </c>
+      <c r="H192" s="7">
+        <v>0</v>
+      </c>
+      <c r="I192" s="7">
+        <v>0</v>
+      </c>
+      <c r="J192" s="7">
+        <v>1</v>
+      </c>
+      <c r="K192" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B193" s="41"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="30"/>
+      <c r="H193" s="7">
+        <v>0</v>
+      </c>
+      <c r="I193" s="7">
+        <v>0</v>
+      </c>
+      <c r="J193" s="7">
+        <v>1</v>
+      </c>
+      <c r="K193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B194" s="41"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="30"/>
+      <c r="H194" s="7">
+        <v>0</v>
+      </c>
+      <c r="I194" s="7">
+        <v>0</v>
+      </c>
+      <c r="J194" s="7">
+        <v>1</v>
+      </c>
+      <c r="K194" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B195" s="41"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="30"/>
+      <c r="H195" s="7">
+        <v>0</v>
+      </c>
+      <c r="I195" s="7">
+        <v>0</v>
+      </c>
+      <c r="J195" s="7">
+        <v>1</v>
+      </c>
+      <c r="K195" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B196" s="41"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E196" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" s="30"/>
+      <c r="H196" s="7">
+        <v>0</v>
+      </c>
+      <c r="I196" s="7">
+        <v>0</v>
+      </c>
+      <c r="J196" s="7">
+        <v>0</v>
+      </c>
+      <c r="K196" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B197" s="41"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="7">
+        <v>0</v>
+      </c>
+      <c r="I197" s="7">
+        <v>0</v>
+      </c>
+      <c r="J197" s="7">
+        <v>0</v>
+      </c>
+      <c r="K197" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B198" s="41"/>
+      <c r="C198" s="30"/>
+      <c r="D198" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" s="30"/>
+      <c r="H198" s="7">
+        <v>0</v>
+      </c>
+      <c r="I198" s="7">
+        <v>0</v>
+      </c>
+      <c r="J198" s="7">
+        <v>0</v>
+      </c>
+      <c r="K198" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B199" s="41"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="7">
+        <v>0</v>
+      </c>
+      <c r="I199" s="7">
+        <v>0</v>
+      </c>
+      <c r="J199" s="7">
+        <v>0</v>
+      </c>
+      <c r="K199" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B200" s="41"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E200" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" s="30"/>
+      <c r="H200" s="7">
+        <v>0</v>
+      </c>
+      <c r="I200" s="7">
+        <v>0</v>
+      </c>
+      <c r="J200" s="7">
+        <v>0</v>
+      </c>
+      <c r="K200" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B201" s="41"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="7">
+        <v>0</v>
+      </c>
+      <c r="I201" s="7">
+        <v>0</v>
+      </c>
+      <c r="J201" s="7">
+        <v>0</v>
+      </c>
+      <c r="K201" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B202" s="41"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E202" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" s="30"/>
+      <c r="H202" s="7">
+        <v>0</v>
+      </c>
+      <c r="I202" s="7">
+        <v>0</v>
+      </c>
+      <c r="J202" s="7">
+        <v>0</v>
+      </c>
+      <c r="K202" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B203" s="41"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="51"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="7">
+        <v>0</v>
+      </c>
+      <c r="I203" s="7">
+        <v>0</v>
+      </c>
+      <c r="J203" s="7">
+        <v>0</v>
+      </c>
+      <c r="K203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B204" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C192" s="39"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="40"/>
-      <c r="G192" s="26">
-        <f>SUM(G179:G191)</f>
-        <v>140</v>
-      </c>
-      <c r="H192" s="26">
+      <c r="C204" s="37"/>
+      <c r="D204" s="37"/>
+      <c r="E204" s="37"/>
+      <c r="F204" s="38"/>
+      <c r="G204" s="26">
+        <f>SUM(G179:G203)</f>
+        <v>170</v>
+      </c>
+      <c r="H204" s="26">
         <f>SUM(H179:H191)</f>
         <v>12.48</v>
       </c>
-      <c r="I192" s="26">
+      <c r="I204" s="26">
         <f>SUM(I179:I191)</f>
         <v>6.24</v>
       </c>
-      <c r="J192" s="26">
-        <f>SUM(J179:J191)</f>
-        <v>0</v>
-      </c>
-      <c r="K192" s="9">
-        <f>SUM(K179:K191)</f>
+      <c r="J204" s="26">
+        <f>SUM(J179:J203)</f>
+        <v>39</v>
+      </c>
+      <c r="K204" s="9">
+        <f>SUM(K179:K203)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
+      <c r="B208" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C208" s="40"/>
+      <c r="D208" s="40"/>
+      <c r="E208" s="40"/>
+      <c r="F208" s="40"/>
+      <c r="G208" s="40"/>
+      <c r="H208" s="40"/>
+      <c r="I208" s="40"/>
+      <c r="J208" s="40"/>
+      <c r="K208" s="40"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="B210" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F210" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H210" s="28">
+        <v>45307</v>
+      </c>
+      <c r="I210" s="28">
+        <v>45308</v>
+      </c>
+      <c r="J210" s="28">
+        <v>45309</v>
+      </c>
+      <c r="K210" s="28">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B211" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D211" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E211" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G211" s="30">
+        <v>90</v>
+      </c>
+      <c r="H211" s="7">
+        <v>0</v>
+      </c>
+      <c r="I211" s="7">
+        <v>0</v>
+      </c>
+      <c r="J211" s="7">
+        <v>0</v>
+      </c>
+      <c r="K211" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B212" s="41"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G212" s="30"/>
+      <c r="H212" s="7">
+        <v>0</v>
+      </c>
+      <c r="I212" s="7">
+        <v>0</v>
+      </c>
+      <c r="J212" s="7">
+        <v>0</v>
+      </c>
+      <c r="K212" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B213" s="41"/>
+      <c r="C213" s="30"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G213" s="30"/>
+      <c r="H213" s="7">
+        <v>0</v>
+      </c>
+      <c r="I213" s="7">
+        <v>0</v>
+      </c>
+      <c r="J213" s="7">
+        <v>0</v>
+      </c>
+      <c r="K213" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B214" s="41"/>
+      <c r="C214" s="30"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G214" s="30"/>
+      <c r="H214" s="7">
+        <v>0</v>
+      </c>
+      <c r="I214" s="7">
+        <v>0</v>
+      </c>
+      <c r="J214" s="7">
+        <v>0</v>
+      </c>
+      <c r="K214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B215" s="41"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E215" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G215" s="30"/>
+      <c r="H215" s="7">
+        <v>0</v>
+      </c>
+      <c r="I215" s="7">
+        <v>0</v>
+      </c>
+      <c r="J215" s="7">
+        <v>0</v>
+      </c>
+      <c r="K215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B216" s="41"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G216" s="30"/>
+      <c r="H216" s="7">
+        <v>0</v>
+      </c>
+      <c r="I216" s="7">
+        <v>0</v>
+      </c>
+      <c r="J216" s="7">
+        <v>0</v>
+      </c>
+      <c r="K216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B217" s="41"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E217" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G217" s="30"/>
+      <c r="H217" s="7">
+        <v>0</v>
+      </c>
+      <c r="I217" s="7">
+        <v>0</v>
+      </c>
+      <c r="J217" s="7">
+        <v>0</v>
+      </c>
+      <c r="K217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B218" s="41"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G218" s="30"/>
+      <c r="H218" s="7">
+        <v>0</v>
+      </c>
+      <c r="I218" s="7">
+        <v>0</v>
+      </c>
+      <c r="J218" s="7">
+        <v>0</v>
+      </c>
+      <c r="K218" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B219" s="41"/>
+      <c r="C219" s="30"/>
+      <c r="D219" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E219" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G219" s="30"/>
+      <c r="H219" s="7">
+        <v>0</v>
+      </c>
+      <c r="I219" s="7">
+        <v>0</v>
+      </c>
+      <c r="J219" s="7">
+        <v>0</v>
+      </c>
+      <c r="K219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B220" s="41"/>
+      <c r="C220" s="30"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G220" s="30"/>
+      <c r="H220" s="7">
+        <v>0</v>
+      </c>
+      <c r="I220" s="7">
+        <v>0</v>
+      </c>
+      <c r="J220" s="7">
+        <v>0</v>
+      </c>
+      <c r="K220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B221" s="41"/>
+      <c r="C221" s="30"/>
+      <c r="D221" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E221" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G221" s="30"/>
+      <c r="H221" s="7">
+        <v>0</v>
+      </c>
+      <c r="I221" s="7">
+        <v>0</v>
+      </c>
+      <c r="J221" s="7">
+        <v>0</v>
+      </c>
+      <c r="K221" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="41"/>
+      <c r="C222" s="30"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G222" s="30"/>
+      <c r="H222" s="7">
+        <v>0</v>
+      </c>
+      <c r="I222" s="7">
+        <v>0</v>
+      </c>
+      <c r="J222" s="7">
+        <v>0</v>
+      </c>
+      <c r="K222" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B223" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C223" s="37"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="37"/>
+      <c r="F223" s="38"/>
+      <c r="G223" s="26">
+        <f>SUM(G211:G222)</f>
+        <v>90</v>
+      </c>
+      <c r="H223" s="26">
+        <f>SUM(H211:H222)</f>
+        <v>0</v>
+      </c>
+      <c r="I223" s="26">
+        <f>SUM(I211:I222)</f>
+        <v>0</v>
+      </c>
+      <c r="J223" s="26">
+        <f>SUM(J211:J222)</f>
+        <v>0</v>
+      </c>
+      <c r="K223" s="9">
+        <f>SUM(K211:K222)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="G166:G172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="G162:G165"/>
+  <mergeCells count="121">
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="B192:B203"/>
+    <mergeCell ref="C192:C203"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="B208:K208"/>
+    <mergeCell ref="B211:B222"/>
+    <mergeCell ref="C211:C222"/>
+    <mergeCell ref="G211:G222"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="G192:G203"/>
+    <mergeCell ref="D185:D191"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B110:B122"/>
+    <mergeCell ref="C110:C122"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="G110:G122"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="G130:G136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="B139:K139"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="G78:G90"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="G98:G104"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="G142:G154"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="G91:G97"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D101"/>
     <mergeCell ref="D183:D184"/>
     <mergeCell ref="G123:G129"/>
-    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B204:F204"/>
     <mergeCell ref="B173:F173"/>
     <mergeCell ref="B176:K176"/>
     <mergeCell ref="B179:B191"/>
@@ -5945,76 +6838,15 @@
     <mergeCell ref="B142:B154"/>
     <mergeCell ref="C142:C154"/>
     <mergeCell ref="D142:D145"/>
-    <mergeCell ref="G142:G154"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="G91:G97"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B52:B64"/>
-    <mergeCell ref="C52:C64"/>
-    <mergeCell ref="G52:G64"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C1:K3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="C78:C90"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="G78:G90"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="G98:G104"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B107:K107"/>
-    <mergeCell ref="B110:B122"/>
-    <mergeCell ref="C110:C122"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="G110:G122"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="G130:G136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="B139:K139"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="G166:G172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="G162:G165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documentacion/Sprint_Backlog.xlsx
+++ b/Documentacion/Sprint_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B194BCA-D008-4FE6-89B1-E1D17C5AAD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F38957B-67A5-4DFC-9185-7693B9BFFF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -475,38 +475,72 @@
     <t>HU05</t>
   </si>
   <si>
-    <t>Gestion de QR</t>
-  </si>
-  <si>
-    <t>Obtener informacion del qr</t>
-  </si>
-  <si>
-    <t>Validar informacion del qr</t>
-  </si>
-  <si>
-    <t>Acciones con el qr</t>
-  </si>
-  <si>
-    <t>Verificacion de qr unico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementacion de QR
+    <t>Creación del Sprint Backlog 6</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 7</t>
+  </si>
+  <si>
+    <t>Creación del Sprint Backlog 8</t>
+  </si>
+  <si>
+    <t>91/2024</t>
+  </si>
+  <si>
+    <t>HT-14</t>
+  </si>
+  <si>
+    <t>Gestion de notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de modelo de correo
 </t>
   </si>
   <si>
-    <t>Creación del Sprint Backlog 6</t>
-  </si>
-  <si>
-    <t>Creación del Sprint Backlog 7</t>
-  </si>
-  <si>
-    <t>Creación del Sprint Backlog 8</t>
-  </si>
-  <si>
-    <t>91/2024</t>
-  </si>
-  <si>
-    <t>HT-14</t>
+    <t>Implementacion de funcionalidad de correo</t>
+  </si>
+  <si>
+    <t>Verificacion de funcionalidad</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Implementacion de diseño creado</t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de chatbot
+</t>
+  </si>
+  <si>
+    <t>Implementacion de chat en aplicación</t>
+  </si>
+  <si>
+    <t>Creación de opciones de chatbot</t>
+  </si>
+  <si>
+    <t>Gestion codigo QR</t>
+  </si>
+  <si>
+    <t>Generación codigo QR del boleto</t>
+  </si>
+  <si>
+    <t>Validacion del QR</t>
+  </si>
+  <si>
+    <t>Implementación de lectura del QR</t>
+  </si>
+  <si>
+    <t>Implementación actualizacion de informacion con QR</t>
+  </si>
+  <si>
+    <t>Vista del QR en los roles correspondientes</t>
   </si>
 </sst>
 </file>
@@ -632,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -900,11 +934,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -990,25 +1044,7 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,19 +1056,40 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1041,11 +1098,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1053,13 +1110,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,12 +1591,12 @@
         <v>58</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C14" s="23">
         <v>1.6</v>
@@ -1536,7 +1608,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -1553,7 +1625,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1569,10 +1641,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:R223"/>
+  <dimension ref="B1:R230"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A197" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P197" sqref="P197"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A200" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,64 +1662,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:18" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="6" spans="2:18" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:18" s="4" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1690,22 +1762,22 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="34">
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1722,16 +1794,16 @@
       </c>
     </row>
     <row r="10" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -1746,8 +1818,8 @@
       </c>
     </row>
     <row r="11" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1757,7 +1829,7 @@
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="11">
         <v>8</v>
       </c>
@@ -1772,10 +1844,10 @@
       </c>
     </row>
     <row r="12" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1787,7 +1859,7 @@
       <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="41">
         <v>70</v>
       </c>
       <c r="H12" s="10">
@@ -1804,8 +1876,8 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1815,7 +1887,7 @@
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
@@ -1830,8 +1902,8 @@
       </c>
     </row>
     <row r="14" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1841,7 +1913,7 @@
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="8">
         <v>0</v>
       </c>
@@ -1856,8 +1928,8 @@
       </c>
     </row>
     <row r="15" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="50"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +1939,7 @@
       <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="11">
         <v>0</v>
       </c>
@@ -1882,10 +1954,10 @@
       </c>
     </row>
     <row r="16" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1897,7 +1969,7 @@
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="41">
         <v>30</v>
       </c>
       <c r="H16" s="10">
@@ -1914,8 +1986,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1925,7 +1997,7 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="8">
         <v>0</v>
       </c>
@@ -1940,8 +2012,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1951,7 +2023,7 @@
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="8">
         <v>0</v>
       </c>
@@ -1966,8 +2038,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="50"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +2049,7 @@
       <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="12">
         <v>0</v>
       </c>
@@ -1992,13 +2064,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="9">
         <f>SUM(G9:G19)</f>
         <v>110</v>
@@ -2021,18 +2093,18 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -2079,10 +2151,10 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2094,7 +2166,7 @@
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="34">
         <v>40</v>
       </c>
       <c r="H26" s="7">
@@ -2111,9 +2183,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="46" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -2122,7 +2194,7 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="7">
         <v>10</v>
       </c>
@@ -2137,16 +2209,16 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="7">
         <v>7.5</v>
       </c>
@@ -2161,16 +2233,16 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="44"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="7">
         <v>5</v>
       </c>
@@ -2185,16 +2257,16 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="45"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="7">
         <v>5</v>
       </c>
@@ -2209,8 +2281,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="41"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
@@ -2220,7 +2292,7 @@
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="7">
         <v>2.5</v>
       </c>
@@ -2235,8 +2307,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="42"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
@@ -2246,7 +2318,7 @@
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="35"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="7">
         <v>7.5</v>
       </c>
@@ -2261,13 +2333,13 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="18" t="s">
@@ -2276,7 +2348,7 @@
       <c r="F33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="41">
         <v>100</v>
       </c>
       <c r="H33" s="10">
@@ -2293,16 +2365,16 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="33"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="44"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -2317,16 +2389,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="33"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -2341,16 +2413,16 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="33"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="45"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -2365,8 +2437,8 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="33"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
@@ -2376,7 +2448,7 @@
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -2391,8 +2463,8 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="33"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2402,7 +2474,7 @@
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="30"/>
+      <c r="G38" s="34"/>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -2417,8 +2489,8 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="33"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2428,7 +2500,7 @@
       <c r="F39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="30"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -2443,8 +2515,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="64.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="50"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="13" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2526,7 @@
       <c r="F40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -2469,13 +2541,13 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="18" t="s">
@@ -2484,7 +2556,7 @@
       <c r="F41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="41">
         <v>10</v>
       </c>
       <c r="H41" s="10">
@@ -2501,16 +2573,16 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="33"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="44"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="30"/>
+      <c r="G42" s="34"/>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -2525,16 +2597,16 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="33"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="30"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -2549,16 +2621,16 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="33"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="30"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -2573,8 +2645,8 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="33"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2584,7 +2656,7 @@
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="30"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="8">
         <v>0</v>
       </c>
@@ -2599,13 +2671,13 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="9">
         <f>SUM(G26:G45)</f>
         <v>150</v>
@@ -2628,18 +2700,18 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
@@ -2686,13 +2758,13 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -2701,7 +2773,7 @@
       <c r="F52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="34">
         <v>50</v>
       </c>
       <c r="H52" s="7">
@@ -2718,16 +2790,16 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="34"/>
       <c r="H53" s="7">
         <v>3.12</v>
       </c>
@@ -2742,16 +2814,16 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="41"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="44"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="34"/>
       <c r="H54" s="7">
         <v>3.12</v>
       </c>
@@ -2766,16 +2838,16 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="41"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="30"/>
+      <c r="G55" s="34"/>
       <c r="H55" s="7">
         <v>3.12</v>
       </c>
@@ -2790,9 +2862,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="46" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="44" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -2801,7 +2873,7 @@
       <c r="F56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="30"/>
+      <c r="G56" s="34"/>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -2816,16 +2888,16 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="30"/>
+      <c r="G57" s="34"/>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -2840,16 +2912,16 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="41"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="44"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="34"/>
       <c r="H58" s="7">
         <v>0</v>
       </c>
@@ -2864,16 +2936,16 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="30"/>
+      <c r="G59" s="34"/>
       <c r="H59" s="7">
         <v>0</v>
       </c>
@@ -2888,8 +2960,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
-      <c r="C60" s="30"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="7" t="s">
         <v>70</v>
       </c>
@@ -2899,7 +2971,7 @@
       <c r="F60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="30"/>
+      <c r="G60" s="34"/>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -2914,9 +2986,9 @@
       </c>
     </row>
     <row r="61" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="41"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="46" t="s">
+      <c r="B61" s="36"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="44" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -2925,7 +2997,7 @@
       <c r="F61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="30"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -2940,16 +3012,16 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="44"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="30"/>
+      <c r="G62" s="34"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
@@ -2964,16 +3036,16 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="44"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="30"/>
+      <c r="G63" s="34"/>
       <c r="H63" s="7">
         <v>0</v>
       </c>
@@ -2988,16 +3060,16 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="42"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="35"/>
+      <c r="G64" s="39"/>
       <c r="H64" s="7">
         <v>0</v>
       </c>
@@ -3012,13 +3084,13 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="47" t="s">
         <v>75</v>
       </c>
       <c r="E65" s="18" t="s">
@@ -3027,7 +3099,7 @@
       <c r="F65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G65" s="41">
         <v>120</v>
       </c>
       <c r="H65" s="10">
@@ -3044,16 +3116,16 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="33"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="44"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
@@ -3068,16 +3140,16 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="33"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="44"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="30"/>
+      <c r="G67" s="34"/>
       <c r="H67" s="7">
         <v>0</v>
       </c>
@@ -3092,16 +3164,16 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="33"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="45"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="30"/>
+      <c r="G68" s="34"/>
       <c r="H68" s="7">
         <v>0</v>
       </c>
@@ -3116,8 +3188,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="33"/>
-      <c r="C69" s="30"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="2" t="s">
         <v>76</v>
       </c>
@@ -3127,7 +3199,7 @@
       <c r="F69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="30"/>
+      <c r="G69" s="34"/>
       <c r="H69" s="7">
         <v>0</v>
       </c>
@@ -3143,8 +3215,8 @@
       <c r="L69" s="25"/>
     </row>
     <row r="70" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="33"/>
-      <c r="C70" s="30"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="2" t="s">
         <v>77</v>
       </c>
@@ -3154,7 +3226,7 @@
       <c r="F70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="30"/>
+      <c r="G70" s="34"/>
       <c r="H70" s="7">
         <v>0</v>
       </c>
@@ -3169,8 +3241,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="33"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="2" t="s">
         <v>78</v>
       </c>
@@ -3180,7 +3252,7 @@
       <c r="F71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="30"/>
+      <c r="G71" s="34"/>
       <c r="H71" s="7">
         <v>0</v>
       </c>
@@ -3195,13 +3267,13 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="38"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
       <c r="G72" s="9">
         <f>SUM(G52:G71)</f>
         <v>170</v>
@@ -3224,18 +3296,18 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
@@ -3282,13 +3354,13 @@
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="33" t="s">
         <v>90</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -3297,7 +3369,7 @@
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="30">
+      <c r="G78" s="34">
         <v>90</v>
       </c>
       <c r="H78" s="7">
@@ -3314,16 +3386,16 @@
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="41"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="30"/>
+      <c r="G79" s="34"/>
       <c r="H79" s="7">
         <v>3.12</v>
       </c>
@@ -3338,16 +3410,16 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="41"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="30"/>
+      <c r="G80" s="34"/>
       <c r="H80" s="7">
         <v>3.12</v>
       </c>
@@ -3362,16 +3434,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="41"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="30"/>
+      <c r="G81" s="34"/>
       <c r="H81" s="7">
         <v>3.12</v>
       </c>
@@ -3386,9 +3458,9 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="41"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="34" t="s">
+      <c r="B82" s="36"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E82" s="19" t="s">
@@ -3397,7 +3469,7 @@
       <c r="F82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="30"/>
+      <c r="G82" s="34"/>
       <c r="H82" s="7">
         <v>0</v>
       </c>
@@ -3412,16 +3484,16 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="41"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="30"/>
+      <c r="G83" s="34"/>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -3436,16 +3508,16 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="41"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="30"/>
+      <c r="G84" s="34"/>
       <c r="H84" s="7">
         <v>0</v>
       </c>
@@ -3460,16 +3532,16 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="41"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="31"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="30"/>
+      <c r="G85" s="34"/>
       <c r="H85" s="7">
         <v>0</v>
       </c>
@@ -3484,9 +3556,9 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="34" t="s">
+      <c r="B86" s="36"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="19" t="s">
@@ -3495,7 +3567,7 @@
       <c r="F86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="30"/>
+      <c r="G86" s="34"/>
       <c r="H86" s="7">
         <v>0</v>
       </c>
@@ -3510,16 +3582,16 @@
       </c>
     </row>
     <row r="87" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="30"/>
+      <c r="G87" s="34"/>
       <c r="H87" s="7">
         <v>0</v>
       </c>
@@ -3534,16 +3606,16 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="41"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="30"/>
+      <c r="G88" s="34"/>
       <c r="H88" s="7">
         <v>0</v>
       </c>
@@ -3558,16 +3630,16 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="30"/>
+      <c r="G89" s="34"/>
       <c r="H89" s="7">
         <v>0</v>
       </c>
@@ -3582,16 +3654,16 @@
       </c>
     </row>
     <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="42"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
       <c r="E90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="35"/>
+      <c r="G90" s="39"/>
       <c r="H90" s="7">
         <v>0</v>
       </c>
@@ -3606,13 +3678,13 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E91" s="18" t="s">
@@ -3621,7 +3693,7 @@
       <c r="F91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="29">
+      <c r="G91" s="41">
         <v>50</v>
       </c>
       <c r="H91" s="10">
@@ -3638,16 +3710,16 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="33"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="44"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="30"/>
+      <c r="G92" s="34"/>
       <c r="H92" s="7">
         <v>0</v>
       </c>
@@ -3662,16 +3734,16 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="33"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="44"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="45"/>
       <c r="E93" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="30"/>
+      <c r="G93" s="34"/>
       <c r="H93" s="7">
         <v>0</v>
       </c>
@@ -3686,16 +3758,16 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="33"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="45"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="30"/>
+      <c r="G94" s="34"/>
       <c r="H94" s="7">
         <v>0</v>
       </c>
@@ -3710,8 +3782,8 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="33"/>
-      <c r="C95" s="30"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="2" t="s">
         <v>116</v>
       </c>
@@ -3721,7 +3793,7 @@
       <c r="F95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="30"/>
+      <c r="G95" s="34"/>
       <c r="H95" s="7">
         <v>0</v>
       </c>
@@ -3736,8 +3808,8 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="33"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="2" t="s">
         <v>117</v>
       </c>
@@ -3747,7 +3819,7 @@
       <c r="F96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="30"/>
+      <c r="G96" s="34"/>
       <c r="H96" s="7">
         <v>0</v>
       </c>
@@ -3762,8 +3834,8 @@
       </c>
     </row>
     <row r="97" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="33"/>
-      <c r="C97" s="30"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="34"/>
       <c r="D97" s="2" t="s">
         <v>120</v>
       </c>
@@ -3773,7 +3845,7 @@
       <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="30"/>
+      <c r="G97" s="34"/>
       <c r="H97" s="7">
         <v>0</v>
       </c>
@@ -3788,13 +3860,13 @@
       </c>
     </row>
     <row r="98" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="43" t="s">
+      <c r="D98" s="47" t="s">
         <v>118</v>
       </c>
       <c r="E98" s="18" t="s">
@@ -3803,7 +3875,7 @@
       <c r="F98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="29">
+      <c r="G98" s="41">
         <v>50</v>
       </c>
       <c r="H98" s="10">
@@ -3820,16 +3892,16 @@
       </c>
     </row>
     <row r="99" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="33"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="44"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="30"/>
+      <c r="G99" s="34"/>
       <c r="H99" s="7">
         <v>0</v>
       </c>
@@ -3844,16 +3916,16 @@
       </c>
     </row>
     <row r="100" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="33"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="44"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="45"/>
       <c r="E100" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="30"/>
+      <c r="G100" s="34"/>
       <c r="H100" s="7">
         <v>0</v>
       </c>
@@ -3868,16 +3940,16 @@
       </c>
     </row>
     <row r="101" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="33"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="45"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="46"/>
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="30"/>
+      <c r="G101" s="34"/>
       <c r="H101" s="7">
         <v>0</v>
       </c>
@@ -3892,8 +3964,8 @@
       </c>
     </row>
     <row r="102" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="33"/>
-      <c r="C102" s="30"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="2" t="s">
         <v>119</v>
       </c>
@@ -3903,7 +3975,7 @@
       <c r="F102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="30"/>
+      <c r="G102" s="34"/>
       <c r="H102" s="7">
         <v>0</v>
       </c>
@@ -3918,8 +3990,8 @@
       </c>
     </row>
     <row r="103" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="33"/>
-      <c r="C103" s="30"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="2" t="s">
         <v>121</v>
       </c>
@@ -3929,7 +4001,7 @@
       <c r="F103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="30"/>
+      <c r="G103" s="34"/>
       <c r="H103" s="7">
         <v>0</v>
       </c>
@@ -3944,8 +4016,8 @@
       </c>
     </row>
     <row r="104" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="33"/>
-      <c r="C104" s="30"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="2" t="s">
         <v>122</v>
       </c>
@@ -3955,7 +4027,7 @@
       <c r="F104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="30"/>
+      <c r="G104" s="34"/>
       <c r="H104" s="7">
         <v>0</v>
       </c>
@@ -3970,13 +4042,13 @@
       </c>
     </row>
     <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="38"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="32"/>
       <c r="G105" s="9">
         <f>SUM(G85:G104:G78)</f>
         <v>190</v>
@@ -3999,18 +4071,18 @@
       </c>
     </row>
     <row r="107" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="3"/>
@@ -4057,13 +4129,13 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="33" t="s">
         <v>114</v>
       </c>
       <c r="E110" s="19" t="s">
@@ -4072,7 +4144,7 @@
       <c r="F110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="30">
+      <c r="G110" s="34">
         <v>80</v>
       </c>
       <c r="H110" s="7">
@@ -4089,16 +4161,16 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="41"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
       <c r="E111" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="30"/>
+      <c r="G111" s="34"/>
       <c r="H111" s="7">
         <v>3.12</v>
       </c>
@@ -4113,16 +4185,16 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="41"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="30"/>
+      <c r="G112" s="34"/>
       <c r="H112" s="7">
         <v>3.12</v>
       </c>
@@ -4137,16 +4209,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="41"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="31"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="35"/>
       <c r="E113" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="30"/>
+      <c r="G113" s="34"/>
       <c r="H113" s="7">
         <v>3.12</v>
       </c>
@@ -4161,9 +4233,9 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="41"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="34" t="s">
+      <c r="B114" s="36"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="33" t="s">
         <v>98</v>
       </c>
       <c r="E114" s="19" t="s">
@@ -4172,7 +4244,7 @@
       <c r="F114" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="30"/>
+      <c r="G114" s="34"/>
       <c r="H114" s="7">
         <v>0</v>
       </c>
@@ -4187,16 +4259,16 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="41"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="30"/>
+      <c r="G115" s="34"/>
       <c r="H115" s="7">
         <v>0</v>
       </c>
@@ -4211,16 +4283,16 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="41"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="30"/>
+      <c r="G116" s="34"/>
       <c r="H116" s="7">
         <v>0</v>
       </c>
@@ -4235,16 +4307,16 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="41"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="31"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="30"/>
+      <c r="G117" s="34"/>
       <c r="H117" s="7">
         <v>0</v>
       </c>
@@ -4259,9 +4331,9 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="41"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="34" t="s">
+      <c r="B118" s="36"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E118" s="19" t="s">
@@ -4270,7 +4342,7 @@
       <c r="F118" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="30"/>
+      <c r="G118" s="34"/>
       <c r="H118" s="7">
         <v>0</v>
       </c>
@@ -4285,16 +4357,16 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="41"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="30"/>
+      <c r="G119" s="34"/>
       <c r="H119" s="7">
         <v>0</v>
       </c>
@@ -4309,16 +4381,16 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="41"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="30"/>
+      <c r="G120" s="34"/>
       <c r="H120" s="7">
         <v>0</v>
       </c>
@@ -4333,16 +4405,16 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="41"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="30"/>
+      <c r="G121" s="34"/>
       <c r="H121" s="7">
         <v>0</v>
       </c>
@@ -4357,16 +4429,16 @@
       </c>
     </row>
     <row r="122" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="42"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="35"/>
+      <c r="G122" s="39"/>
       <c r="H122" s="7">
         <v>0</v>
       </c>
@@ -4381,13 +4453,13 @@
       </c>
     </row>
     <row r="123" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="41" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="18" t="s">
@@ -4396,7 +4468,7 @@
       <c r="F123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="29">
+      <c r="G123" s="41">
         <v>43</v>
       </c>
       <c r="H123" s="10">
@@ -4413,16 +4485,16 @@
       </c>
     </row>
     <row r="124" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="33"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
       <c r="E124" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="30"/>
+      <c r="G124" s="34"/>
       <c r="H124" s="7">
         <v>0</v>
       </c>
@@ -4437,16 +4509,16 @@
       </c>
     </row>
     <row r="125" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="33"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
       <c r="E125" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="30"/>
+      <c r="G125" s="34"/>
       <c r="H125" s="7">
         <v>0</v>
       </c>
@@ -4461,16 +4533,16 @@
       </c>
     </row>
     <row r="126" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="33"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
       <c r="E126" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="30"/>
+      <c r="G126" s="34"/>
       <c r="H126" s="7">
         <v>0</v>
       </c>
@@ -4485,16 +4557,16 @@
       </c>
     </row>
     <row r="127" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="33"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
       <c r="E127" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="30"/>
+      <c r="G127" s="34"/>
       <c r="H127" s="7">
         <v>0</v>
       </c>
@@ -4509,16 +4581,16 @@
       </c>
     </row>
     <row r="128" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="33"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
       <c r="E128" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="30"/>
+      <c r="G128" s="34"/>
       <c r="H128" s="7">
         <v>0</v>
       </c>
@@ -4533,16 +4605,16 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="33"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="35"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="30"/>
+      <c r="G129" s="34"/>
       <c r="H129" s="7">
         <v>0</v>
       </c>
@@ -4557,13 +4629,13 @@
       </c>
     </row>
     <row r="130" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C130" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D130" s="29" t="s">
+      <c r="D130" s="41" t="s">
         <v>131</v>
       </c>
       <c r="E130" s="18" t="s">
@@ -4572,7 +4644,7 @@
       <c r="F130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="29">
+      <c r="G130" s="41">
         <v>47</v>
       </c>
       <c r="H130" s="10">
@@ -4589,16 +4661,16 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="33"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G131" s="30"/>
+      <c r="G131" s="34"/>
       <c r="H131" s="7">
         <v>0</v>
       </c>
@@ -4613,16 +4685,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="33"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
       <c r="E132" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="30"/>
+      <c r="G132" s="34"/>
       <c r="H132" s="7">
         <v>0</v>
       </c>
@@ -4637,16 +4709,16 @@
       </c>
     </row>
     <row r="133" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="33"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="31"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
       <c r="E133" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G133" s="30"/>
+      <c r="G133" s="34"/>
       <c r="H133" s="7">
         <v>0</v>
       </c>
@@ -4661,9 +4733,9 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="33"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="34" t="s">
+      <c r="B134" s="43"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="33" t="s">
         <v>132</v>
       </c>
       <c r="E134" s="19" t="s">
@@ -4672,7 +4744,7 @@
       <c r="F134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G134" s="30"/>
+      <c r="G134" s="34"/>
       <c r="H134" s="7">
         <v>0</v>
       </c>
@@ -4687,16 +4759,16 @@
       </c>
     </row>
     <row r="135" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="33"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
       <c r="E135" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G135" s="30"/>
+      <c r="G135" s="34"/>
       <c r="H135" s="7">
         <v>0</v>
       </c>
@@ -4711,16 +4783,16 @@
       </c>
     </row>
     <row r="136" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="33"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="35"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="30"/>
+      <c r="G136" s="34"/>
       <c r="H136" s="7">
         <v>0</v>
       </c>
@@ -4735,13 +4807,13 @@
       </c>
     </row>
     <row r="137" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="38"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="32"/>
       <c r="G137" s="26">
         <f>SUM(G110:G130)</f>
         <v>170</v>
@@ -4764,18 +4836,18 @@
       </c>
     </row>
     <row r="139" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="40"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="40"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="38"/>
+      <c r="K139" s="38"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
@@ -4822,13 +4894,13 @@
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="41" t="s">
+      <c r="B142" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="C142" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D142" s="34" t="s">
+      <c r="D142" s="33" t="s">
         <v>112</v>
       </c>
       <c r="E142" s="19" t="s">
@@ -4837,7 +4909,7 @@
       <c r="F142" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="30">
+      <c r="G142" s="34">
         <v>80</v>
       </c>
       <c r="H142" s="7">
@@ -4854,16 +4926,16 @@
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="41"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
       <c r="E143" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="30"/>
+      <c r="G143" s="34"/>
       <c r="H143" s="7">
         <v>3.12</v>
       </c>
@@ -4878,16 +4950,16 @@
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="41"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
       <c r="E144" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="30"/>
+      <c r="G144" s="34"/>
       <c r="H144" s="7">
         <v>3.12</v>
       </c>
@@ -4902,16 +4974,16 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="41"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="31"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="35"/>
       <c r="E145" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G145" s="30"/>
+      <c r="G145" s="34"/>
       <c r="H145" s="7">
         <v>3.12</v>
       </c>
@@ -4926,9 +4998,9 @@
       </c>
     </row>
     <row r="146" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="41"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="34" t="s">
+      <c r="B146" s="36"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E146" s="19" t="s">
@@ -4937,7 +5009,7 @@
       <c r="F146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="30"/>
+      <c r="G146" s="34"/>
       <c r="H146" s="7">
         <v>0</v>
       </c>
@@ -4952,16 +5024,16 @@
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="41"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
       <c r="E147" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="30"/>
+      <c r="G147" s="34"/>
       <c r="H147" s="7">
         <v>0</v>
       </c>
@@ -4976,16 +5048,16 @@
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="41"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
       <c r="E148" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G148" s="30"/>
+      <c r="G148" s="34"/>
       <c r="H148" s="7">
         <v>0</v>
       </c>
@@ -5000,16 +5072,16 @@
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B149" s="41"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
       <c r="E149" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="30"/>
+      <c r="G149" s="34"/>
       <c r="H149" s="7">
         <v>0</v>
       </c>
@@ -5024,9 +5096,9 @@
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B150" s="41"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="34" t="s">
+      <c r="B150" s="36"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="33" t="s">
         <v>124</v>
       </c>
       <c r="E150" s="19" t="s">
@@ -5035,7 +5107,7 @@
       <c r="F150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="30"/>
+      <c r="G150" s="34"/>
       <c r="H150" s="7">
         <v>0</v>
       </c>
@@ -5050,16 +5122,16 @@
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B151" s="41"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
       <c r="E151" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="30"/>
+      <c r="G151" s="34"/>
       <c r="H151" s="7">
         <v>0</v>
       </c>
@@ -5074,16 +5146,16 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B152" s="41"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
       <c r="E152" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="30"/>
+      <c r="G152" s="34"/>
       <c r="H152" s="7">
         <v>0</v>
       </c>
@@ -5098,16 +5170,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B153" s="41"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G153" s="30"/>
+      <c r="G153" s="34"/>
       <c r="H153" s="7">
         <v>0</v>
       </c>
@@ -5122,16 +5194,16 @@
       </c>
     </row>
     <row r="154" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="42"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
       <c r="E154" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G154" s="35"/>
+      <c r="G154" s="39"/>
       <c r="H154" s="7">
         <v>0</v>
       </c>
@@ -5146,13 +5218,13 @@
       </c>
     </row>
     <row r="155" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="29" t="s">
+      <c r="C155" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="29" t="s">
+      <c r="D155" s="41" t="s">
         <v>111</v>
       </c>
       <c r="E155" s="18" t="s">
@@ -5161,7 +5233,7 @@
       <c r="F155" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="29">
+      <c r="G155" s="41">
         <v>43</v>
       </c>
       <c r="H155" s="10">
@@ -5178,16 +5250,16 @@
       </c>
     </row>
     <row r="156" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="33"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
       <c r="E156" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="30"/>
+      <c r="G156" s="34"/>
       <c r="H156" s="7">
         <v>0</v>
       </c>
@@ -5202,16 +5274,16 @@
       </c>
     </row>
     <row r="157" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="33"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="30"/>
+      <c r="G157" s="34"/>
       <c r="H157" s="7">
         <v>0</v>
       </c>
@@ -5226,16 +5298,16 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="33"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="34"/>
       <c r="E158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G158" s="30"/>
+      <c r="G158" s="34"/>
       <c r="H158" s="7">
         <v>0</v>
       </c>
@@ -5250,9 +5322,9 @@
       </c>
     </row>
     <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="33"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="34" t="s">
+      <c r="B159" s="43"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="33" t="s">
         <v>125</v>
       </c>
       <c r="E159" s="19" t="s">
@@ -5261,7 +5333,7 @@
       <c r="F159" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G159" s="30"/>
+      <c r="G159" s="34"/>
       <c r="H159" s="7">
         <v>0</v>
       </c>
@@ -5276,16 +5348,16 @@
       </c>
     </row>
     <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="33"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="34"/>
       <c r="E160" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="30"/>
+      <c r="G160" s="34"/>
       <c r="H160" s="7">
         <v>0</v>
       </c>
@@ -5300,16 +5372,16 @@
       </c>
     </row>
     <row r="161" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="33"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="39"/>
       <c r="E161" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="30"/>
+      <c r="G161" s="34"/>
       <c r="H161" s="7">
         <v>0</v>
       </c>
@@ -5324,13 +5396,13 @@
       </c>
     </row>
     <row r="162" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D162" s="29" t="s">
+      <c r="D162" s="41" t="s">
         <v>113</v>
       </c>
       <c r="E162" s="18" t="s">
@@ -5339,7 +5411,7 @@
       <c r="F162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="29">
+      <c r="G162" s="41">
         <v>43</v>
       </c>
       <c r="H162" s="10">
@@ -5356,16 +5428,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="33"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
       <c r="E163" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="30"/>
+      <c r="G163" s="34"/>
       <c r="H163" s="7">
         <v>0</v>
       </c>
@@ -5380,16 +5452,16 @@
       </c>
     </row>
     <row r="164" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="33"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
       <c r="E164" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="30"/>
+      <c r="G164" s="34"/>
       <c r="H164" s="7">
         <v>0</v>
       </c>
@@ -5404,16 +5476,16 @@
       </c>
     </row>
     <row r="165" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="33"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
       <c r="E165" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="30"/>
+      <c r="G165" s="34"/>
       <c r="H165" s="7">
         <v>0</v>
       </c>
@@ -5428,13 +5500,13 @@
       </c>
     </row>
     <row r="166" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C166" s="29" t="s">
+      <c r="C166" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D166" s="29" t="s">
+      <c r="D166" s="41" t="s">
         <v>129</v>
       </c>
       <c r="E166" s="18" t="s">
@@ -5443,7 +5515,7 @@
       <c r="F166" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G166" s="29">
+      <c r="G166" s="41">
         <v>10</v>
       </c>
       <c r="H166" s="10">
@@ -5460,16 +5532,16 @@
       </c>
     </row>
     <row r="167" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="33"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
       <c r="E167" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="30"/>
+      <c r="G167" s="34"/>
       <c r="H167" s="7">
         <v>0</v>
       </c>
@@ -5484,16 +5556,16 @@
       </c>
     </row>
     <row r="168" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="33"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
       <c r="E168" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G168" s="30"/>
+      <c r="G168" s="34"/>
       <c r="H168" s="7">
         <v>0</v>
       </c>
@@ -5508,16 +5580,16 @@
       </c>
     </row>
     <row r="169" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="33"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="31"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="35"/>
       <c r="E169" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G169" s="30"/>
+      <c r="G169" s="34"/>
       <c r="H169" s="7">
         <v>0</v>
       </c>
@@ -5532,9 +5604,9 @@
       </c>
     </row>
     <row r="170" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="33"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="34" t="s">
+      <c r="B170" s="43"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="33" t="s">
         <v>130</v>
       </c>
       <c r="E170" s="19" t="s">
@@ -5543,7 +5615,7 @@
       <c r="F170" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="30"/>
+      <c r="G170" s="34"/>
       <c r="H170" s="7">
         <v>0</v>
       </c>
@@ -5558,16 +5630,16 @@
       </c>
     </row>
     <row r="171" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="33"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
+      <c r="B171" s="43"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G171" s="30"/>
+      <c r="G171" s="34"/>
       <c r="H171" s="7">
         <v>0</v>
       </c>
@@ -5582,16 +5654,16 @@
       </c>
     </row>
     <row r="172" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="33"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="35"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="39"/>
       <c r="E172" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G172" s="30"/>
+      <c r="G172" s="34"/>
       <c r="H172" s="7">
         <v>0</v>
       </c>
@@ -5606,13 +5678,13 @@
       </c>
     </row>
     <row r="173" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B173" s="36" t="s">
+      <c r="B173" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C173" s="37"/>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="38"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="32"/>
       <c r="G173" s="26">
         <f>SUM(G142:G172)</f>
         <v>176</v>
@@ -5635,18 +5707,18 @@
       </c>
     </row>
     <row r="176" spans="2:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="39" t="s">
+      <c r="B176" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="40"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="38"/>
+      <c r="I176" s="38"/>
+      <c r="J176" s="38"/>
+      <c r="K176" s="38"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
@@ -5696,10 +5768,10 @@
       <c r="B179" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C179" s="34" t="s">
+      <c r="C179" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="D179" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E179" s="19" t="s">
@@ -5708,7 +5780,7 @@
       <c r="F179" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="34">
+      <c r="G179" s="33">
         <v>140</v>
       </c>
       <c r="H179" s="7">
@@ -5725,16 +5797,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B180" s="41"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="34"/>
+      <c r="D180" s="34"/>
       <c r="E180" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="30"/>
+      <c r="G180" s="34"/>
       <c r="H180" s="7">
         <v>3.12</v>
       </c>
@@ -5749,16 +5821,16 @@
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B181" s="41"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
       <c r="E181" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="30"/>
+      <c r="G181" s="34"/>
       <c r="H181" s="7">
         <v>3.12</v>
       </c>
@@ -5773,16 +5845,16 @@
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B182" s="41"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="31"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="35"/>
       <c r="E182" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G182" s="30"/>
+      <c r="G182" s="34"/>
       <c r="H182" s="7">
         <v>3.12</v>
       </c>
@@ -5797,9 +5869,9 @@
       </c>
     </row>
     <row r="183" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="41"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="34" t="s">
+      <c r="B183" s="36"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="33" t="s">
         <v>126</v>
       </c>
       <c r="E183" s="19" t="s">
@@ -5808,7 +5880,7 @@
       <c r="F183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G183" s="30"/>
+      <c r="G183" s="34"/>
       <c r="H183" s="7">
         <v>0</v>
       </c>
@@ -5823,16 +5895,16 @@
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B184" s="41"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="31"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="35"/>
       <c r="E184" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G184" s="30"/>
+      <c r="G184" s="34"/>
       <c r="H184" s="7">
         <v>0</v>
       </c>
@@ -5847,9 +5919,9 @@
       </c>
     </row>
     <row r="185" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="41"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="34" t="s">
+      <c r="B185" s="36"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="33" t="s">
         <v>134</v>
       </c>
       <c r="E185" s="19" t="s">
@@ -5858,7 +5930,7 @@
       <c r="F185" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G185" s="30"/>
+      <c r="G185" s="34"/>
       <c r="H185" s="7">
         <v>0</v>
       </c>
@@ -5873,16 +5945,16 @@
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B186" s="41"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="30"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="34"/>
       <c r="E186" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G186" s="30"/>
+      <c r="G186" s="34"/>
       <c r="H186" s="7">
         <v>0</v>
       </c>
@@ -5897,16 +5969,16 @@
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B187" s="41"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="34"/>
       <c r="E187" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G187" s="30"/>
+      <c r="G187" s="34"/>
       <c r="H187" s="7">
         <v>0</v>
       </c>
@@ -5921,16 +5993,16 @@
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B188" s="41"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="30"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="34"/>
       <c r="E188" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G188" s="30"/>
+      <c r="G188" s="34"/>
       <c r="H188" s="7">
         <v>0</v>
       </c>
@@ -5945,16 +6017,16 @@
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B189" s="41"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="30"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
       <c r="E189" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G189" s="30"/>
+      <c r="G189" s="34"/>
       <c r="H189" s="7">
         <v>0</v>
       </c>
@@ -5969,16 +6041,16 @@
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B190" s="41"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
       <c r="E190" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="30"/>
+      <c r="G190" s="34"/>
       <c r="H190" s="7">
         <v>0</v>
       </c>
@@ -5993,16 +6065,16 @@
       </c>
     </row>
     <row r="191" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="42"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="39"/>
+      <c r="D191" s="39"/>
       <c r="E191" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G191" s="35"/>
+      <c r="G191" s="39"/>
       <c r="H191" s="7">
         <v>0</v>
       </c>
@@ -6017,13 +6089,13 @@
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B192" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C192" s="30" t="s">
+      <c r="B192" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C192" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D192" s="34" t="s">
+      <c r="D192" s="33" t="s">
         <v>142</v>
       </c>
       <c r="E192" s="19" t="s">
@@ -6032,8 +6104,8 @@
       <c r="F192" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G192" s="30">
-        <v>30</v>
+      <c r="G192" s="34">
+        <v>40</v>
       </c>
       <c r="H192" s="7">
         <v>0</v>
@@ -6049,16 +6121,16 @@
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B193" s="41"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
       <c r="E193" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G193" s="30"/>
+      <c r="G193" s="34"/>
       <c r="H193" s="7">
         <v>0</v>
       </c>
@@ -6073,16 +6145,16 @@
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B194" s="41"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="30"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="34"/>
+      <c r="D194" s="34"/>
       <c r="E194" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G194" s="30"/>
+      <c r="G194" s="34"/>
       <c r="H194" s="7">
         <v>0</v>
       </c>
@@ -6097,16 +6169,16 @@
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B195" s="41"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="31"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="35"/>
       <c r="E195" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G195" s="30"/>
+      <c r="G195" s="34"/>
       <c r="H195" s="7">
         <v>0</v>
       </c>
@@ -6121,18 +6193,18 @@
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B196" s="41"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="34" t="s">
+      <c r="B196" s="36"/>
+      <c r="C196" s="34"/>
+      <c r="D196" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E196" s="51" t="s">
+      <c r="E196" s="29" t="s">
         <v>23</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G196" s="30"/>
+      <c r="G196" s="34"/>
       <c r="H196" s="7">
         <v>0</v>
       </c>
@@ -6147,12 +6219,12 @@
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B197" s="41"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="30"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
       <c r="E197" s="17"/>
       <c r="F197" s="7"/>
-      <c r="G197" s="30"/>
+      <c r="G197" s="34"/>
       <c r="H197" s="7">
         <v>0</v>
       </c>
@@ -6167,9 +6239,9 @@
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B198" s="41"/>
-      <c r="C198" s="30"/>
-      <c r="D198" s="34" t="s">
+      <c r="B198" s="36"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E198" s="27" t="s">
@@ -6178,7 +6250,7 @@
       <c r="F198" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G198" s="30"/>
+      <c r="G198" s="34"/>
       <c r="H198" s="7">
         <v>0</v>
       </c>
@@ -6193,12 +6265,12 @@
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B199" s="41"/>
-      <c r="C199" s="30"/>
-      <c r="D199" s="31"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="35"/>
       <c r="E199" s="17"/>
       <c r="F199" s="7"/>
-      <c r="G199" s="30"/>
+      <c r="G199" s="34"/>
       <c r="H199" s="7">
         <v>0</v>
       </c>
@@ -6213,9 +6285,9 @@
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B200" s="41"/>
-      <c r="C200" s="30"/>
-      <c r="D200" s="34" t="s">
+      <c r="B200" s="36"/>
+      <c r="C200" s="34"/>
+      <c r="D200" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E200" s="27" t="s">
@@ -6224,7 +6296,7 @@
       <c r="F200" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G200" s="30"/>
+      <c r="G200" s="34"/>
       <c r="H200" s="7">
         <v>0</v>
       </c>
@@ -6239,12 +6311,12 @@
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B201" s="41"/>
-      <c r="C201" s="30"/>
-      <c r="D201" s="31"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="35"/>
       <c r="E201" s="17"/>
       <c r="F201" s="7"/>
-      <c r="G201" s="30"/>
+      <c r="G201" s="34"/>
       <c r="H201" s="7">
         <v>0</v>
       </c>
@@ -6259,18 +6331,18 @@
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B202" s="41"/>
-      <c r="C202" s="30"/>
-      <c r="D202" s="34" t="s">
+      <c r="B202" s="36"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E202" s="51" t="s">
+      <c r="E202" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G202" s="30"/>
+      <c r="G202" s="34"/>
       <c r="H202" s="7">
         <v>0</v>
       </c>
@@ -6285,12 +6357,12 @@
       </c>
     </row>
     <row r="203" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="41"/>
-      <c r="C203" s="30"/>
-      <c r="D203" s="31"/>
-      <c r="E203" s="51"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="29"/>
       <c r="F203" s="7"/>
-      <c r="G203" s="30"/>
+      <c r="G203" s="34"/>
       <c r="H203" s="7">
         <v>0</v>
       </c>
@@ -6305,16 +6377,16 @@
       </c>
     </row>
     <row r="204" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B204" s="36" t="s">
+      <c r="B204" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C204" s="37"/>
-      <c r="D204" s="37"/>
-      <c r="E204" s="37"/>
-      <c r="F204" s="38"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="31"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="32"/>
       <c r="G204" s="26">
         <f>SUM(G179:G203)</f>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H204" s="26">
         <f>SUM(H179:H191)</f>
@@ -6334,18 +6406,18 @@
       </c>
     </row>
     <row r="208" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
-      <c r="B208" s="39" t="s">
+      <c r="B208" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
-      <c r="E208" s="40"/>
-      <c r="F208" s="40"/>
-      <c r="G208" s="40"/>
-      <c r="H208" s="40"/>
-      <c r="I208" s="40"/>
-      <c r="J208" s="40"/>
-      <c r="K208" s="40"/>
+      <c r="C208" s="38"/>
+      <c r="D208" s="38"/>
+      <c r="E208" s="38"/>
+      <c r="F208" s="38"/>
+      <c r="G208" s="38"/>
+      <c r="H208" s="38"/>
+      <c r="I208" s="38"/>
+      <c r="J208" s="38"/>
+      <c r="K208" s="38"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B209" s="3"/>
@@ -6391,27 +6463,27 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B211" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C211" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D211" s="34" t="s">
-        <v>149</v>
+    <row r="211" spans="2:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C211" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D211" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="E211" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G211" s="30">
-        <v>90</v>
+        <v>153</v>
+      </c>
+      <c r="G211" s="33">
+        <v>75</v>
       </c>
       <c r="H211" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I211" s="7">
         <v>0</v>
@@ -6423,17 +6495,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B212" s="41"/>
-      <c r="C212" s="30"/>
-      <c r="D212" s="30"/>
+    <row r="212" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="34"/>
+      <c r="C212" s="34"/>
+      <c r="D212" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="E212" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G212" s="30"/>
+      <c r="G212" s="34"/>
       <c r="H212" s="7">
         <v>0</v>
       </c>
@@ -6447,17 +6521,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B213" s="41"/>
-      <c r="C213" s="30"/>
-      <c r="D213" s="30"/>
+    <row r="213" spans="2:11" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="35"/>
+      <c r="C213" s="35"/>
+      <c r="D213" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="E213" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G213" s="30"/>
+      <c r="G213" s="35"/>
       <c r="H213" s="7">
         <v>0</v>
       </c>
@@ -6471,19 +6547,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B214" s="41"/>
-      <c r="C214" s="30"/>
-      <c r="D214" s="31"/>
+    <row r="214" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C214" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D214" s="33" t="s">
+        <v>150</v>
+      </c>
       <c r="E214" s="19" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G214" s="30"/>
+        <v>153</v>
+      </c>
+      <c r="G214" s="33">
+        <v>50</v>
+      </c>
       <c r="H214" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" s="7">
         <v>0</v>
@@ -6496,20 +6580,18 @@
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B215" s="41"/>
-      <c r="C215" s="30"/>
-      <c r="D215" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E215" s="51" t="s">
-        <v>23</v>
+      <c r="B215" s="55"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G215" s="30"/>
+        <v>153</v>
+      </c>
+      <c r="G215" s="34"/>
       <c r="H215" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" s="7">
         <v>0</v>
@@ -6522,18 +6604,18 @@
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B216" s="41"/>
-      <c r="C216" s="30"/>
-      <c r="D216" s="30"/>
+      <c r="B216" s="55"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="35"/>
       <c r="E216" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G216" s="30"/>
+        <v>153</v>
+      </c>
+      <c r="G216" s="34"/>
       <c r="H216" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" s="7">
         <v>0</v>
@@ -6546,118 +6628,118 @@
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B217" s="41"/>
-      <c r="C217" s="30"/>
-      <c r="D217" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E217" s="27" t="s">
+      <c r="B217" s="55"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E217" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G217" s="34"/>
+      <c r="H217" s="7">
+        <v>10</v>
+      </c>
+      <c r="I217" s="7">
+        <v>0</v>
+      </c>
+      <c r="J217" s="7">
+        <v>0</v>
+      </c>
+      <c r="K217" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B218" s="55"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="34"/>
+      <c r="E218" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G218" s="34"/>
+      <c r="H218" s="7">
+        <v>10</v>
+      </c>
+      <c r="I218" s="7">
+        <v>0</v>
+      </c>
+      <c r="J218" s="7">
+        <v>0</v>
+      </c>
+      <c r="K218" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B219" s="55"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E219" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F217" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G217" s="30"/>
-      <c r="H217" s="7">
-        <v>0</v>
-      </c>
-      <c r="I217" s="7">
-        <v>0</v>
-      </c>
-      <c r="J217" s="7">
-        <v>0</v>
-      </c>
-      <c r="K217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B218" s="41"/>
-      <c r="C218" s="30"/>
-      <c r="D218" s="31"/>
-      <c r="E218" s="19" t="s">
+      <c r="F219" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G219" s="34"/>
+      <c r="H219" s="7">
+        <v>10</v>
+      </c>
+      <c r="I219" s="7">
+        <v>0</v>
+      </c>
+      <c r="J219" s="7">
+        <v>0</v>
+      </c>
+      <c r="K219" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B220" s="55"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="35"/>
+      <c r="E220" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F218" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G218" s="30"/>
-      <c r="H218" s="7">
-        <v>0</v>
-      </c>
-      <c r="I218" s="7">
-        <v>0</v>
-      </c>
-      <c r="J218" s="7">
-        <v>0</v>
-      </c>
-      <c r="K218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B219" s="41"/>
-      <c r="C219" s="30"/>
-      <c r="D219" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E219" s="27" t="s">
+      <c r="F220" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G220" s="34"/>
+      <c r="H220" s="7">
+        <v>10</v>
+      </c>
+      <c r="I220" s="7">
+        <v>0</v>
+      </c>
+      <c r="J220" s="7">
+        <v>0</v>
+      </c>
+      <c r="K220" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B221" s="55"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E221" s="27" t="s">
         <v>14</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G219" s="30"/>
-      <c r="H219" s="7">
-        <v>0</v>
-      </c>
-      <c r="I219" s="7">
-        <v>0</v>
-      </c>
-      <c r="J219" s="7">
-        <v>0</v>
-      </c>
-      <c r="K219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B220" s="41"/>
-      <c r="C220" s="30"/>
-      <c r="D220" s="31"/>
-      <c r="E220" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G220" s="30"/>
-      <c r="H220" s="7">
-        <v>0</v>
-      </c>
-      <c r="I220" s="7">
-        <v>0</v>
-      </c>
-      <c r="J220" s="7">
-        <v>0</v>
-      </c>
-      <c r="K220" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B221" s="41"/>
-      <c r="C221" s="30"/>
-      <c r="D221" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E221" s="51" t="s">
-        <v>24</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G221" s="30"/>
+      <c r="G221" s="34"/>
       <c r="H221" s="7">
         <v>0</v>
       </c>
@@ -6671,17 +6753,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="41"/>
-      <c r="C222" s="30"/>
-      <c r="D222" s="31"/>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B222" s="56"/>
+      <c r="C222" s="35"/>
+      <c r="D222" s="35"/>
       <c r="E222" s="19" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G222" s="30"/>
+      <c r="G222" s="35"/>
       <c r="H222" s="7">
         <v>0</v>
       </c>
@@ -6695,89 +6777,261 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B223" s="36" t="s">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B223" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C223" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E223" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G223" s="33">
+        <v>50</v>
+      </c>
+      <c r="H223" s="7">
+        <v>5</v>
+      </c>
+      <c r="I223" s="7">
+        <v>0</v>
+      </c>
+      <c r="J223" s="7">
+        <v>0</v>
+      </c>
+      <c r="K223" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B224" s="55"/>
+      <c r="C224" s="34"/>
+      <c r="D224" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G224" s="34"/>
+      <c r="H224" s="7">
+        <v>0</v>
+      </c>
+      <c r="I224" s="7">
+        <v>0</v>
+      </c>
+      <c r="J224" s="7">
+        <v>0</v>
+      </c>
+      <c r="K224" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B225" s="55"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="34"/>
+      <c r="E225" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G225" s="34"/>
+      <c r="H225" s="7">
+        <v>0</v>
+      </c>
+      <c r="I225" s="7">
+        <v>0</v>
+      </c>
+      <c r="J225" s="7">
+        <v>0</v>
+      </c>
+      <c r="K225" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B226" s="55"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="35"/>
+      <c r="E226" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G226" s="34"/>
+      <c r="H226" s="7">
+        <v>0</v>
+      </c>
+      <c r="I226" s="7">
+        <v>0</v>
+      </c>
+      <c r="J226" s="7">
+        <v>0</v>
+      </c>
+      <c r="K226" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B227" s="55"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E227" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G227" s="34"/>
+      <c r="H227" s="7">
+        <v>0</v>
+      </c>
+      <c r="I227" s="7">
+        <v>0</v>
+      </c>
+      <c r="J227" s="7">
+        <v>0</v>
+      </c>
+      <c r="K227" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B228" s="55"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E228" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G228" s="34"/>
+      <c r="H228" s="7">
+        <v>0</v>
+      </c>
+      <c r="I228" s="7">
+        <v>0</v>
+      </c>
+      <c r="J228" s="7">
+        <v>0</v>
+      </c>
+      <c r="K228" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="55"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E229" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G229" s="35"/>
+      <c r="H229" s="7">
+        <v>0</v>
+      </c>
+      <c r="I229" s="7">
+        <v>0</v>
+      </c>
+      <c r="J229" s="7">
+        <v>0</v>
+      </c>
+      <c r="K229" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B230" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C223" s="37"/>
-      <c r="D223" s="37"/>
-      <c r="E223" s="37"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="26">
-        <f>SUM(G211:G222)</f>
-        <v>90</v>
-      </c>
-      <c r="H223" s="26">
-        <f>SUM(H211:H222)</f>
-        <v>0</v>
-      </c>
-      <c r="I223" s="26">
+      <c r="C230" s="57"/>
+      <c r="D230" s="31"/>
+      <c r="E230" s="57"/>
+      <c r="F230" s="32"/>
+      <c r="G230" s="26">
+        <f>SUM(G211:G229)</f>
+        <v>175</v>
+      </c>
+      <c r="H230" s="26">
+        <f>SUM(H211:H229)</f>
+        <v>53</v>
+      </c>
+      <c r="I230" s="26">
         <f>SUM(I211:I222)</f>
         <v>0</v>
       </c>
-      <c r="J223" s="26">
+      <c r="J230" s="26">
         <f>SUM(J211:J222)</f>
         <v>0</v>
       </c>
-      <c r="K223" s="9">
+      <c r="K230" s="9">
         <f>SUM(K211:K222)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="B192:B203"/>
-    <mergeCell ref="C192:C203"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="B208:K208"/>
-    <mergeCell ref="B211:B222"/>
-    <mergeCell ref="C211:C222"/>
-    <mergeCell ref="G211:G222"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="G192:G203"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B107:K107"/>
-    <mergeCell ref="B110:B122"/>
-    <mergeCell ref="C110:C122"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="G110:G122"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="G130:G136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="B139:K139"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="C78:C90"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="G78:G90"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="G98:G104"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="G33:G40"/>
+  <mergeCells count="127">
+    <mergeCell ref="G166:G172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="C214:C222"/>
+    <mergeCell ref="B214:B222"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="G214:G222"/>
+    <mergeCell ref="G211:G213"/>
+    <mergeCell ref="D150:D154"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="B142:B154"/>
+    <mergeCell ref="C142:C154"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="D56:D59"/>
     <mergeCell ref="C1:K3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="B20:F20"/>
@@ -6793,20 +7047,28 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B52:B64"/>
-    <mergeCell ref="C52:C64"/>
-    <mergeCell ref="G52:G64"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="G142:G154"/>
-    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="G78:G90"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="G98:G104"/>
+    <mergeCell ref="D123:D129"/>
     <mergeCell ref="B91:B97"/>
     <mergeCell ref="C91:C97"/>
     <mergeCell ref="D91:D94"/>
@@ -6814,9 +7076,22 @@
     <mergeCell ref="B98:B104"/>
     <mergeCell ref="C98:C104"/>
     <mergeCell ref="D98:D101"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="D185:D191"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B110:B122"/>
+    <mergeCell ref="C110:C122"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="G110:G122"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="G130:G136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="B139:K139"/>
+    <mergeCell ref="G142:G154"/>
+    <mergeCell ref="B137:F137"/>
     <mergeCell ref="D183:D184"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="B204:F204"/>
     <mergeCell ref="B173:F173"/>
     <mergeCell ref="B176:K176"/>
     <mergeCell ref="B179:B191"/>
@@ -6826,27 +7101,24 @@
     <mergeCell ref="C155:C161"/>
     <mergeCell ref="G155:G161"/>
     <mergeCell ref="D146:D149"/>
-    <mergeCell ref="D150:D154"/>
-    <mergeCell ref="D155:D158"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="B142:B154"/>
-    <mergeCell ref="C142:C154"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="G166:G172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="B192:B203"/>
+    <mergeCell ref="C192:C203"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="B208:K208"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="G192:G203"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B223:B229"/>
+    <mergeCell ref="C223:C229"/>
+    <mergeCell ref="G223:G229"/>
+    <mergeCell ref="D224:D226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documentacion/Sprint_Backlog.xlsx
+++ b/Documentacion/Sprint_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F38957B-67A5-4DFC-9185-7693B9BFFF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80CA10-DDEE-454D-B955-2D46C4A647C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Como pasajero quiero entrar en mi perfil y ver mis boletos adquiridos</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implementacion de la verificacion del numero de tarjeta si es valido o invalido
 </t>
   </si>
@@ -541,6 +538,40 @@
   </si>
   <si>
     <t>Vista del QR en los roles correspondientes</t>
+  </si>
+  <si>
+    <t>SPRINT 9 BACKLOG</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 9</t>
+  </si>
+  <si>
+    <t>HT-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de interfaz administrador
+</t>
+  </si>
+  <si>
+    <t>Diseño de interfaz Login</t>
+  </si>
+  <si>
+    <t>Diseño de interfaz personal</t>
+  </si>
+  <si>
+    <t>Diseño de interfaz pasajero</t>
+  </si>
+  <si>
+    <t>Verificación de funcionalidades</t>
+  </si>
+  <si>
+    <t>Implementación capa de presentación</t>
+  </si>
+  <si>
+    <t>Análisis para diseño responsive</t>
+  </si>
+  <si>
+    <t>En Proceso</t>
   </si>
 </sst>
 </file>
@@ -1047,6 +1078,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,39 +1124,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,10 +1135,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1110,8 +1153,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,20 +1162,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1591,12 +1622,12 @@
         <v>58</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="23">
         <v>1.6</v>
@@ -1608,7 +1639,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
@@ -1625,7 +1656,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1641,10 +1672,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:R230"/>
+  <dimension ref="B1:R242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A200" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J217" sqref="J217"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A225" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L240" sqref="L240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1662,64 +1693,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:18" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="6" spans="2:18" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:18" s="4" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,10 +1793,10 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1777,7 +1808,7 @@
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1794,16 +1825,16 @@
       </c>
     </row>
     <row r="10" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -1818,8 +1849,8 @@
       </c>
     </row>
     <row r="11" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1860,7 @@
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="11">
         <v>8</v>
       </c>
@@ -1844,10 +1875,10 @@
       </c>
     </row>
     <row r="12" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1859,7 +1890,7 @@
       <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="31">
         <v>70</v>
       </c>
       <c r="H12" s="10">
@@ -1876,8 +1907,8 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +1918,7 @@
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
@@ -1902,8 +1933,8 @@
       </c>
     </row>
     <row r="14" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1944,7 @@
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="8">
         <v>0</v>
       </c>
@@ -1928,8 +1959,8 @@
       </c>
     </row>
     <row r="15" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="48"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1939,7 +1970,7 @@
       <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="11">
         <v>0</v>
       </c>
@@ -1954,10 +1985,10 @@
       </c>
     </row>
     <row r="16" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1969,7 +2000,7 @@
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="31">
         <v>30</v>
       </c>
       <c r="H16" s="10">
@@ -1986,8 +2017,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +2028,7 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="8">
         <v>0</v>
       </c>
@@ -2012,8 +2043,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2023,7 +2054,7 @@
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="8">
         <v>0</v>
       </c>
@@ -2038,8 +2069,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
@@ -2049,7 +2080,7 @@
       <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="39"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="12">
         <v>0</v>
       </c>
@@ -2064,13 +2095,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="9">
         <f>SUM(G9:G19)</f>
         <v>110</v>
@@ -2093,18 +2124,18 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -2151,10 +2182,10 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2166,7 +2197,7 @@
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="32">
         <v>40</v>
       </c>
       <c r="H26" s="7">
@@ -2183,9 +2214,9 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="44" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="46" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -2194,7 +2225,7 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="7">
         <v>10</v>
       </c>
@@ -2209,16 +2240,16 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="45"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="7">
         <v>7.5</v>
       </c>
@@ -2233,16 +2264,16 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="45"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="7">
         <v>5</v>
       </c>
@@ -2257,16 +2288,16 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="7">
         <v>5</v>
       </c>
@@ -2281,8 +2312,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
@@ -2292,7 +2323,7 @@
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="7">
         <v>2.5</v>
       </c>
@@ -2307,8 +2338,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
@@ -2318,7 +2349,7 @@
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="7">
         <v>7.5</v>
       </c>
@@ -2333,13 +2364,13 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="18" t="s">
@@ -2348,7 +2379,7 @@
       <c r="F33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="31">
         <v>100</v>
       </c>
       <c r="H33" s="10">
@@ -2365,16 +2396,16 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="45"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -2389,16 +2420,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="45"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -2413,16 +2444,16 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="46"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="34"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -2437,8 +2468,8 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
@@ -2448,7 +2479,7 @@
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -2463,8 +2494,8 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="43"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2474,7 +2505,7 @@
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -2489,8 +2520,8 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="43"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2500,7 +2531,7 @@
       <c r="F39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="34"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -2515,8 +2546,8 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="64.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="48"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="13" t="s">
         <v>46</v>
       </c>
@@ -2526,7 +2557,7 @@
       <c r="F40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="39"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -2541,13 +2572,13 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="50" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="18" t="s">
@@ -2556,7 +2587,7 @@
       <c r="F41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="31">
         <v>10</v>
       </c>
       <c r="H41" s="10">
@@ -2573,16 +2604,16 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="43"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="45"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="34"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -2597,16 +2628,16 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="43"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="34"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -2621,16 +2652,16 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="43"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="46"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="34"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -2645,8 +2676,8 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="43"/>
-      <c r="C45" s="34"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2656,7 +2687,7 @@
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="34"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="8">
         <v>0</v>
       </c>
@@ -2671,13 +2702,13 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="9">
         <f>SUM(G26:G45)</f>
         <v>150</v>
@@ -2700,18 +2731,18 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
@@ -2758,13 +2789,13 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="46" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -2773,7 +2804,7 @@
       <c r="F52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="32">
         <v>50</v>
       </c>
       <c r="H52" s="7">
@@ -2790,16 +2821,16 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="45"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="34"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="7">
         <v>3.12</v>
       </c>
@@ -2814,16 +2845,16 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="34"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="7">
         <v>3.12</v>
       </c>
@@ -2838,16 +2869,16 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="46"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="34"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="7">
         <v>3.12</v>
       </c>
@@ -2862,9 +2893,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="44" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="46" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -2873,7 +2904,7 @@
       <c r="F56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="34"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -2888,16 +2919,16 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="36"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="45"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="34"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -2912,16 +2943,16 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="34"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="7">
         <v>0</v>
       </c>
@@ -2936,16 +2967,16 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="46"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="34"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="7">
         <v>0</v>
       </c>
@@ -2960,8 +2991,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
-      <c r="C60" s="34"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="7" t="s">
         <v>70</v>
       </c>
@@ -2971,7 +3002,7 @@
       <c r="F60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="34"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -2986,9 +3017,9 @@
       </c>
     </row>
     <row r="61" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="36"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="44" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="46" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -2997,7 +3028,7 @@
       <c r="F61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="34"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -3012,16 +3043,16 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="36"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="45"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="34"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
@@ -3036,16 +3067,16 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="45"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="34"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="7">
         <v>0</v>
       </c>
@@ -3060,16 +3091,16 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="40"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="39"/>
+      <c r="G64" s="34"/>
       <c r="H64" s="7">
         <v>0</v>
       </c>
@@ -3084,13 +3115,13 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="50" t="s">
         <v>75</v>
       </c>
       <c r="E65" s="18" t="s">
@@ -3099,7 +3130,7 @@
       <c r="F65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="41">
+      <c r="G65" s="31">
         <v>120</v>
       </c>
       <c r="H65" s="10">
@@ -3116,16 +3147,16 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="43"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="45"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="34"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
@@ -3140,16 +3171,16 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="43"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="45"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="34"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="7">
         <v>0</v>
       </c>
@@ -3164,16 +3195,16 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="43"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="46"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="34"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="7">
         <v>0</v>
       </c>
@@ -3188,8 +3219,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="43"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="2" t="s">
         <v>76</v>
       </c>
@@ -3199,7 +3230,7 @@
       <c r="F69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="34"/>
+      <c r="G69" s="32"/>
       <c r="H69" s="7">
         <v>0</v>
       </c>
@@ -3215,8 +3246,8 @@
       <c r="L69" s="25"/>
     </row>
     <row r="70" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="43"/>
-      <c r="C70" s="34"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="2" t="s">
         <v>77</v>
       </c>
@@ -3226,7 +3257,7 @@
       <c r="F70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="34"/>
+      <c r="G70" s="32"/>
       <c r="H70" s="7">
         <v>0</v>
       </c>
@@ -3241,8 +3272,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="43"/>
-      <c r="C71" s="34"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="2" t="s">
         <v>78</v>
       </c>
@@ -3252,7 +3283,7 @@
       <c r="F71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="34"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="7">
         <v>0</v>
       </c>
@@ -3267,13 +3298,13 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="9">
         <f>SUM(G52:G71)</f>
         <v>170</v>
@@ -3296,18 +3327,18 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
@@ -3354,10 +3385,10 @@
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="33" t="s">
@@ -3369,7 +3400,7 @@
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="34">
+      <c r="G78" s="32">
         <v>90</v>
       </c>
       <c r="H78" s="7">
@@ -3386,16 +3417,16 @@
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="36"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="34"/>
+      <c r="G79" s="32"/>
       <c r="H79" s="7">
         <v>3.12</v>
       </c>
@@ -3410,16 +3441,16 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="36"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="34"/>
+      <c r="G80" s="32"/>
       <c r="H80" s="7">
         <v>3.12</v>
       </c>
@@ -3434,16 +3465,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="36"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="37"/>
       <c r="E81" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="34"/>
+      <c r="G81" s="32"/>
       <c r="H81" s="7">
         <v>3.12</v>
       </c>
@@ -3458,8 +3489,8 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="36"/>
-      <c r="C82" s="34"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="33" t="s">
         <v>89</v>
       </c>
@@ -3469,7 +3500,7 @@
       <c r="F82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="34"/>
+      <c r="G82" s="32"/>
       <c r="H82" s="7">
         <v>0</v>
       </c>
@@ -3484,16 +3515,16 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="36"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="34"/>
+      <c r="G83" s="32"/>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -3508,16 +3539,16 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="36"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="34"/>
+      <c r="G84" s="32"/>
       <c r="H84" s="7">
         <v>0</v>
       </c>
@@ -3532,16 +3563,16 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="36"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="34"/>
+      <c r="G85" s="32"/>
       <c r="H85" s="7">
         <v>0</v>
       </c>
@@ -3556,8 +3587,8 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="36"/>
-      <c r="C86" s="34"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="32"/>
       <c r="D86" s="33" t="s">
         <v>91</v>
       </c>
@@ -3567,7 +3598,7 @@
       <c r="F86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="34"/>
+      <c r="G86" s="32"/>
       <c r="H86" s="7">
         <v>0</v>
       </c>
@@ -3582,16 +3613,16 @@
       </c>
     </row>
     <row r="87" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="36"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="34"/>
+      <c r="G87" s="32"/>
       <c r="H87" s="7">
         <v>0</v>
       </c>
@@ -3606,16 +3637,16 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="36"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="34"/>
+      <c r="G88" s="32"/>
       <c r="H88" s="7">
         <v>0</v>
       </c>
@@ -3630,16 +3661,16 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="36"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="34"/>
+      <c r="G89" s="32"/>
       <c r="H89" s="7">
         <v>0</v>
       </c>
@@ -3654,16 +3685,16 @@
       </c>
     </row>
     <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="39"/>
+      <c r="G90" s="34"/>
       <c r="H90" s="7">
         <v>0</v>
       </c>
@@ -3678,14 +3709,14 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="47" t="s">
-        <v>115</v>
+      <c r="D91" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>14</v>
@@ -3693,7 +3724,7 @@
       <c r="F91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="41">
+      <c r="G91" s="31">
         <v>50</v>
       </c>
       <c r="H91" s="10">
@@ -3710,16 +3741,16 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="43"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="45"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="34"/>
+      <c r="G92" s="32"/>
       <c r="H92" s="7">
         <v>0</v>
       </c>
@@ -3734,16 +3765,16 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="43"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="45"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="34"/>
+      <c r="G93" s="32"/>
       <c r="H93" s="7">
         <v>0</v>
       </c>
@@ -3758,16 +3789,16 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="43"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="46"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="48"/>
       <c r="E94" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="34"/>
+      <c r="G94" s="32"/>
       <c r="H94" s="7">
         <v>0</v>
       </c>
@@ -3782,10 +3813,10 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="43"/>
-      <c r="C95" s="34"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>11</v>
@@ -3793,7 +3824,7 @@
       <c r="F95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="34"/>
+      <c r="G95" s="32"/>
       <c r="H95" s="7">
         <v>0</v>
       </c>
@@ -3808,10 +3839,10 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="43"/>
-      <c r="C96" s="34"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="32"/>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>24</v>
@@ -3819,7 +3850,7 @@
       <c r="F96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="34"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="7">
         <v>0</v>
       </c>
@@ -3834,10 +3865,10 @@
       </c>
     </row>
     <row r="97" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="43"/>
-      <c r="C97" s="34"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="32"/>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>23</v>
@@ -3845,7 +3876,7 @@
       <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="34"/>
+      <c r="G97" s="32"/>
       <c r="H97" s="7">
         <v>0</v>
       </c>
@@ -3860,14 +3891,14 @@
       </c>
     </row>
     <row r="98" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="47" t="s">
-        <v>118</v>
+      <c r="D98" s="50" t="s">
+        <v>117</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>14</v>
@@ -3875,7 +3906,7 @@
       <c r="F98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="41">
+      <c r="G98" s="31">
         <v>50</v>
       </c>
       <c r="H98" s="10">
@@ -3892,16 +3923,16 @@
       </c>
     </row>
     <row r="99" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="43"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="45"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="34"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="7">
         <v>0</v>
       </c>
@@ -3916,16 +3947,16 @@
       </c>
     </row>
     <row r="100" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="43"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="45"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="34"/>
+      <c r="G100" s="32"/>
       <c r="H100" s="7">
         <v>0</v>
       </c>
@@ -3940,16 +3971,16 @@
       </c>
     </row>
     <row r="101" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="43"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="46"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="48"/>
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="34"/>
+      <c r="G101" s="32"/>
       <c r="H101" s="7">
         <v>0</v>
       </c>
@@ -3964,10 +3995,10 @@
       </c>
     </row>
     <row r="102" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="43"/>
-      <c r="C102" s="34"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>11</v>
@@ -3975,7 +4006,7 @@
       <c r="F102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="34"/>
+      <c r="G102" s="32"/>
       <c r="H102" s="7">
         <v>0</v>
       </c>
@@ -3990,10 +4021,10 @@
       </c>
     </row>
     <row r="103" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="43"/>
-      <c r="C103" s="34"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="32"/>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>24</v>
@@ -4001,7 +4032,7 @@
       <c r="F103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="34"/>
+      <c r="G103" s="32"/>
       <c r="H103" s="7">
         <v>0</v>
       </c>
@@ -4016,10 +4047,10 @@
       </c>
     </row>
     <row r="104" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="43"/>
-      <c r="C104" s="34"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="32"/>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>23</v>
@@ -4027,7 +4058,7 @@
       <c r="F104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="34"/>
+      <c r="G104" s="32"/>
       <c r="H104" s="7">
         <v>0</v>
       </c>
@@ -4042,13 +4073,13 @@
       </c>
     </row>
     <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="9">
         <f>SUM(G85:G104:G78)</f>
         <v>190</v>
@@ -4071,18 +4102,18 @@
       </c>
     </row>
     <row r="107" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="3"/>
@@ -4129,14 +4160,14 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="32" t="s">
         <v>94</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>23</v>
@@ -4144,7 +4175,7 @@
       <c r="F110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="34">
+      <c r="G110" s="32">
         <v>80</v>
       </c>
       <c r="H110" s="7">
@@ -4161,16 +4192,16 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="36"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
       <c r="E111" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="34"/>
+      <c r="G111" s="32"/>
       <c r="H111" s="7">
         <v>3.12</v>
       </c>
@@ -4185,16 +4216,16 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="36"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
       <c r="E112" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="34"/>
+      <c r="G112" s="32"/>
       <c r="H112" s="7">
         <v>3.12</v>
       </c>
@@ -4209,16 +4240,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="36"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="35"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="37"/>
       <c r="E113" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="34"/>
+      <c r="G113" s="32"/>
       <c r="H113" s="7">
         <v>3.12</v>
       </c>
@@ -4233,8 +4264,8 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="36"/>
-      <c r="C114" s="34"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="32"/>
       <c r="D114" s="33" t="s">
         <v>98</v>
       </c>
@@ -4244,7 +4275,7 @@
       <c r="F114" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="34"/>
+      <c r="G114" s="32"/>
       <c r="H114" s="7">
         <v>0</v>
       </c>
@@ -4259,16 +4290,16 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="36"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
       <c r="E115" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="34"/>
+      <c r="G115" s="32"/>
       <c r="H115" s="7">
         <v>0</v>
       </c>
@@ -4283,16 +4314,16 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="36"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
       <c r="E116" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="34"/>
+      <c r="G116" s="32"/>
       <c r="H116" s="7">
         <v>0</v>
       </c>
@@ -4307,16 +4338,16 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="36"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="35"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="37"/>
       <c r="E117" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="34"/>
+      <c r="G117" s="32"/>
       <c r="H117" s="7">
         <v>0</v>
       </c>
@@ -4331,10 +4362,10 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="36"/>
-      <c r="C118" s="34"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="32"/>
       <c r="D118" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>14</v>
@@ -4342,7 +4373,7 @@
       <c r="F118" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="34"/>
+      <c r="G118" s="32"/>
       <c r="H118" s="7">
         <v>0</v>
       </c>
@@ -4357,16 +4388,16 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="36"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
       <c r="E119" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="34"/>
+      <c r="G119" s="32"/>
       <c r="H119" s="7">
         <v>0</v>
       </c>
@@ -4381,16 +4412,16 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="36"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
       <c r="E120" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="34"/>
+      <c r="G120" s="32"/>
       <c r="H120" s="7">
         <v>0</v>
       </c>
@@ -4405,16 +4436,16 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="36"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
       <c r="E121" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="34"/>
+      <c r="G121" s="32"/>
       <c r="H121" s="7">
         <v>0</v>
       </c>
@@ -4429,16 +4460,16 @@
       </c>
     </row>
     <row r="122" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="40"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="39"/>
+      <c r="G122" s="34"/>
       <c r="H122" s="7">
         <v>0</v>
       </c>
@@ -4453,13 +4484,13 @@
       </c>
     </row>
     <row r="123" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="41" t="s">
+      <c r="C123" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="41" t="s">
+      <c r="D123" s="31" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="18" t="s">
@@ -4468,7 +4499,7 @@
       <c r="F123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="41">
+      <c r="G123" s="31">
         <v>43</v>
       </c>
       <c r="H123" s="10">
@@ -4485,16 +4516,16 @@
       </c>
     </row>
     <row r="124" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="43"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
       <c r="E124" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="34"/>
+      <c r="G124" s="32"/>
       <c r="H124" s="7">
         <v>0</v>
       </c>
@@ -4509,16 +4540,16 @@
       </c>
     </row>
     <row r="125" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="43"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
       <c r="E125" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="34"/>
+      <c r="G125" s="32"/>
       <c r="H125" s="7">
         <v>0</v>
       </c>
@@ -4533,16 +4564,16 @@
       </c>
     </row>
     <row r="126" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="43"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
       <c r="E126" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="34"/>
+      <c r="G126" s="32"/>
       <c r="H126" s="7">
         <v>0</v>
       </c>
@@ -4557,16 +4588,16 @@
       </c>
     </row>
     <row r="127" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="43"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
       <c r="E127" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="34"/>
+      <c r="G127" s="32"/>
       <c r="H127" s="7">
         <v>0</v>
       </c>
@@ -4581,16 +4612,16 @@
       </c>
     </row>
     <row r="128" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="43"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
       <c r="E128" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="34"/>
+      <c r="G128" s="32"/>
       <c r="H128" s="7">
         <v>0</v>
       </c>
@@ -4605,16 +4636,16 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="43"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="39"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="34"/>
       <c r="E129" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="34"/>
+      <c r="G129" s="32"/>
       <c r="H129" s="7">
         <v>0</v>
       </c>
@@ -4629,14 +4660,14 @@
       </c>
     </row>
     <row r="130" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="42" t="s">
+      <c r="B130" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D130" s="41" t="s">
-        <v>131</v>
+      <c r="C130" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>14</v>
@@ -4644,7 +4675,7 @@
       <c r="F130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="41">
+      <c r="G130" s="31">
         <v>47</v>
       </c>
       <c r="H130" s="10">
@@ -4661,16 +4692,16 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="43"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
       <c r="E131" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G131" s="34"/>
+      <c r="G131" s="32"/>
       <c r="H131" s="7">
         <v>0</v>
       </c>
@@ -4685,16 +4716,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="43"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
       <c r="E132" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="34"/>
+      <c r="G132" s="32"/>
       <c r="H132" s="7">
         <v>0</v>
       </c>
@@ -4709,16 +4740,16 @@
       </c>
     </row>
     <row r="133" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="43"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="37"/>
       <c r="E133" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G133" s="34"/>
+      <c r="G133" s="32"/>
       <c r="H133" s="7">
         <v>0</v>
       </c>
@@ -4733,10 +4764,10 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="43"/>
-      <c r="C134" s="34"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="32"/>
       <c r="D134" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>11</v>
@@ -4744,7 +4775,7 @@
       <c r="F134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G134" s="34"/>
+      <c r="G134" s="32"/>
       <c r="H134" s="7">
         <v>0</v>
       </c>
@@ -4759,16 +4790,16 @@
       </c>
     </row>
     <row r="135" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="43"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
       <c r="E135" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G135" s="34"/>
+      <c r="G135" s="32"/>
       <c r="H135" s="7">
         <v>0</v>
       </c>
@@ -4783,16 +4814,16 @@
       </c>
     </row>
     <row r="136" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="43"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="39"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="34"/>
       <c r="E136" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="34"/>
+      <c r="G136" s="32"/>
       <c r="H136" s="7">
         <v>0</v>
       </c>
@@ -4807,13 +4838,13 @@
       </c>
     </row>
     <row r="137" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="32"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="45"/>
       <c r="G137" s="26">
         <f>SUM(G110:G130)</f>
         <v>170</v>
@@ -4836,18 +4867,18 @@
       </c>
     </row>
     <row r="139" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B139" s="37" t="s">
+      <c r="B139" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
+      <c r="I139" s="52"/>
+      <c r="J139" s="52"/>
+      <c r="K139" s="52"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
@@ -4894,14 +4925,14 @@
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="36" t="s">
+      <c r="B142" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="34" t="s">
+      <c r="C142" s="32" t="s">
         <v>101</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E142" s="19" t="s">
         <v>23</v>
@@ -4909,7 +4940,7 @@
       <c r="F142" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="34">
+      <c r="G142" s="32">
         <v>80</v>
       </c>
       <c r="H142" s="7">
@@ -4926,16 +4957,16 @@
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="36"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
       <c r="E143" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="34"/>
+      <c r="G143" s="32"/>
       <c r="H143" s="7">
         <v>3.12</v>
       </c>
@@ -4950,16 +4981,16 @@
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="36"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
       <c r="E144" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="34"/>
+      <c r="G144" s="32"/>
       <c r="H144" s="7">
         <v>3.12</v>
       </c>
@@ -4974,16 +5005,16 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="36"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="35"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="37"/>
       <c r="E145" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G145" s="34"/>
+      <c r="G145" s="32"/>
       <c r="H145" s="7">
         <v>3.12</v>
       </c>
@@ -4998,10 +5029,10 @@
       </c>
     </row>
     <row r="146" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="36"/>
-      <c r="C146" s="34"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="32"/>
       <c r="D146" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>11</v>
@@ -5009,7 +5040,7 @@
       <c r="F146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="34"/>
+      <c r="G146" s="32"/>
       <c r="H146" s="7">
         <v>0</v>
       </c>
@@ -5024,16 +5055,16 @@
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="36"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
       <c r="E147" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="34"/>
+      <c r="G147" s="32"/>
       <c r="H147" s="7">
         <v>0</v>
       </c>
@@ -5048,16 +5079,16 @@
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="36"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
       <c r="E148" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G148" s="34"/>
+      <c r="G148" s="32"/>
       <c r="H148" s="7">
         <v>0</v>
       </c>
@@ -5072,16 +5103,16 @@
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B149" s="36"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
       <c r="E149" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="34"/>
+      <c r="G149" s="32"/>
       <c r="H149" s="7">
         <v>0</v>
       </c>
@@ -5096,10 +5127,10 @@
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B150" s="36"/>
-      <c r="C150" s="34"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="32"/>
       <c r="D150" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E150" s="19" t="s">
         <v>14</v>
@@ -5107,7 +5138,7 @@
       <c r="F150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="34"/>
+      <c r="G150" s="32"/>
       <c r="H150" s="7">
         <v>0</v>
       </c>
@@ -5122,16 +5153,16 @@
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B151" s="36"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
       <c r="E151" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="34"/>
+      <c r="G151" s="32"/>
       <c r="H151" s="7">
         <v>0</v>
       </c>
@@ -5146,16 +5177,16 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B152" s="36"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
       <c r="E152" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="34"/>
+      <c r="G152" s="32"/>
       <c r="H152" s="7">
         <v>0</v>
       </c>
@@ -5170,16 +5201,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B153" s="36"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
       <c r="E153" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G153" s="34"/>
+      <c r="G153" s="32"/>
       <c r="H153" s="7">
         <v>0</v>
       </c>
@@ -5194,16 +5225,16 @@
       </c>
     </row>
     <row r="154" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="40"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G154" s="39"/>
+      <c r="G154" s="34"/>
       <c r="H154" s="7">
         <v>0</v>
       </c>
@@ -5218,14 +5249,14 @@
       </c>
     </row>
     <row r="155" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="42" t="s">
+      <c r="B155" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="41" t="s">
+      <c r="C155" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="41" t="s">
-        <v>111</v>
+      <c r="D155" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="E155" s="18" t="s">
         <v>14</v>
@@ -5233,7 +5264,7 @@
       <c r="F155" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="41">
+      <c r="G155" s="31">
         <v>43</v>
       </c>
       <c r="H155" s="10">
@@ -5250,16 +5281,16 @@
       </c>
     </row>
     <row r="156" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="43"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
       <c r="E156" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="34"/>
+      <c r="G156" s="32"/>
       <c r="H156" s="7">
         <v>0</v>
       </c>
@@ -5274,16 +5305,16 @@
       </c>
     </row>
     <row r="157" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="43"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
       <c r="E157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="34"/>
+      <c r="G157" s="32"/>
       <c r="H157" s="7">
         <v>0</v>
       </c>
@@ -5298,16 +5329,16 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="43"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
       <c r="E158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G158" s="34"/>
+      <c r="G158" s="32"/>
       <c r="H158" s="7">
         <v>0</v>
       </c>
@@ -5322,10 +5353,10 @@
       </c>
     </row>
     <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="43"/>
-      <c r="C159" s="34"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="32"/>
       <c r="D159" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>11</v>
@@ -5333,7 +5364,7 @@
       <c r="F159" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G159" s="34"/>
+      <c r="G159" s="32"/>
       <c r="H159" s="7">
         <v>0</v>
       </c>
@@ -5348,16 +5379,16 @@
       </c>
     </row>
     <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="43"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
       <c r="E160" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="34"/>
+      <c r="G160" s="32"/>
       <c r="H160" s="7">
         <v>0</v>
       </c>
@@ -5372,16 +5403,16 @@
       </c>
     </row>
     <row r="161" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="43"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="39"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="34"/>
       <c r="E161" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="34"/>
+      <c r="G161" s="32"/>
       <c r="H161" s="7">
         <v>0</v>
       </c>
@@ -5396,14 +5427,14 @@
       </c>
     </row>
     <row r="162" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="42" t="s">
+      <c r="B162" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="41" t="s">
+      <c r="C162" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D162" s="41" t="s">
-        <v>113</v>
+      <c r="D162" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>14</v>
@@ -5411,7 +5442,7 @@
       <c r="F162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="41">
+      <c r="G162" s="31">
         <v>43</v>
       </c>
       <c r="H162" s="10">
@@ -5428,16 +5459,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="43"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
       <c r="E163" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="34"/>
+      <c r="G163" s="32"/>
       <c r="H163" s="7">
         <v>0</v>
       </c>
@@ -5452,16 +5483,16 @@
       </c>
     </row>
     <row r="164" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="43"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
       <c r="E164" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="34"/>
+      <c r="G164" s="32"/>
       <c r="H164" s="7">
         <v>0</v>
       </c>
@@ -5476,16 +5507,16 @@
       </c>
     </row>
     <row r="165" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="43"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
       <c r="E165" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="34"/>
+      <c r="G165" s="32"/>
       <c r="H165" s="7">
         <v>0</v>
       </c>
@@ -5500,14 +5531,14 @@
       </c>
     </row>
     <row r="166" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C166" s="41" t="s">
+      <c r="C166" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D166" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="D166" s="41" t="s">
-        <v>129</v>
       </c>
       <c r="E166" s="18" t="s">
         <v>14</v>
@@ -5515,7 +5546,7 @@
       <c r="F166" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G166" s="41">
+      <c r="G166" s="31">
         <v>10</v>
       </c>
       <c r="H166" s="10">
@@ -5532,16 +5563,16 @@
       </c>
     </row>
     <row r="167" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="43"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
       <c r="E167" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="34"/>
+      <c r="G167" s="32"/>
       <c r="H167" s="7">
         <v>0</v>
       </c>
@@ -5556,16 +5587,16 @@
       </c>
     </row>
     <row r="168" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="43"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
       <c r="E168" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G168" s="34"/>
+      <c r="G168" s="32"/>
       <c r="H168" s="7">
         <v>0</v>
       </c>
@@ -5580,16 +5611,16 @@
       </c>
     </row>
     <row r="169" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="43"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="35"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="37"/>
       <c r="E169" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G169" s="34"/>
+      <c r="G169" s="32"/>
       <c r="H169" s="7">
         <v>0</v>
       </c>
@@ -5604,10 +5635,10 @@
       </c>
     </row>
     <row r="170" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="43"/>
-      <c r="C170" s="34"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="32"/>
       <c r="D170" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E170" s="19" t="s">
         <v>11</v>
@@ -5615,7 +5646,7 @@
       <c r="F170" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="34"/>
+      <c r="G170" s="32"/>
       <c r="H170" s="7">
         <v>0</v>
       </c>
@@ -5630,16 +5661,16 @@
       </c>
     </row>
     <row r="171" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="43"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
       <c r="E171" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G171" s="34"/>
+      <c r="G171" s="32"/>
       <c r="H171" s="7">
         <v>0</v>
       </c>
@@ -5654,16 +5685,16 @@
       </c>
     </row>
     <row r="172" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="43"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="39"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="34"/>
       <c r="E172" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G172" s="34"/>
+      <c r="G172" s="32"/>
       <c r="H172" s="7">
         <v>0</v>
       </c>
@@ -5678,13 +5709,13 @@
       </c>
     </row>
     <row r="173" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="32"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="45"/>
       <c r="G173" s="26">
         <f>SUM(G142:G172)</f>
         <v>176</v>
@@ -5707,18 +5738,18 @@
       </c>
     </row>
     <row r="176" spans="2:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="37" t="s">
+      <c r="B176" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="38"/>
-      <c r="I176" s="38"/>
-      <c r="J176" s="38"/>
-      <c r="K176" s="38"/>
+      <c r="C176" s="52"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="52"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="52"/>
+      <c r="H176" s="52"/>
+      <c r="I176" s="52"/>
+      <c r="J176" s="52"/>
+      <c r="K176" s="52"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
@@ -5765,14 +5796,14 @@
       </c>
     </row>
     <row r="179" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="52" t="s">
+      <c r="B179" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E179" s="19" t="s">
         <v>23</v>
@@ -5797,16 +5828,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B180" s="36"/>
-      <c r="C180" s="34"/>
-      <c r="D180" s="34"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
       <c r="E180" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="34"/>
+      <c r="G180" s="32"/>
       <c r="H180" s="7">
         <v>3.12</v>
       </c>
@@ -5821,16 +5852,16 @@
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B181" s="36"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
       <c r="E181" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="34"/>
+      <c r="G181" s="32"/>
       <c r="H181" s="7">
         <v>3.12</v>
       </c>
@@ -5845,16 +5876,16 @@
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B182" s="36"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="37"/>
       <c r="E182" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G182" s="34"/>
+      <c r="G182" s="32"/>
       <c r="H182" s="7">
         <v>3.12</v>
       </c>
@@ -5869,10 +5900,10 @@
       </c>
     </row>
     <row r="183" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="36"/>
-      <c r="C183" s="34"/>
+      <c r="B183" s="41"/>
+      <c r="C183" s="32"/>
       <c r="D183" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E183" s="19" t="s">
         <v>11</v>
@@ -5880,7 +5911,7 @@
       <c r="F183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G183" s="34"/>
+      <c r="G183" s="32"/>
       <c r="H183" s="7">
         <v>0</v>
       </c>
@@ -5895,16 +5926,16 @@
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B184" s="36"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="35"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="37"/>
       <c r="E184" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G184" s="34"/>
+      <c r="G184" s="32"/>
       <c r="H184" s="7">
         <v>0</v>
       </c>
@@ -5919,10 +5950,10 @@
       </c>
     </row>
     <row r="185" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="36"/>
-      <c r="C185" s="34"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="32"/>
       <c r="D185" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E185" s="19" t="s">
         <v>14</v>
@@ -5930,7 +5961,7 @@
       <c r="F185" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G185" s="34"/>
+      <c r="G185" s="32"/>
       <c r="H185" s="7">
         <v>0</v>
       </c>
@@ -5945,16 +5976,16 @@
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B186" s="36"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
       <c r="E186" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G186" s="34"/>
+      <c r="G186" s="32"/>
       <c r="H186" s="7">
         <v>0</v>
       </c>
@@ -5969,16 +6000,16 @@
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B187" s="36"/>
-      <c r="C187" s="34"/>
-      <c r="D187" s="34"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
       <c r="E187" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G187" s="34"/>
+      <c r="G187" s="32"/>
       <c r="H187" s="7">
         <v>0</v>
       </c>
@@ -5993,16 +6024,16 @@
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B188" s="36"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="34"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
       <c r="E188" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G188" s="34"/>
+      <c r="G188" s="32"/>
       <c r="H188" s="7">
         <v>0</v>
       </c>
@@ -6017,16 +6048,16 @@
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B189" s="36"/>
-      <c r="C189" s="34"/>
-      <c r="D189" s="34"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
       <c r="E189" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G189" s="34"/>
+      <c r="G189" s="32"/>
       <c r="H189" s="7">
         <v>0</v>
       </c>
@@ -6041,16 +6072,16 @@
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B190" s="36"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
       <c r="E190" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="34"/>
+      <c r="G190" s="32"/>
       <c r="H190" s="7">
         <v>0</v>
       </c>
@@ -6065,16 +6096,16 @@
       </c>
     </row>
     <row r="191" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="40"/>
-      <c r="C191" s="39"/>
-      <c r="D191" s="39"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34"/>
       <c r="E191" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G191" s="39"/>
+      <c r="G191" s="34"/>
       <c r="H191" s="7">
         <v>0</v>
       </c>
@@ -6089,14 +6120,14 @@
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B192" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C192" s="34" t="s">
-        <v>136</v>
+      <c r="B192" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E192" s="19" t="s">
         <v>23</v>
@@ -6104,7 +6135,7 @@
       <c r="F192" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G192" s="34">
+      <c r="G192" s="32">
         <v>40</v>
       </c>
       <c r="H192" s="7">
@@ -6121,16 +6152,16 @@
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B193" s="36"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
       <c r="E193" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G193" s="34"/>
+      <c r="G193" s="32"/>
       <c r="H193" s="7">
         <v>0</v>
       </c>
@@ -6145,16 +6176,16 @@
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B194" s="36"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
       <c r="E194" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G194" s="34"/>
+      <c r="G194" s="32"/>
       <c r="H194" s="7">
         <v>0</v>
       </c>
@@ -6169,16 +6200,16 @@
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B195" s="36"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="35"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="37"/>
       <c r="E195" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G195" s="34"/>
+      <c r="G195" s="32"/>
       <c r="H195" s="7">
         <v>0</v>
       </c>
@@ -6193,10 +6224,10 @@
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B196" s="36"/>
-      <c r="C196" s="34"/>
+      <c r="B196" s="41"/>
+      <c r="C196" s="32"/>
       <c r="D196" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E196" s="29" t="s">
         <v>23</v>
@@ -6204,7 +6235,7 @@
       <c r="F196" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G196" s="34"/>
+      <c r="G196" s="32"/>
       <c r="H196" s="7">
         <v>0</v>
       </c>
@@ -6219,12 +6250,12 @@
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B197" s="36"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
       <c r="E197" s="17"/>
       <c r="F197" s="7"/>
-      <c r="G197" s="34"/>
+      <c r="G197" s="32"/>
       <c r="H197" s="7">
         <v>0</v>
       </c>
@@ -6239,10 +6270,10 @@
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B198" s="36"/>
-      <c r="C198" s="34"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="32"/>
       <c r="D198" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E198" s="27" t="s">
         <v>11</v>
@@ -6250,7 +6281,7 @@
       <c r="F198" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G198" s="34"/>
+      <c r="G198" s="32"/>
       <c r="H198" s="7">
         <v>0</v>
       </c>
@@ -6265,12 +6296,12 @@
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B199" s="36"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="35"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="37"/>
       <c r="E199" s="17"/>
       <c r="F199" s="7"/>
-      <c r="G199" s="34"/>
+      <c r="G199" s="32"/>
       <c r="H199" s="7">
         <v>0</v>
       </c>
@@ -6285,10 +6316,10 @@
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B200" s="36"/>
-      <c r="C200" s="34"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="32"/>
       <c r="D200" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E200" s="27" t="s">
         <v>14</v>
@@ -6296,7 +6327,7 @@
       <c r="F200" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G200" s="34"/>
+      <c r="G200" s="32"/>
       <c r="H200" s="7">
         <v>0</v>
       </c>
@@ -6311,12 +6342,12 @@
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B201" s="36"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="35"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="37"/>
       <c r="E201" s="17"/>
       <c r="F201" s="7"/>
-      <c r="G201" s="34"/>
+      <c r="G201" s="32"/>
       <c r="H201" s="7">
         <v>0</v>
       </c>
@@ -6331,10 +6362,10 @@
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B202" s="36"/>
-      <c r="C202" s="34"/>
+      <c r="B202" s="41"/>
+      <c r="C202" s="32"/>
       <c r="D202" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E202" s="29" t="s">
         <v>24</v>
@@ -6342,7 +6373,7 @@
       <c r="F202" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G202" s="34"/>
+      <c r="G202" s="32"/>
       <c r="H202" s="7">
         <v>0</v>
       </c>
@@ -6357,12 +6388,12 @@
       </c>
     </row>
     <row r="203" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="36"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="35"/>
+      <c r="B203" s="41"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="37"/>
       <c r="E203" s="29"/>
       <c r="F203" s="7"/>
-      <c r="G203" s="34"/>
+      <c r="G203" s="32"/>
       <c r="H203" s="7">
         <v>0</v>
       </c>
@@ -6377,13 +6408,13 @@
       </c>
     </row>
     <row r="204" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C204" s="31"/>
-      <c r="D204" s="31"/>
-      <c r="E204" s="31"/>
-      <c r="F204" s="32"/>
+      <c r="C204" s="44"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="44"/>
+      <c r="F204" s="45"/>
       <c r="G204" s="26">
         <f>SUM(G179:G203)</f>
         <v>180</v>
@@ -6406,18 +6437,18 @@
       </c>
     </row>
     <row r="208" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
-      <c r="B208" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C208" s="38"/>
-      <c r="D208" s="38"/>
-      <c r="E208" s="38"/>
-      <c r="F208" s="38"/>
-      <c r="G208" s="38"/>
-      <c r="H208" s="38"/>
-      <c r="I208" s="38"/>
-      <c r="J208" s="38"/>
-      <c r="K208" s="38"/>
+      <c r="B208" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C208" s="52"/>
+      <c r="D208" s="52"/>
+      <c r="E208" s="52"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="52"/>
+      <c r="H208" s="52"/>
+      <c r="I208" s="52"/>
+      <c r="J208" s="52"/>
+      <c r="K208" s="52"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B209" s="3"/>
@@ -6465,19 +6496,19 @@
     </row>
     <row r="211" spans="2:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C211" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C211" s="33" t="s">
+      <c r="D211" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="D211" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="E211" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G211" s="33">
         <v>75</v>
@@ -6496,72 +6527,72 @@
       </c>
     </row>
     <row r="212" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="34"/>
-      <c r="C212" s="34"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
       <c r="D212" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E212" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G212" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G212" s="32"/>
       <c r="H212" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I212" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J212" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K212" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="2:11" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="35"/>
-      <c r="C213" s="35"/>
+      <c r="B213" s="37"/>
+      <c r="C213" s="37"/>
       <c r="D213" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E213" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G213" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="G213" s="37"/>
       <c r="H213" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I213" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J213" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K213" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="54" t="s">
+      <c r="B214" s="38" t="s">
         <v>96</v>
       </c>
       <c r="C214" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D214" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D214" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="E214" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G214" s="33">
         <v>50</v>
@@ -6580,16 +6611,16 @@
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B215" s="55"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
       <c r="E215" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G215" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G215" s="32"/>
       <c r="H215" s="7">
         <v>1</v>
       </c>
@@ -6604,16 +6635,16 @@
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B216" s="55"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="35"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="37"/>
       <c r="E216" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G216" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G216" s="32"/>
       <c r="H216" s="7">
         <v>1</v>
       </c>
@@ -6628,18 +6659,18 @@
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B217" s="55"/>
-      <c r="C217" s="34"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="32"/>
       <c r="D217" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E217" s="29" t="s">
         <v>23</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G217" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G217" s="32"/>
       <c r="H217" s="7">
         <v>10</v>
       </c>
@@ -6654,16 +6685,16 @@
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B218" s="55"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
       <c r="E218" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G218" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G218" s="32"/>
       <c r="H218" s="7">
         <v>10</v>
       </c>
@@ -6678,23 +6709,23 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B219" s="55"/>
-      <c r="C219" s="34"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="32"/>
       <c r="D219" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E219" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G219" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G219" s="32"/>
       <c r="H219" s="7">
         <v>10</v>
       </c>
       <c r="I219" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J219" s="7">
         <v>0</v>
@@ -6704,16 +6735,16 @@
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B220" s="55"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="35"/>
+      <c r="B220" s="39"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="37"/>
       <c r="E220" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G220" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G220" s="32"/>
       <c r="H220" s="7">
         <v>10</v>
       </c>
@@ -6724,22 +6755,22 @@
         <v>0</v>
       </c>
       <c r="K220" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B221" s="55"/>
-      <c r="C221" s="34"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="32"/>
       <c r="D221" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E221" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G221" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G221" s="32"/>
       <c r="H221" s="7">
         <v>0</v>
       </c>
@@ -6754,16 +6785,16 @@
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B222" s="56"/>
-      <c r="C222" s="35"/>
-      <c r="D222" s="35"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="37"/>
       <c r="E222" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G222" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="G222" s="37"/>
       <c r="H222" s="7">
         <v>0</v>
       </c>
@@ -6778,20 +6809,20 @@
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B223" s="54" t="s">
-        <v>143</v>
+      <c r="B223" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="C223" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D223" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="D223" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="E223" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G223" s="33">
         <v>50</v>
@@ -6810,23 +6841,23 @@
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B224" s="55"/>
-      <c r="C224" s="34"/>
+      <c r="B224" s="39"/>
+      <c r="C224" s="32"/>
       <c r="D224" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E224" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G224" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G224" s="32"/>
       <c r="H224" s="7">
         <v>0</v>
       </c>
       <c r="I224" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J224" s="7">
         <v>0</v>
@@ -6835,17 +6866,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B225" s="55"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="34"/>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B225" s="39"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
       <c r="E225" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G225" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G225" s="32"/>
       <c r="H225" s="7">
         <v>0</v>
       </c>
@@ -6853,23 +6884,23 @@
         <v>0</v>
       </c>
       <c r="J225" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K225" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B226" s="55"/>
-      <c r="C226" s="34"/>
-      <c r="D226" s="35"/>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B226" s="39"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="37"/>
       <c r="E226" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G226" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G226" s="32"/>
       <c r="H226" s="7">
         <v>0</v>
       </c>
@@ -6880,22 +6911,22 @@
         <v>0</v>
       </c>
       <c r="K226" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B227" s="55"/>
-      <c r="C227" s="34"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B227" s="39"/>
+      <c r="C227" s="32"/>
       <c r="D227" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E227" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G227" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G227" s="32"/>
       <c r="H227" s="7">
         <v>0</v>
       </c>
@@ -6903,30 +6934,30 @@
         <v>0</v>
       </c>
       <c r="J227" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K227" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B228" s="55"/>
-      <c r="C228" s="34"/>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B228" s="39"/>
+      <c r="C228" s="32"/>
       <c r="D228" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E228" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G228" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="G228" s="32"/>
       <c r="H228" s="7">
         <v>0</v>
       </c>
       <c r="I228" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J228" s="7">
         <v>0</v>
@@ -6935,21 +6966,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="55"/>
-      <c r="C229" s="34"/>
-      <c r="D229" s="58" t="s">
-        <v>164</v>
+    <row r="229" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="39"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="E229" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G229" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="G229" s="37"/>
       <c r="H229" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I229" s="7">
         <v>0</v>
@@ -6961,146 +6992,292 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B230" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C230" s="57"/>
-      <c r="D230" s="31"/>
-      <c r="E230" s="57"/>
-      <c r="F230" s="32"/>
+    <row r="230" spans="2:12" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B230" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C230" s="58"/>
+      <c r="D230" s="44"/>
+      <c r="E230" s="58"/>
+      <c r="F230" s="45"/>
       <c r="G230" s="26">
         <f>SUM(G211:G229)</f>
         <v>175</v>
       </c>
       <c r="H230" s="26">
         <f>SUM(H211:H229)</f>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I230" s="26">
-        <f>SUM(I211:I222)</f>
-        <v>0</v>
+        <f>SUM(I211:I228)</f>
+        <v>35</v>
       </c>
       <c r="J230" s="26">
-        <f>SUM(J211:J222)</f>
-        <v>0</v>
+        <f>SUM(J211:J229)</f>
+        <v>35</v>
       </c>
       <c r="K230" s="9">
-        <f>SUM(K211:K222)</f>
+        <f>SUM(K211:K229)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" ht="23.05" x14ac:dyDescent="0.3">
+      <c r="B233" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C233" s="52"/>
+      <c r="D233" s="52"/>
+      <c r="E233" s="52"/>
+      <c r="F233" s="52"/>
+      <c r="G233" s="52"/>
+      <c r="H233" s="52"/>
+      <c r="I233" s="52"/>
+      <c r="J233" s="52"/>
+      <c r="K233" s="52"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="2:12" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="B235" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E235" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F235" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G235" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" s="28">
+        <v>45314</v>
+      </c>
+      <c r="I235" s="28">
+        <v>45315</v>
+      </c>
+      <c r="J235" s="28">
+        <v>45316</v>
+      </c>
+      <c r="K235" s="28">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B236" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C236" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D236" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E236" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G236" s="33">
+        <v>200</v>
+      </c>
+      <c r="H236" s="7">
+        <v>30</v>
+      </c>
+      <c r="I236" s="7">
+        <v>0</v>
+      </c>
+      <c r="J236" s="7">
+        <v>0</v>
+      </c>
+      <c r="K236" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B237" s="32"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E237" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G237" s="32"/>
+      <c r="H237" s="7">
+        <v>30</v>
+      </c>
+      <c r="I237" s="7">
+        <v>0</v>
+      </c>
+      <c r="J237" s="7">
+        <v>0</v>
+      </c>
+      <c r="K237" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B238" s="32"/>
+      <c r="C238" s="32"/>
+      <c r="D238" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E238" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G238" s="32"/>
+      <c r="H238" s="7">
+        <v>30</v>
+      </c>
+      <c r="I238" s="7">
+        <v>0</v>
+      </c>
+      <c r="J238" s="7">
+        <v>0</v>
+      </c>
+      <c r="K238" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B239" s="32"/>
+      <c r="C239" s="32"/>
+      <c r="D239" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E239" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G239" s="32"/>
+      <c r="H239" s="7">
+        <v>30</v>
+      </c>
+      <c r="I239" s="7">
+        <v>0</v>
+      </c>
+      <c r="J239" s="7">
+        <v>0</v>
+      </c>
+      <c r="K239" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B240" s="32"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E240" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G240" s="32"/>
+      <c r="H240" s="7">
+        <v>30</v>
+      </c>
+      <c r="I240" s="7">
+        <v>0</v>
+      </c>
+      <c r="J240" s="7">
+        <v>0</v>
+      </c>
+      <c r="K240" s="7">
+        <v>0</v>
+      </c>
+      <c r="L240" s="25"/>
+    </row>
+    <row r="241" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="37"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E241" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G241" s="37"/>
+      <c r="H241" s="7">
+        <v>30</v>
+      </c>
+      <c r="I241" s="7">
+        <v>0</v>
+      </c>
+      <c r="J241" s="7">
+        <v>0</v>
+      </c>
+      <c r="K241" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
+      <c r="B242" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C242" s="58"/>
+      <c r="D242" s="44"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="45"/>
+      <c r="G242" s="26">
+        <f>SUM(G236:G241)</f>
+        <v>200</v>
+      </c>
+      <c r="H242" s="26">
+        <f>SUM(H236:H241)</f>
+        <v>180</v>
+      </c>
+      <c r="I242" s="26">
+        <f>SUM(I236:I241)</f>
+        <v>0</v>
+      </c>
+      <c r="J242" s="26">
+        <f>SUM(J236:J241)</f>
+        <v>0</v>
+      </c>
+      <c r="K242" s="9">
+        <f>SUM(K236:K241)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="127">
-    <mergeCell ref="G166:G172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="G162:G165"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="C214:C222"/>
-    <mergeCell ref="B214:B222"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="G214:G222"/>
-    <mergeCell ref="G211:G213"/>
-    <mergeCell ref="D150:D154"/>
-    <mergeCell ref="D155:D158"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="B142:B154"/>
-    <mergeCell ref="C142:C154"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B52:B64"/>
-    <mergeCell ref="C52:C64"/>
-    <mergeCell ref="G52:G64"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C1:K3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="C78:C90"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="G78:G90"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="G98:G104"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="G91:G97"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B107:K107"/>
-    <mergeCell ref="B110:B122"/>
-    <mergeCell ref="C110:C122"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="G110:G122"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="G130:G136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="B139:K139"/>
-    <mergeCell ref="G142:G154"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B176:K176"/>
-    <mergeCell ref="B179:B191"/>
-    <mergeCell ref="C179:C191"/>
-    <mergeCell ref="G179:G191"/>
-    <mergeCell ref="B155:B161"/>
-    <mergeCell ref="C155:C161"/>
-    <mergeCell ref="G155:G161"/>
-    <mergeCell ref="D146:D149"/>
+  <mergeCells count="132">
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B233:K233"/>
+    <mergeCell ref="B236:B241"/>
+    <mergeCell ref="C236:C241"/>
+    <mergeCell ref="G236:G241"/>
     <mergeCell ref="B230:F230"/>
     <mergeCell ref="D221:D222"/>
     <mergeCell ref="D219:D220"/>
@@ -7119,6 +7296,115 @@
     <mergeCell ref="C223:C229"/>
     <mergeCell ref="G223:G229"/>
     <mergeCell ref="D224:D226"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="G130:G136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="B139:K139"/>
+    <mergeCell ref="G142:G154"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B176:K176"/>
+    <mergeCell ref="B179:B191"/>
+    <mergeCell ref="C179:C191"/>
+    <mergeCell ref="G179:G191"/>
+    <mergeCell ref="B155:B161"/>
+    <mergeCell ref="C155:C161"/>
+    <mergeCell ref="G155:G161"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="G78:G90"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="G98:G104"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="G91:G97"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B110:B122"/>
+    <mergeCell ref="C110:C122"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="G110:G122"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D150:D154"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="B142:B154"/>
+    <mergeCell ref="C142:C154"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="G166:G172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="C214:C222"/>
+    <mergeCell ref="B214:B222"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="G214:G222"/>
+    <mergeCell ref="G211:G213"/>
+    <mergeCell ref="D185:D191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documentacion/Sprint_Backlog.xlsx
+++ b/Documentacion/Sprint_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/173d9a5eef9a690d/Documentos/Final de los Finales Documento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80CA10-DDEE-454D-B955-2D46C4A647C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{BF45330B-4529-48C6-A34B-B192350635CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D282AE3-5131-4E2D-8821-A270E16B86EC}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIAL DE VERSIONES" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -465,10 +465,6 @@
     <t>Maquetado usuario personal de atencion</t>
   </si>
   <si>
-    <t xml:space="preserve">Elección de colores y  fuentes para las pantallas
-</t>
-  </si>
-  <si>
     <t>HU05</t>
   </si>
   <si>
@@ -571,14 +567,86 @@
     <t>Análisis para diseño responsive</t>
   </si>
   <si>
-    <t>En Proceso</t>
+    <t>SPRINT 10 BACKLOG</t>
+  </si>
+  <si>
+    <t>HT-05</t>
+  </si>
+  <si>
+    <t>Implementación del Diseño Responsivo</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 10</t>
+  </si>
+  <si>
+    <t>SPRINT 11 BACKLOG</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 11</t>
+  </si>
+  <si>
+    <t>Verificar funcionalidades en diferentes dispositivos.</t>
+  </si>
+  <si>
+    <t>Adaptar los estilos existentes de interfaz administrador.</t>
+  </si>
+  <si>
+    <t>Adaptar los estilos existentes interfaz  Login.</t>
+  </si>
+  <si>
+    <t>Adaptar los estilos existentes interfaz pasajero.</t>
+  </si>
+  <si>
+    <t>Adaptar los estilos existentes interfaz personal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configurar front-end a resoluciones de dispositivos móviles</t>
+  </si>
+  <si>
+    <t>HU07</t>
+  </si>
+  <si>
+    <t>Elección de colores y  fuentes para las pantallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Sprint Backlog 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Sprint Backlog 10 </t>
+  </si>
+  <si>
+    <t>SPRINT 12 BACKLOG</t>
+  </si>
+  <si>
+    <t>HT-11</t>
+  </si>
+  <si>
+    <t>Revisión de la documentación actual</t>
+  </si>
+  <si>
+    <t>Mejora de comentarios en el código</t>
+  </si>
+  <si>
+    <t>Identificación de áreas críticas que requieran documentación detallada</t>
+  </si>
+  <si>
+    <t>HORAS SPRINT 12</t>
+  </si>
+  <si>
+    <t>2 .0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Sprint Backlog 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Sprint Backlog 12 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +731,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -989,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1081,25 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1111,19 +1181,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1141,12 +1248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1159,11 +1260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,31 +1592,31 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B3:F18"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="67" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="41.8984375" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="26.69921875" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="24.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="24.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" ht="24.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:6" ht="24.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="24.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
@@ -1540,7 +1650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="24">
         <v>45265</v>
       </c>
@@ -1557,7 +1667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="24">
         <v>45278</v>
       </c>
@@ -1574,7 +1684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="24">
         <v>45290</v>
       </c>
@@ -1591,7 +1701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24">
         <v>45268</v>
       </c>
@@ -1608,7 +1718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="24">
         <v>45293</v>
       </c>
@@ -1622,12 +1732,12 @@
         <v>58</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="23">
         <v>1.6</v>
@@ -1639,12 +1749,12 @@
         <v>58</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="25.95" thickBot="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="24">
-        <v>45642</v>
+        <v>45307</v>
       </c>
       <c r="C15" s="23">
         <v>1.7</v>
@@ -1656,11 +1766,77 @@
         <v>58</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="38.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="24">
+        <v>45314</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24">
+        <v>45320</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="24">
+        <v>45325</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24">
+        <v>45329</v>
+      </c>
+      <c r="C19" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,88 +1848,88 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:R242"/>
+  <dimension ref="B1:Y286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A225" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L240" sqref="L240"/>
+    <sheetView showGridLines="0" topLeftCell="A242" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q262" sqref="Q262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="8" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="42.69921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.19921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.09765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.09765625" style="5"/>
+    <col min="3" max="3" width="41.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="2:18" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="2:18" ht="39.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-    </row>
-    <row r="6" spans="2:18" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+    </row>
+    <row r="6" spans="2:18" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:18" s="4" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
@@ -1792,23 +1968,23 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="2:18" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="44">
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1824,17 +2000,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
+    <row r="10" spans="2:18" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="49"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -1848,9 +2024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42"/>
-      <c r="C11" s="34"/>
+    <row r="11" spans="2:18" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="50"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +2036,7 @@
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="11">
         <v>8</v>
       </c>
@@ -1874,11 +2050,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1890,7 +2066,7 @@
       <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="48">
         <v>70</v>
       </c>
       <c r="H12" s="10">
@@ -1906,9 +2082,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
-      <c r="C13" s="32"/>
+    <row r="13" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="52"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1918,7 +2094,7 @@
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
@@ -1932,9 +2108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="32"/>
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="52"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1944,7 +2120,7 @@
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="8">
         <v>0</v>
       </c>
@@ -1958,9 +2134,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="55"/>
-      <c r="C15" s="34"/>
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="60"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +2146,7 @@
       <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="11">
         <v>0</v>
       </c>
@@ -1984,11 +2160,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -2000,7 +2176,7 @@
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="48">
         <v>30</v>
       </c>
       <c r="H16" s="10">
@@ -2016,9 +2192,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="32"/>
+    <row r="17" spans="2:11" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="52"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2204,7 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="8">
         <v>0</v>
       </c>
@@ -2042,9 +2218,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="32"/>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="52"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2054,7 +2230,7 @@
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="32"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="8">
         <v>0</v>
       </c>
@@ -2068,9 +2244,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="42.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="55"/>
-      <c r="C19" s="34"/>
+    <row r="19" spans="2:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="60"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
@@ -2080,7 +2256,7 @@
       <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="12">
         <v>0</v>
       </c>
@@ -2094,14 +2270,14 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43" t="s">
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="9">
         <f>SUM(G9:G19)</f>
         <v>110</v>
@@ -2123,19 +2299,19 @@
         <v>29.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="51" t="s">
+    <row r="23" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
@@ -2149,7 +2325,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
@@ -2181,11 +2357,11 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
+    <row r="26" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2197,7 +2373,7 @@
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="44">
         <v>40</v>
       </c>
       <c r="H26" s="7">
@@ -2213,10 +2389,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="46" t="s">
+    <row r="27" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="49"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="53" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -2225,7 +2401,7 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="32"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="7">
         <v>10</v>
       </c>
@@ -2239,17 +2415,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="47"/>
+    <row r="28" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="49"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="32"/>
+      <c r="G28" s="44"/>
       <c r="H28" s="7">
         <v>7.5</v>
       </c>
@@ -2263,17 +2439,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="47"/>
+    <row r="29" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="49"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="32"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="7">
         <v>5</v>
       </c>
@@ -2287,17 +2463,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="48"/>
+    <row r="30" spans="2:11" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="49"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="32"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="7">
         <v>5</v>
       </c>
@@ -2311,9 +2487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="41"/>
-      <c r="C31" s="32"/>
+    <row r="31" spans="2:11" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="49"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
@@ -2323,7 +2499,7 @@
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="32"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="7">
         <v>2.5</v>
       </c>
@@ -2337,9 +2513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="44.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="42"/>
-      <c r="C32" s="34"/>
+    <row r="32" spans="2:11" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="50"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
@@ -2349,7 +2525,7 @@
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7">
         <v>7.5</v>
       </c>
@@ -2363,14 +2539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="18" t="s">
@@ -2379,7 +2555,7 @@
       <c r="F33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="48">
         <v>100</v>
       </c>
       <c r="H33" s="10">
@@ -2395,17 +2571,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="47"/>
+    <row r="34" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="52"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="32"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -2419,17 +2595,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="47"/>
+    <row r="35" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="52"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="32"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -2443,17 +2619,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="24.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="48"/>
+    <row r="36" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="52"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="32"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -2467,9 +2643,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="32"/>
+    <row r="37" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="52"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
@@ -2479,7 +2655,7 @@
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="32"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -2493,9 +2669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="32"/>
+    <row r="38" spans="2:11" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="52"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2505,7 +2681,7 @@
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="32"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -2519,9 +2695,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36"/>
-      <c r="C39" s="32"/>
+    <row r="39" spans="2:11" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="52"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2531,7 +2707,7 @@
       <c r="F39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="32"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -2545,9 +2721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="64.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="55"/>
-      <c r="C40" s="34"/>
+    <row r="40" spans="2:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="60"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="13" t="s">
         <v>46</v>
       </c>
@@ -2557,7 +2733,7 @@
       <c r="F40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -2572,13 +2748,13 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="18" t="s">
@@ -2587,7 +2763,7 @@
       <c r="F41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="48">
         <v>10</v>
       </c>
       <c r="H41" s="10">
@@ -2604,16 +2780,16 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="47"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -2628,16 +2804,16 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="47"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="32"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -2652,16 +2828,16 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="36"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="32"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -2676,8 +2852,8 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="36"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2687,7 +2863,7 @@
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="32"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="8">
         <v>0</v>
       </c>
@@ -2702,13 +2878,13 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="9">
         <f>SUM(G26:G45)</f>
         <v>150</v>
@@ -2730,19 +2906,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B49" s="51" t="s">
+    <row r="49" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
+      <c r="B49" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
@@ -2756,7 +2932,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B51" s="15" t="s">
         <v>0</v>
       </c>
@@ -2789,13 +2965,13 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="53" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -2804,7 +2980,7 @@
       <c r="F52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="44">
         <v>50</v>
       </c>
       <c r="H52" s="7">
@@ -2821,16 +2997,16 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="47"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="32"/>
+      <c r="G53" s="44"/>
       <c r="H53" s="7">
         <v>3.12</v>
       </c>
@@ -2845,16 +3021,16 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="41"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="32"/>
+      <c r="G54" s="44"/>
       <c r="H54" s="7">
         <v>3.12</v>
       </c>
@@ -2869,16 +3045,16 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="41"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="32"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="7">
         <v>3.12</v>
       </c>
@@ -2893,9 +3069,9 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="46" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="53" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -2904,7 +3080,7 @@
       <c r="F56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="32"/>
+      <c r="G56" s="44"/>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -2919,16 +3095,16 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="47"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="32"/>
+      <c r="G57" s="44"/>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -2943,16 +3119,16 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="41"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="47"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="54"/>
       <c r="E58" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="32"/>
+      <c r="G58" s="44"/>
       <c r="H58" s="7">
         <v>0</v>
       </c>
@@ -2967,16 +3143,16 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="32"/>
+      <c r="G59" s="44"/>
       <c r="H59" s="7">
         <v>0</v>
       </c>
@@ -2991,8 +3167,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
-      <c r="C60" s="32"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="7" t="s">
         <v>70</v>
       </c>
@@ -3002,7 +3178,7 @@
       <c r="F60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="32"/>
+      <c r="G60" s="44"/>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -3017,9 +3193,9 @@
       </c>
     </row>
     <row r="61" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="41"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="46" t="s">
+      <c r="B61" s="49"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="53" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -3028,7 +3204,7 @@
       <c r="F61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="32"/>
+      <c r="G61" s="44"/>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -3043,16 +3219,16 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="47"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="32"/>
+      <c r="G62" s="44"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
@@ -3067,16 +3243,16 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="47"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="32"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="7">
         <v>0</v>
       </c>
@@ -3091,16 +3267,16 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="42"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="34"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="7">
         <v>0</v>
       </c>
@@ -3115,13 +3291,13 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="57" t="s">
         <v>75</v>
       </c>
       <c r="E65" s="18" t="s">
@@ -3130,7 +3306,7 @@
       <c r="F65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G65" s="48">
         <v>120</v>
       </c>
       <c r="H65" s="10">
@@ -3147,16 +3323,16 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="36"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="47"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="54"/>
       <c r="E66" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="32"/>
+      <c r="G66" s="44"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
@@ -3171,16 +3347,16 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="36"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="47"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="32"/>
+      <c r="G67" s="44"/>
       <c r="H67" s="7">
         <v>0</v>
       </c>
@@ -3195,16 +3371,16 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="48"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="32"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="7">
         <v>0</v>
       </c>
@@ -3219,8 +3395,8 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="36"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="2" t="s">
         <v>76</v>
       </c>
@@ -3230,7 +3406,7 @@
       <c r="F69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="32"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="7">
         <v>0</v>
       </c>
@@ -3246,8 +3422,8 @@
       <c r="L69" s="25"/>
     </row>
     <row r="70" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="36"/>
-      <c r="C70" s="32"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="2" t="s">
         <v>77</v>
       </c>
@@ -3257,7 +3433,7 @@
       <c r="F70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="32"/>
+      <c r="G70" s="44"/>
       <c r="H70" s="7">
         <v>0</v>
       </c>
@@ -3272,8 +3448,8 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="36"/>
-      <c r="C71" s="32"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="2" t="s">
         <v>78</v>
       </c>
@@ -3283,7 +3459,7 @@
       <c r="F71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="32"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="7">
         <v>0</v>
       </c>
@@ -3298,13 +3474,13 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="45"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="40"/>
       <c r="G72" s="9">
         <f>SUM(G52:G71)</f>
         <v>170</v>
@@ -3326,19 +3502,19 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="51" t="s">
+    <row r="75" spans="2:12" ht="23.55" x14ac:dyDescent="0.3">
+      <c r="B75" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
@@ -3352,7 +3528,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:12" ht="35.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" ht="36" x14ac:dyDescent="0.3">
       <c r="B77" s="15" t="s">
         <v>0</v>
       </c>
@@ -3385,13 +3561,13 @@
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="43" t="s">
         <v>90</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -3400,7 +3576,7 @@
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="32">
+      <c r="G78" s="44">
         <v>90</v>
       </c>
       <c r="H78" s="7">
@@ -3417,16 +3593,16 @@
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="41"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="32"/>
+      <c r="G79" s="44"/>
       <c r="H79" s="7">
         <v>3.12</v>
       </c>
@@ -3441,16 +3617,16 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="41"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="32"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="7">
         <v>3.12</v>
       </c>
@@ -3465,16 +3641,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="41"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="37"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="46"/>
       <c r="E81" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="32"/>
+      <c r="G81" s="44"/>
       <c r="H81" s="7">
         <v>3.12</v>
       </c>
@@ -3489,9 +3665,9 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="41"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33" t="s">
+      <c r="B82" s="49"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="43" t="s">
         <v>89</v>
       </c>
       <c r="E82" s="19" t="s">
@@ -3500,7 +3676,7 @@
       <c r="F82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="32"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="7">
         <v>0</v>
       </c>
@@ -3515,16 +3691,16 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="41"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
       <c r="E83" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="32"/>
+      <c r="G83" s="44"/>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -3539,16 +3715,16 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="41"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
       <c r="E84" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="32"/>
+      <c r="G84" s="44"/>
       <c r="H84" s="7">
         <v>0</v>
       </c>
@@ -3563,16 +3739,16 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="41"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="37"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="46"/>
       <c r="E85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="32"/>
+      <c r="G85" s="44"/>
       <c r="H85" s="7">
         <v>0</v>
       </c>
@@ -3587,9 +3763,9 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33" t="s">
+      <c r="B86" s="49"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="19" t="s">
@@ -3598,7 +3774,7 @@
       <c r="F86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="32"/>
+      <c r="G86" s="44"/>
       <c r="H86" s="7">
         <v>0</v>
       </c>
@@ -3613,16 +3789,16 @@
       </c>
     </row>
     <row r="87" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="32"/>
+      <c r="G87" s="44"/>
       <c r="H87" s="7">
         <v>0</v>
       </c>
@@ -3637,16 +3813,16 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="41"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
       <c r="E88" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="32"/>
+      <c r="G88" s="44"/>
       <c r="H88" s="7">
         <v>0</v>
       </c>
@@ -3661,16 +3837,16 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="32"/>
+      <c r="G89" s="44"/>
       <c r="H89" s="7">
         <v>0</v>
       </c>
@@ -3685,16 +3861,16 @@
       </c>
     </row>
     <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="42"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="34"/>
+      <c r="G90" s="45"/>
       <c r="H90" s="7">
         <v>0</v>
       </c>
@@ -3709,13 +3885,13 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="57" t="s">
         <v>114</v>
       </c>
       <c r="E91" s="18" t="s">
@@ -3724,7 +3900,7 @@
       <c r="F91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G91" s="48">
         <v>50</v>
       </c>
       <c r="H91" s="10">
@@ -3741,16 +3917,16 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="36"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="47"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="32"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="7">
         <v>0</v>
       </c>
@@ -3765,16 +3941,16 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="36"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="47"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="32"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="7">
         <v>0</v>
       </c>
@@ -3789,16 +3965,16 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="36"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="48"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="32"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="7">
         <v>0</v>
       </c>
@@ -3813,8 +3989,8 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="36"/>
-      <c r="C95" s="32"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="2" t="s">
         <v>115</v>
       </c>
@@ -3824,7 +4000,7 @@
       <c r="F95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="32"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="7">
         <v>0</v>
       </c>
@@ -3839,8 +4015,8 @@
       </c>
     </row>
     <row r="96" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="36"/>
-      <c r="C96" s="32"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="2" t="s">
         <v>116</v>
       </c>
@@ -3850,7 +4026,7 @@
       <c r="F96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="32"/>
+      <c r="G96" s="44"/>
       <c r="H96" s="7">
         <v>0</v>
       </c>
@@ -3864,9 +4040,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="36"/>
-      <c r="C97" s="32"/>
+    <row r="97" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="52"/>
+      <c r="C97" s="44"/>
       <c r="D97" s="2" t="s">
         <v>119</v>
       </c>
@@ -3876,7 +4052,7 @@
       <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="32"/>
+      <c r="G97" s="44"/>
       <c r="H97" s="7">
         <v>0</v>
       </c>
@@ -3891,13 +4067,13 @@
       </c>
     </row>
     <row r="98" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="57" t="s">
         <v>117</v>
       </c>
       <c r="E98" s="18" t="s">
@@ -3906,7 +4082,7 @@
       <c r="F98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="31">
+      <c r="G98" s="48">
         <v>50</v>
       </c>
       <c r="H98" s="10">
@@ -3923,16 +4099,16 @@
       </c>
     </row>
     <row r="99" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="36"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="47"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="32"/>
+      <c r="G99" s="44"/>
       <c r="H99" s="7">
         <v>0</v>
       </c>
@@ -3947,16 +4123,16 @@
       </c>
     </row>
     <row r="100" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="36"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="47"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="32"/>
+      <c r="G100" s="44"/>
       <c r="H100" s="7">
         <v>0</v>
       </c>
@@ -3971,16 +4147,16 @@
       </c>
     </row>
     <row r="101" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="36"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="48"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="32"/>
+      <c r="G101" s="44"/>
       <c r="H101" s="7">
         <v>0</v>
       </c>
@@ -3995,8 +4171,8 @@
       </c>
     </row>
     <row r="102" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="36"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="2" t="s">
         <v>118</v>
       </c>
@@ -4006,7 +4182,7 @@
       <c r="F102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="32"/>
+      <c r="G102" s="44"/>
       <c r="H102" s="7">
         <v>0</v>
       </c>
@@ -4021,8 +4197,8 @@
       </c>
     </row>
     <row r="103" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="36"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="2" t="s">
         <v>120</v>
       </c>
@@ -4032,7 +4208,7 @@
       <c r="F103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="32"/>
+      <c r="G103" s="44"/>
       <c r="H103" s="7">
         <v>0</v>
       </c>
@@ -4047,8 +4223,8 @@
       </c>
     </row>
     <row r="104" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="36"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="2" t="s">
         <v>121</v>
       </c>
@@ -4058,7 +4234,7 @@
       <c r="F104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="32"/>
+      <c r="G104" s="44"/>
       <c r="H104" s="7">
         <v>0</v>
       </c>
@@ -4073,13 +4249,13 @@
       </c>
     </row>
     <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="45"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="40"/>
       <c r="G105" s="9">
         <f>SUM(G85:G104:G78)</f>
         <v>190</v>
@@ -4101,19 +4277,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B107" s="51" t="s">
+    <row r="107" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
+      <c r="B107" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
-      <c r="K107" s="52"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="3"/>
@@ -4127,7 +4303,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
         <v>0</v>
       </c>
@@ -4160,13 +4336,13 @@
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C110" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D110" s="43" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="19" t="s">
@@ -4175,7 +4351,7 @@
       <c r="F110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="32">
+      <c r="G110" s="44">
         <v>80</v>
       </c>
       <c r="H110" s="7">
@@ -4192,16 +4368,16 @@
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="41"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
       <c r="E111" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="32"/>
+      <c r="G111" s="44"/>
       <c r="H111" s="7">
         <v>3.12</v>
       </c>
@@ -4216,16 +4392,16 @@
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="41"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
       <c r="E112" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="32"/>
+      <c r="G112" s="44"/>
       <c r="H112" s="7">
         <v>3.12</v>
       </c>
@@ -4240,16 +4416,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="41"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="37"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="46"/>
       <c r="E113" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="32"/>
+      <c r="G113" s="44"/>
       <c r="H113" s="7">
         <v>3.12</v>
       </c>
@@ -4264,9 +4440,9 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="41"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33" t="s">
+      <c r="B114" s="49"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="43" t="s">
         <v>98</v>
       </c>
       <c r="E114" s="19" t="s">
@@ -4275,7 +4451,7 @@
       <c r="F114" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="32"/>
+      <c r="G114" s="44"/>
       <c r="H114" s="7">
         <v>0</v>
       </c>
@@ -4290,16 +4466,16 @@
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="41"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="32"/>
+      <c r="G115" s="44"/>
       <c r="H115" s="7">
         <v>0</v>
       </c>
@@ -4314,16 +4490,16 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="41"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
       <c r="E116" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="32"/>
+      <c r="G116" s="44"/>
       <c r="H116" s="7">
         <v>0</v>
       </c>
@@ -4338,16 +4514,16 @@
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="41"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="37"/>
+      <c r="B117" s="49"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="46"/>
       <c r="E117" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="32"/>
+      <c r="G117" s="44"/>
       <c r="H117" s="7">
         <v>0</v>
       </c>
@@ -4362,9 +4538,9 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="41"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="33" t="s">
+      <c r="B118" s="49"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="43" t="s">
         <v>126</v>
       </c>
       <c r="E118" s="19" t="s">
@@ -4373,7 +4549,7 @@
       <c r="F118" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="32"/>
+      <c r="G118" s="44"/>
       <c r="H118" s="7">
         <v>0</v>
       </c>
@@ -4388,16 +4564,16 @@
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="41"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
       <c r="E119" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="32"/>
+      <c r="G119" s="44"/>
       <c r="H119" s="7">
         <v>0</v>
       </c>
@@ -4412,16 +4588,16 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="41"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
       <c r="E120" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="32"/>
+      <c r="G120" s="44"/>
       <c r="H120" s="7">
         <v>0</v>
       </c>
@@ -4436,16 +4612,16 @@
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="41"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
       <c r="E121" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="32"/>
+      <c r="G121" s="44"/>
       <c r="H121" s="7">
         <v>0</v>
       </c>
@@ -4460,16 +4636,16 @@
       </c>
     </row>
     <row r="122" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="42"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
       <c r="E122" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="34"/>
+      <c r="G122" s="45"/>
       <c r="H122" s="7">
         <v>0</v>
       </c>
@@ -4484,13 +4660,13 @@
       </c>
     </row>
     <row r="123" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C123" s="31" t="s">
+      <c r="B123" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="48" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="18" t="s">
@@ -4499,7 +4675,7 @@
       <c r="F123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="31">
+      <c r="G123" s="48">
         <v>43</v>
       </c>
       <c r="H123" s="10">
@@ -4516,16 +4692,16 @@
       </c>
     </row>
     <row r="124" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="36"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
       <c r="E124" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="32"/>
+      <c r="G124" s="44"/>
       <c r="H124" s="7">
         <v>0</v>
       </c>
@@ -4540,16 +4716,16 @@
       </c>
     </row>
     <row r="125" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="36"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
       <c r="E125" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="32"/>
+      <c r="G125" s="44"/>
       <c r="H125" s="7">
         <v>0</v>
       </c>
@@ -4564,16 +4740,16 @@
       </c>
     </row>
     <row r="126" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="36"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
       <c r="E126" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="32"/>
+      <c r="G126" s="44"/>
       <c r="H126" s="7">
         <v>0</v>
       </c>
@@ -4588,16 +4764,16 @@
       </c>
     </row>
     <row r="127" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="36"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
       <c r="E127" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="32"/>
+      <c r="G127" s="44"/>
       <c r="H127" s="7">
         <v>0</v>
       </c>
@@ -4612,16 +4788,16 @@
       </c>
     </row>
     <row r="128" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="36"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
       <c r="E128" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="32"/>
+      <c r="G128" s="44"/>
       <c r="H128" s="7">
         <v>0</v>
       </c>
@@ -4636,16 +4812,16 @@
       </c>
     </row>
     <row r="129" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="36"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="34"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="45"/>
       <c r="E129" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="32"/>
+      <c r="G129" s="44"/>
       <c r="H129" s="7">
         <v>0</v>
       </c>
@@ -4660,13 +4836,13 @@
       </c>
     </row>
     <row r="130" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="48" t="s">
         <v>130</v>
       </c>
       <c r="E130" s="18" t="s">
@@ -4675,7 +4851,7 @@
       <c r="F130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="31">
+      <c r="G130" s="48">
         <v>47</v>
       </c>
       <c r="H130" s="10">
@@ -4692,16 +4868,16 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="36"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
       <c r="E131" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G131" s="32"/>
+      <c r="G131" s="44"/>
       <c r="H131" s="7">
         <v>0</v>
       </c>
@@ -4716,16 +4892,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="36"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
       <c r="E132" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="32"/>
+      <c r="G132" s="44"/>
       <c r="H132" s="7">
         <v>0</v>
       </c>
@@ -4740,16 +4916,16 @@
       </c>
     </row>
     <row r="133" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="36"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="37"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="46"/>
       <c r="E133" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G133" s="32"/>
+      <c r="G133" s="44"/>
       <c r="H133" s="7">
         <v>0</v>
       </c>
@@ -4764,9 +4940,9 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="36"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="33" t="s">
+      <c r="B134" s="52"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="43" t="s">
         <v>131</v>
       </c>
       <c r="E134" s="19" t="s">
@@ -4775,7 +4951,7 @@
       <c r="F134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G134" s="32"/>
+      <c r="G134" s="44"/>
       <c r="H134" s="7">
         <v>0</v>
       </c>
@@ -4790,16 +4966,16 @@
       </c>
     </row>
     <row r="135" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="36"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
       <c r="E135" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G135" s="32"/>
+      <c r="G135" s="44"/>
       <c r="H135" s="7">
         <v>0</v>
       </c>
@@ -4814,16 +4990,16 @@
       </c>
     </row>
     <row r="136" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="36"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="34"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="45"/>
       <c r="E136" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="32"/>
+      <c r="G136" s="44"/>
       <c r="H136" s="7">
         <v>0</v>
       </c>
@@ -4838,13 +5014,13 @@
       </c>
     </row>
     <row r="137" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B137" s="43" t="s">
+      <c r="B137" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="44"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="45"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="40"/>
       <c r="G137" s="26">
         <f>SUM(G110:G130)</f>
         <v>170</v>
@@ -4866,19 +5042,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="B139" s="51" t="s">
+    <row r="139" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
+      <c r="B139" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="52"/>
-      <c r="J139" s="52"/>
-      <c r="K139" s="52"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+      <c r="K139" s="42"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
@@ -4892,7 +5068,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B141" s="15" t="s">
         <v>0</v>
       </c>
@@ -4925,13 +5101,13 @@
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="41" t="s">
+      <c r="B142" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="C142" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="D142" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E142" s="19" t="s">
@@ -4940,7 +5116,7 @@
       <c r="F142" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="32">
+      <c r="G142" s="44">
         <v>80</v>
       </c>
       <c r="H142" s="7">
@@ -4957,16 +5133,16 @@
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="41"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
       <c r="E143" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="32"/>
+      <c r="G143" s="44"/>
       <c r="H143" s="7">
         <v>3.12</v>
       </c>
@@ -4981,16 +5157,16 @@
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="41"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
       <c r="E144" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="32"/>
+      <c r="G144" s="44"/>
       <c r="H144" s="7">
         <v>3.12</v>
       </c>
@@ -5005,16 +5181,16 @@
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="41"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="37"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G145" s="32"/>
+      <c r="G145" s="44"/>
       <c r="H145" s="7">
         <v>3.12</v>
       </c>
@@ -5029,9 +5205,9 @@
       </c>
     </row>
     <row r="146" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="41"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="33" t="s">
+      <c r="B146" s="49"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="43" t="s">
         <v>122</v>
       </c>
       <c r="E146" s="19" t="s">
@@ -5040,7 +5216,7 @@
       <c r="F146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="32"/>
+      <c r="G146" s="44"/>
       <c r="H146" s="7">
         <v>0</v>
       </c>
@@ -5055,16 +5231,16 @@
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="41"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
       <c r="E147" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="32"/>
+      <c r="G147" s="44"/>
       <c r="H147" s="7">
         <v>0</v>
       </c>
@@ -5079,16 +5255,16 @@
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="41"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
       <c r="E148" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G148" s="32"/>
+      <c r="G148" s="44"/>
       <c r="H148" s="7">
         <v>0</v>
       </c>
@@ -5103,16 +5279,16 @@
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B149" s="41"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
+      <c r="B149" s="49"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
       <c r="E149" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="32"/>
+      <c r="G149" s="44"/>
       <c r="H149" s="7">
         <v>0</v>
       </c>
@@ -5127,9 +5303,9 @@
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B150" s="41"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="33" t="s">
+      <c r="B150" s="49"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="43" t="s">
         <v>123</v>
       </c>
       <c r="E150" s="19" t="s">
@@ -5138,7 +5314,7 @@
       <c r="F150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="32"/>
+      <c r="G150" s="44"/>
       <c r="H150" s="7">
         <v>0</v>
       </c>
@@ -5153,16 +5329,16 @@
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B151" s="41"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
+      <c r="B151" s="49"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
       <c r="E151" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="32"/>
+      <c r="G151" s="44"/>
       <c r="H151" s="7">
         <v>0</v>
       </c>
@@ -5177,16 +5353,16 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B152" s="41"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
       <c r="E152" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="32"/>
+      <c r="G152" s="44"/>
       <c r="H152" s="7">
         <v>0</v>
       </c>
@@ -5201,16 +5377,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B153" s="41"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
+      <c r="B153" s="49"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
       <c r="E153" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G153" s="32"/>
+      <c r="G153" s="44"/>
       <c r="H153" s="7">
         <v>0</v>
       </c>
@@ -5225,16 +5401,16 @@
       </c>
     </row>
     <row r="154" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="42"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
       <c r="E154" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G154" s="34"/>
+      <c r="G154" s="45"/>
       <c r="H154" s="7">
         <v>0</v>
       </c>
@@ -5249,13 +5425,13 @@
       </c>
     </row>
     <row r="155" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="31" t="s">
+      <c r="C155" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="48" t="s">
         <v>110</v>
       </c>
       <c r="E155" s="18" t="s">
@@ -5264,7 +5440,7 @@
       <c r="F155" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="31">
+      <c r="G155" s="48">
         <v>43</v>
       </c>
       <c r="H155" s="10">
@@ -5281,16 +5457,16 @@
       </c>
     </row>
     <row r="156" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="36"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
       <c r="E156" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="32"/>
+      <c r="G156" s="44"/>
       <c r="H156" s="7">
         <v>0</v>
       </c>
@@ -5305,16 +5481,16 @@
       </c>
     </row>
     <row r="157" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="36"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="44"/>
       <c r="E157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="32"/>
+      <c r="G157" s="44"/>
       <c r="H157" s="7">
         <v>0</v>
       </c>
@@ -5329,16 +5505,16 @@
       </c>
     </row>
     <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="36"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
       <c r="E158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G158" s="32"/>
+      <c r="G158" s="44"/>
       <c r="H158" s="7">
         <v>0</v>
       </c>
@@ -5353,9 +5529,9 @@
       </c>
     </row>
     <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="36"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="33" t="s">
+      <c r="B159" s="52"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="43" t="s">
         <v>124</v>
       </c>
       <c r="E159" s="19" t="s">
@@ -5364,7 +5540,7 @@
       <c r="F159" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G159" s="32"/>
+      <c r="G159" s="44"/>
       <c r="H159" s="7">
         <v>0</v>
       </c>
@@ -5379,16 +5555,16 @@
       </c>
     </row>
     <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="36"/>
-      <c r="C160" s="32"/>
-      <c r="D160" s="32"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
       <c r="E160" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="32"/>
+      <c r="G160" s="44"/>
       <c r="H160" s="7">
         <v>0</v>
       </c>
@@ -5403,16 +5579,16 @@
       </c>
     </row>
     <row r="161" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="36"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="34"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="45"/>
       <c r="E161" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="32"/>
+      <c r="G161" s="44"/>
       <c r="H161" s="7">
         <v>0</v>
       </c>
@@ -5427,13 +5603,13 @@
       </c>
     </row>
     <row r="162" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="31" t="s">
+      <c r="C162" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D162" s="31" t="s">
+      <c r="D162" s="48" t="s">
         <v>112</v>
       </c>
       <c r="E162" s="18" t="s">
@@ -5442,7 +5618,7 @@
       <c r="F162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="31">
+      <c r="G162" s="48">
         <v>43</v>
       </c>
       <c r="H162" s="10">
@@ -5459,16 +5635,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="36"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="44"/>
+      <c r="D163" s="44"/>
       <c r="E163" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="32"/>
+      <c r="G163" s="44"/>
       <c r="H163" s="7">
         <v>0</v>
       </c>
@@ -5483,16 +5659,16 @@
       </c>
     </row>
     <row r="164" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="36"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="44"/>
       <c r="E164" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="32"/>
+      <c r="G164" s="44"/>
       <c r="H164" s="7">
         <v>0</v>
       </c>
@@ -5507,16 +5683,16 @@
       </c>
     </row>
     <row r="165" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="36"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="32"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
       <c r="E165" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="32"/>
+      <c r="G165" s="44"/>
       <c r="H165" s="7">
         <v>0</v>
       </c>
@@ -5531,13 +5707,13 @@
       </c>
     </row>
     <row r="166" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="35" t="s">
+      <c r="B166" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C166" s="31" t="s">
+      <c r="C166" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="48" t="s">
         <v>128</v>
       </c>
       <c r="E166" s="18" t="s">
@@ -5546,7 +5722,7 @@
       <c r="F166" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G166" s="31">
+      <c r="G166" s="48">
         <v>10</v>
       </c>
       <c r="H166" s="10">
@@ -5563,16 +5739,16 @@
       </c>
     </row>
     <row r="167" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="36"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
       <c r="E167" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="32"/>
+      <c r="G167" s="44"/>
       <c r="H167" s="7">
         <v>0</v>
       </c>
@@ -5587,16 +5763,16 @@
       </c>
     </row>
     <row r="168" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="36"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="44"/>
       <c r="E168" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G168" s="32"/>
+      <c r="G168" s="44"/>
       <c r="H168" s="7">
         <v>0</v>
       </c>
@@ -5611,16 +5787,16 @@
       </c>
     </row>
     <row r="169" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="36"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="37"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="46"/>
       <c r="E169" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G169" s="32"/>
+      <c r="G169" s="44"/>
       <c r="H169" s="7">
         <v>0</v>
       </c>
@@ -5635,9 +5811,9 @@
       </c>
     </row>
     <row r="170" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="36"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="33" t="s">
+      <c r="B170" s="52"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="43" t="s">
         <v>129</v>
       </c>
       <c r="E170" s="19" t="s">
@@ -5646,7 +5822,7 @@
       <c r="F170" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="32"/>
+      <c r="G170" s="44"/>
       <c r="H170" s="7">
         <v>0</v>
       </c>
@@ -5661,16 +5837,16 @@
       </c>
     </row>
     <row r="171" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="36"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="44"/>
       <c r="E171" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G171" s="32"/>
+      <c r="G171" s="44"/>
       <c r="H171" s="7">
         <v>0</v>
       </c>
@@ -5685,16 +5861,16 @@
       </c>
     </row>
     <row r="172" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="36"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="34"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="45"/>
       <c r="E172" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G172" s="32"/>
+      <c r="G172" s="44"/>
       <c r="H172" s="7">
         <v>0</v>
       </c>
@@ -5709,13 +5885,13 @@
       </c>
     </row>
     <row r="173" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B173" s="43" t="s">
+      <c r="B173" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C173" s="44"/>
-      <c r="D173" s="44"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="45"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="40"/>
       <c r="G173" s="26">
         <f>SUM(G142:G172)</f>
         <v>176</v>
@@ -5737,19 +5913,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="2:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="51" t="s">
+    <row r="176" spans="2:11" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C176" s="52"/>
-      <c r="D176" s="52"/>
-      <c r="E176" s="52"/>
-      <c r="F176" s="52"/>
-      <c r="G176" s="52"/>
-      <c r="H176" s="52"/>
-      <c r="I176" s="52"/>
-      <c r="J176" s="52"/>
-      <c r="K176" s="52"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
@@ -5763,7 +5939,7 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B178" s="15" t="s">
         <v>0</v>
       </c>
@@ -5796,13 +5972,13 @@
       </c>
     </row>
     <row r="179" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="56" t="s">
+      <c r="B179" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C179" s="33" t="s">
+      <c r="C179" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D179" s="33" t="s">
+      <c r="D179" s="43" t="s">
         <v>109</v>
       </c>
       <c r="E179" s="19" t="s">
@@ -5811,7 +5987,7 @@
       <c r="F179" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="33">
+      <c r="G179" s="43">
         <v>140</v>
       </c>
       <c r="H179" s="7">
@@ -5828,16 +6004,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B180" s="41"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="32"/>
+      <c r="B180" s="49"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="44"/>
       <c r="E180" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="32"/>
+      <c r="G180" s="44"/>
       <c r="H180" s="7">
         <v>3.12</v>
       </c>
@@ -5852,16 +6028,16 @@
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B181" s="41"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
+      <c r="B181" s="49"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
       <c r="E181" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="32"/>
+      <c r="G181" s="44"/>
       <c r="H181" s="7">
         <v>3.12</v>
       </c>
@@ -5876,16 +6052,16 @@
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B182" s="41"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="37"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="46"/>
       <c r="E182" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G182" s="32"/>
+      <c r="G182" s="44"/>
       <c r="H182" s="7">
         <v>3.12</v>
       </c>
@@ -5900,9 +6076,9 @@
       </c>
     </row>
     <row r="183" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="41"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="33" t="s">
+      <c r="B183" s="49"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="43" t="s">
         <v>125</v>
       </c>
       <c r="E183" s="19" t="s">
@@ -5911,7 +6087,7 @@
       <c r="F183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G183" s="32"/>
+      <c r="G183" s="44"/>
       <c r="H183" s="7">
         <v>0</v>
       </c>
@@ -5926,16 +6102,16 @@
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B184" s="41"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="37"/>
+      <c r="B184" s="49"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="46"/>
       <c r="E184" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G184" s="32"/>
+      <c r="G184" s="44"/>
       <c r="H184" s="7">
         <v>0</v>
       </c>
@@ -5950,9 +6126,9 @@
       </c>
     </row>
     <row r="185" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="41"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="33" t="s">
+      <c r="B185" s="49"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="43" t="s">
         <v>133</v>
       </c>
       <c r="E185" s="19" t="s">
@@ -5961,7 +6137,7 @@
       <c r="F185" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G185" s="32"/>
+      <c r="G185" s="44"/>
       <c r="H185" s="7">
         <v>0</v>
       </c>
@@ -5976,16 +6152,16 @@
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B186" s="41"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
+      <c r="B186" s="49"/>
+      <c r="C186" s="44"/>
+      <c r="D186" s="44"/>
       <c r="E186" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G186" s="32"/>
+      <c r="G186" s="44"/>
       <c r="H186" s="7">
         <v>0</v>
       </c>
@@ -6000,16 +6176,16 @@
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B187" s="41"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
+      <c r="B187" s="49"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
       <c r="E187" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G187" s="32"/>
+      <c r="G187" s="44"/>
       <c r="H187" s="7">
         <v>0</v>
       </c>
@@ -6024,16 +6200,16 @@
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B188" s="41"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="44"/>
+      <c r="D188" s="44"/>
       <c r="E188" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G188" s="32"/>
+      <c r="G188" s="44"/>
       <c r="H188" s="7">
         <v>0</v>
       </c>
@@ -6048,16 +6224,16 @@
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B189" s="41"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
+      <c r="B189" s="49"/>
+      <c r="C189" s="44"/>
+      <c r="D189" s="44"/>
       <c r="E189" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G189" s="32"/>
+      <c r="G189" s="44"/>
       <c r="H189" s="7">
         <v>0</v>
       </c>
@@ -6072,16 +6248,16 @@
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B190" s="41"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
+      <c r="B190" s="49"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="44"/>
       <c r="E190" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="32"/>
+      <c r="G190" s="44"/>
       <c r="H190" s="7">
         <v>0</v>
       </c>
@@ -6096,16 +6272,16 @@
       </c>
     </row>
     <row r="191" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="42"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34"/>
+      <c r="B191" s="50"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="45"/>
       <c r="E191" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G191" s="34"/>
+      <c r="G191" s="45"/>
       <c r="H191" s="7">
         <v>0</v>
       </c>
@@ -6119,405 +6295,445 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B192" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D192" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E192" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" s="32">
-        <v>40</v>
-      </c>
-      <c r="H192" s="7">
-        <v>0</v>
-      </c>
-      <c r="I192" s="7">
-        <v>0</v>
-      </c>
-      <c r="J192" s="7">
-        <v>1</v>
-      </c>
-      <c r="K192" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B193" s="41"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" s="32"/>
-      <c r="H193" s="7">
-        <v>0</v>
-      </c>
-      <c r="I193" s="7">
-        <v>0</v>
-      </c>
-      <c r="J193" s="7">
-        <v>1</v>
-      </c>
-      <c r="K193" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B194" s="41"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G194" s="32"/>
-      <c r="H194" s="7">
-        <v>0</v>
-      </c>
-      <c r="I194" s="7">
-        <v>0</v>
-      </c>
-      <c r="J194" s="7">
-        <v>1</v>
-      </c>
-      <c r="K194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B195" s="41"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="37"/>
-      <c r="E195" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G195" s="32"/>
-      <c r="H195" s="7">
-        <v>0</v>
-      </c>
-      <c r="I195" s="7">
-        <v>0</v>
-      </c>
-      <c r="J195" s="7">
-        <v>1</v>
-      </c>
-      <c r="K195" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B196" s="41"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E196" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G196" s="32"/>
-      <c r="H196" s="7">
-        <v>0</v>
-      </c>
-      <c r="I196" s="7">
-        <v>0</v>
-      </c>
-      <c r="J196" s="7">
-        <v>0</v>
-      </c>
-      <c r="K196" s="7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B197" s="41"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="7">
-        <v>0</v>
-      </c>
-      <c r="I197" s="7">
-        <v>0</v>
-      </c>
-      <c r="J197" s="7">
-        <v>0</v>
-      </c>
-      <c r="K197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B198" s="41"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E198" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" s="32"/>
-      <c r="H198" s="7">
-        <v>0</v>
-      </c>
-      <c r="I198" s="7">
-        <v>0</v>
-      </c>
-      <c r="J198" s="7">
-        <v>0</v>
-      </c>
-      <c r="K198" s="7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B199" s="41"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="37"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="32"/>
-      <c r="H199" s="7">
-        <v>0</v>
-      </c>
-      <c r="I199" s="7">
-        <v>0</v>
-      </c>
-      <c r="J199" s="7">
-        <v>0</v>
-      </c>
-      <c r="K199" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B200" s="41"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E200" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" s="32"/>
-      <c r="H200" s="7">
-        <v>0</v>
-      </c>
-      <c r="I200" s="7">
-        <v>0</v>
-      </c>
-      <c r="J200" s="7">
-        <v>0</v>
-      </c>
-      <c r="K200" s="7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B201" s="41"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="37"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="32"/>
-      <c r="H201" s="7">
-        <v>0</v>
-      </c>
-      <c r="I201" s="7">
-        <v>0</v>
-      </c>
-      <c r="J201" s="7">
-        <v>0</v>
-      </c>
-      <c r="K201" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B202" s="41"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="33" t="s">
+    <row r="192" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B192" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C192" s="39"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="26">
+        <f ca="1">SUM(G179:G196)</f>
         <v>140</v>
       </c>
-      <c r="E202" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G202" s="32"/>
-      <c r="H202" s="7">
-        <v>0</v>
-      </c>
-      <c r="I202" s="7">
-        <v>0</v>
-      </c>
-      <c r="J202" s="7">
-        <v>0</v>
-      </c>
-      <c r="K202" s="7">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="41"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="32"/>
-      <c r="H203" s="7">
-        <v>0</v>
-      </c>
-      <c r="I203" s="7">
-        <v>0</v>
-      </c>
-      <c r="J203" s="7">
-        <v>0</v>
-      </c>
-      <c r="K203" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B204" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C204" s="44"/>
-      <c r="D204" s="44"/>
-      <c r="E204" s="44"/>
-      <c r="F204" s="45"/>
-      <c r="G204" s="26">
-        <f>SUM(G179:G203)</f>
-        <v>180</v>
-      </c>
-      <c r="H204" s="26">
+      <c r="H192" s="26">
         <f>SUM(H179:H191)</f>
         <v>12.48</v>
       </c>
-      <c r="I204" s="26">
+      <c r="I192" s="26">
         <f>SUM(I179:I191)</f>
         <v>6.24</v>
       </c>
-      <c r="J204" s="26">
-        <f>SUM(J179:J203)</f>
-        <v>39</v>
-      </c>
-      <c r="K204" s="9">
-        <f>SUM(K179:K203)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" ht="23.05" x14ac:dyDescent="0.3">
-      <c r="B208" s="51" t="s">
+      <c r="J192" s="26">
+        <f ca="1">SUM(J179:J196)</f>
+        <v>35</v>
+      </c>
+      <c r="K192" s="9">
+        <f ca="1">SUM(K179:K196)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B195" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C208" s="52"/>
-      <c r="D208" s="52"/>
-      <c r="E208" s="52"/>
-      <c r="F208" s="52"/>
-      <c r="G208" s="52"/>
-      <c r="H208" s="52"/>
-      <c r="I208" s="52"/>
-      <c r="J208" s="52"/>
-      <c r="K208" s="52"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="42"/>
+      <c r="E195" s="42"/>
+      <c r="F195" s="42"/>
+      <c r="G195" s="42"/>
+      <c r="H195" s="42"/>
+      <c r="I195" s="42"/>
+      <c r="J195" s="42"/>
+      <c r="K195" s="42"/>
+    </row>
+    <row r="197" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="B197" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" s="28">
+        <v>45307</v>
+      </c>
+      <c r="I197" s="28">
+        <v>45308</v>
+      </c>
+      <c r="J197" s="28">
+        <v>45309</v>
+      </c>
+      <c r="K197" s="28">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B198" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G198" s="27">
+        <v>75</v>
+      </c>
+      <c r="H198" s="7">
+        <v>5</v>
+      </c>
+      <c r="I198" s="7">
+        <v>0</v>
+      </c>
+      <c r="J198" s="7">
+        <v>0</v>
+      </c>
+      <c r="K198" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G199" s="31"/>
+      <c r="H199" s="7">
+        <v>10</v>
+      </c>
+      <c r="I199" s="7">
+        <v>5</v>
+      </c>
+      <c r="J199" s="7">
+        <v>10</v>
+      </c>
+      <c r="K199" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G200" s="17"/>
+      <c r="H200" s="7">
+        <v>10</v>
+      </c>
+      <c r="I200" s="7">
+        <v>5</v>
+      </c>
+      <c r="J200" s="7">
+        <v>5</v>
+      </c>
+      <c r="K200" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B201" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E201" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G201" s="27">
+        <v>50</v>
+      </c>
+      <c r="H201" s="7">
+        <v>1</v>
+      </c>
+      <c r="I201" s="7">
+        <v>0</v>
+      </c>
+      <c r="J201" s="7">
+        <v>0</v>
+      </c>
+      <c r="K201" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B202" s="33"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G202" s="31"/>
+      <c r="H202" s="7">
+        <v>1</v>
+      </c>
+      <c r="I202" s="7">
+        <v>0</v>
+      </c>
+      <c r="J202" s="7">
+        <v>0</v>
+      </c>
+      <c r="K202" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B203" s="33"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G203" s="31"/>
+      <c r="H203" s="7">
+        <v>1</v>
+      </c>
+      <c r="I203" s="7">
+        <v>0</v>
+      </c>
+      <c r="J203" s="7">
+        <v>0</v>
+      </c>
+      <c r="K203" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B204" s="33"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E204" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G204" s="31"/>
+      <c r="H204" s="7">
+        <v>10</v>
+      </c>
+      <c r="I204" s="7">
+        <v>0</v>
+      </c>
+      <c r="J204" s="7">
+        <v>0</v>
+      </c>
+      <c r="K204" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B205" s="33"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G205" s="31"/>
+      <c r="H205" s="7">
+        <v>10</v>
+      </c>
+      <c r="I205" s="7">
+        <v>0</v>
+      </c>
+      <c r="J205" s="7">
+        <v>0</v>
+      </c>
+      <c r="K205" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B206" s="33"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E206" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G206" s="31"/>
+      <c r="H206" s="7">
+        <v>10</v>
+      </c>
+      <c r="I206" s="7">
+        <v>5</v>
+      </c>
+      <c r="J206" s="7">
+        <v>0</v>
+      </c>
+      <c r="K206" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B207" s="33"/>
+      <c r="C207" s="31"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G207" s="31"/>
+      <c r="H207" s="7">
+        <v>10</v>
+      </c>
+      <c r="I207" s="7">
+        <v>0</v>
+      </c>
+      <c r="J207" s="7">
+        <v>0</v>
+      </c>
+      <c r="K207" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="33"/>
+      <c r="C208" s="31"/>
+      <c r="D208" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E208" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G208" s="31"/>
+      <c r="H208" s="7">
+        <v>0</v>
+      </c>
+      <c r="I208" s="7">
+        <v>0</v>
+      </c>
+      <c r="J208" s="7">
+        <v>0</v>
+      </c>
+      <c r="K208" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-    </row>
-    <row r="210" spans="2:11" ht="35.75" x14ac:dyDescent="0.3">
-      <c r="B210" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E210" s="15" t="s">
+      <c r="B209" s="34"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G209" s="17"/>
+      <c r="H209" s="7">
+        <v>0</v>
+      </c>
+      <c r="I209" s="7">
+        <v>0</v>
+      </c>
+      <c r="J209" s="7">
+        <v>0</v>
+      </c>
+      <c r="K209" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B210" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C210" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E210" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G210" s="43">
+        <v>50</v>
+      </c>
+      <c r="H210" s="7">
         <v>5</v>
       </c>
-      <c r="F210" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G210" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H210" s="28">
-        <v>45307</v>
-      </c>
-      <c r="I210" s="28">
-        <v>45308</v>
-      </c>
-      <c r="J210" s="28">
-        <v>45309</v>
-      </c>
-      <c r="K210" s="28">
-        <v>45310</v>
-      </c>
-    </row>
-    <row r="211" spans="2:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C211" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D211" s="19" t="s">
-        <v>156</v>
+      <c r="I210" s="7">
+        <v>0</v>
+      </c>
+      <c r="J210" s="7">
+        <v>0</v>
+      </c>
+      <c r="K210" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="65"/>
+      <c r="C211" s="44"/>
+      <c r="D211" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="E211" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G211" s="33">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G211" s="44"/>
       <c r="H211" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I211" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J211" s="7">
         <v>0</v>
@@ -6527,605 +6743,537 @@
       </c>
     </row>
     <row r="212" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="19" t="s">
-        <v>158</v>
-      </c>
+      <c r="B212" s="65"/>
+      <c r="C212" s="44"/>
+      <c r="D212" s="44"/>
       <c r="E212" s="19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G212" s="32"/>
+        <v>151</v>
+      </c>
+      <c r="G212" s="44"/>
       <c r="H212" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I212" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J212" s="7">
         <v>10</v>
       </c>
       <c r="K212" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="2:11" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="37"/>
-      <c r="C213" s="37"/>
-      <c r="D213" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="B213" s="65"/>
+      <c r="C213" s="44"/>
+      <c r="D213" s="46"/>
       <c r="E213" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G213" s="37"/>
+        <v>151</v>
+      </c>
+      <c r="G213" s="44"/>
       <c r="H213" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I213" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J213" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K213" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="214" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C214" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D214" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E214" s="19" t="s">
+      <c r="B214" s="65"/>
+      <c r="C214" s="44"/>
+      <c r="D214" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E214" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G214" s="44"/>
+      <c r="H214" s="7">
+        <v>0</v>
+      </c>
+      <c r="I214" s="7">
+        <v>0</v>
+      </c>
+      <c r="J214" s="7">
+        <v>10</v>
+      </c>
+      <c r="K214" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B215" s="65"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E215" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G215" s="44"/>
+      <c r="H215" s="7">
+        <v>0</v>
+      </c>
+      <c r="I215" s="7">
+        <v>10</v>
+      </c>
+      <c r="J215" s="7">
+        <v>0</v>
+      </c>
+      <c r="K215" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="65"/>
+      <c r="C216" s="44"/>
+      <c r="D216" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E216" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G216" s="46"/>
+      <c r="H216" s="7">
+        <v>5</v>
+      </c>
+      <c r="I216" s="7">
+        <v>0</v>
+      </c>
+      <c r="J216" s="7">
+        <v>0</v>
+      </c>
+      <c r="K216" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B217" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C217" s="38"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="38"/>
+      <c r="F217" s="40"/>
+      <c r="G217" s="26">
+        <f>SUM(G198:G216)</f>
+        <v>175</v>
+      </c>
+      <c r="H217" s="26">
+        <f>SUM(H198:H216)</f>
+        <v>78</v>
+      </c>
+      <c r="I217" s="26">
+        <f>SUM(I198:I215)</f>
+        <v>35</v>
+      </c>
+      <c r="J217" s="26">
+        <f>SUM(J198:J216)</f>
+        <v>35</v>
+      </c>
+      <c r="K217" s="9">
+        <f>SUM(K198:K216)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B220" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C220" s="42"/>
+      <c r="D220" s="42"/>
+      <c r="E220" s="42"/>
+      <c r="F220" s="42"/>
+      <c r="G220" s="42"/>
+      <c r="H220" s="42"/>
+      <c r="I220" s="42"/>
+      <c r="J220" s="42"/>
+      <c r="K220" s="42"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+    </row>
+    <row r="222" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="B222" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F222" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" s="28">
+        <v>45314</v>
+      </c>
+      <c r="I222" s="28">
+        <v>45315</v>
+      </c>
+      <c r="J222" s="28">
+        <v>45316</v>
+      </c>
+      <c r="K222" s="28">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B223" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C223" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G223" s="43">
+        <v>40</v>
+      </c>
+      <c r="H223" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I223" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J223" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K223" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B224" s="44"/>
+      <c r="C224" s="44"/>
+      <c r="D224" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E224" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F214" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G214" s="33">
-        <v>50</v>
-      </c>
-      <c r="H214" s="7">
-        <v>1</v>
-      </c>
-      <c r="I214" s="7">
-        <v>0</v>
-      </c>
-      <c r="J214" s="7">
-        <v>0</v>
-      </c>
-      <c r="K214" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B215" s="39"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="19" t="s">
+      <c r="F224" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G224" s="44"/>
+      <c r="H224" s="7">
+        <v>0</v>
+      </c>
+      <c r="I224" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J224" s="7">
+        <v>0</v>
+      </c>
+      <c r="K224" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B225" s="44"/>
+      <c r="C225" s="44"/>
+      <c r="D225" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E225" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F215" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G215" s="32"/>
-      <c r="H215" s="7">
-        <v>1</v>
-      </c>
-      <c r="I215" s="7">
-        <v>0</v>
-      </c>
-      <c r="J215" s="7">
-        <v>0</v>
-      </c>
-      <c r="K215" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B216" s="39"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="19" t="s">
+      <c r="F225" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G225" s="44"/>
+      <c r="H225" s="7">
+        <v>0</v>
+      </c>
+      <c r="I225" s="7">
+        <v>0</v>
+      </c>
+      <c r="J225" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K225" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B226" s="44"/>
+      <c r="C226" s="44"/>
+      <c r="D226" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E226" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F216" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G216" s="32"/>
-      <c r="H216" s="7">
-        <v>1</v>
-      </c>
-      <c r="I216" s="7">
-        <v>0</v>
-      </c>
-      <c r="J216" s="7">
-        <v>0</v>
-      </c>
-      <c r="K216" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B217" s="39"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E217" s="29" t="s">
+      <c r="F226" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G226" s="44"/>
+      <c r="H226" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="I226" s="7">
+        <v>0</v>
+      </c>
+      <c r="J226" s="7">
+        <v>0</v>
+      </c>
+      <c r="K226" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="44"/>
+      <c r="C227" s="44"/>
+      <c r="D227" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E227" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F217" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G217" s="32"/>
-      <c r="H217" s="7">
+      <c r="F227" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G227" s="44"/>
+      <c r="H227" s="7">
+        <v>0</v>
+      </c>
+      <c r="I227" s="7">
+        <v>0</v>
+      </c>
+      <c r="J227" s="7">
+        <v>5</v>
+      </c>
+      <c r="K227" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="B228" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C228" s="38"/>
+      <c r="D228" s="39"/>
+      <c r="E228" s="38"/>
+      <c r="F228" s="40"/>
+      <c r="G228" s="26">
+        <f>SUM(G223:G227)</f>
+        <v>40</v>
+      </c>
+      <c r="H228" s="26">
+        <f>SUM(H223:H227)</f>
         <v>10</v>
       </c>
-      <c r="I217" s="7">
-        <v>0</v>
-      </c>
-      <c r="J217" s="7">
-        <v>0</v>
-      </c>
-      <c r="K217" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B218" s="39"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G218" s="32"/>
-      <c r="H218" s="7">
+      <c r="I228" s="26">
+        <f>SUM(I223:I227)</f>
         <v>10</v>
       </c>
-      <c r="I218" s="7">
-        <v>0</v>
-      </c>
-      <c r="J218" s="7">
-        <v>0</v>
-      </c>
-      <c r="K218" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B219" s="39"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="33" t="s">
+      <c r="J228" s="26">
+        <f>SUM(J223:J227)</f>
+        <v>10</v>
+      </c>
+      <c r="K228" s="9">
+        <f>SUM(K223:K227)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="2:25" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B231" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C231" s="42"/>
+      <c r="D231" s="42"/>
+      <c r="E231" s="42"/>
+      <c r="F231" s="42"/>
+      <c r="G231" s="42"/>
+      <c r="H231" s="42"/>
+      <c r="I231" s="42"/>
+      <c r="J231" s="42"/>
+      <c r="K231" s="42"/>
+    </row>
+    <row r="233" spans="2:25" ht="36" x14ac:dyDescent="0.3">
+      <c r="B233" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E233" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F233" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" s="28">
+        <v>45314</v>
+      </c>
+      <c r="I233" s="28">
+        <v>45315</v>
+      </c>
+      <c r="J233" s="28">
+        <v>45316</v>
+      </c>
+      <c r="K233" s="28">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="234" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B234" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C234" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E219" s="27" t="s">
+      <c r="G234" s="43">
+        <v>200</v>
+      </c>
+      <c r="H234" s="7">
+        <v>20</v>
+      </c>
+      <c r="I234" s="7">
+        <v>20</v>
+      </c>
+      <c r="J234" s="7">
+        <v>0</v>
+      </c>
+      <c r="K234" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:25" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="44"/>
+      <c r="C235" s="44"/>
+      <c r="D235" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E235" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G235" s="44"/>
+      <c r="H235" s="7">
+        <v>0</v>
+      </c>
+      <c r="I235" s="7">
+        <v>20</v>
+      </c>
+      <c r="J235" s="7">
+        <v>0</v>
+      </c>
+      <c r="K235" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B236" s="44"/>
+      <c r="C236" s="44"/>
+      <c r="D236" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E236" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F219" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G219" s="32"/>
-      <c r="H219" s="7">
-        <v>10</v>
-      </c>
-      <c r="I219" s="7">
-        <v>5</v>
-      </c>
-      <c r="J219" s="7">
-        <v>0</v>
-      </c>
-      <c r="K219" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B220" s="39"/>
-      <c r="C220" s="32"/>
-      <c r="D220" s="37"/>
-      <c r="E220" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G220" s="32"/>
-      <c r="H220" s="7">
-        <v>10</v>
-      </c>
-      <c r="I220" s="7">
-        <v>0</v>
-      </c>
-      <c r="J220" s="7">
-        <v>0</v>
-      </c>
-      <c r="K220" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B221" s="39"/>
-      <c r="C221" s="32"/>
-      <c r="D221" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E221" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G221" s="32"/>
-      <c r="H221" s="7">
-        <v>0</v>
-      </c>
-      <c r="I221" s="7">
-        <v>0</v>
-      </c>
-      <c r="J221" s="7">
-        <v>0</v>
-      </c>
-      <c r="K221" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B222" s="40"/>
-      <c r="C222" s="37"/>
-      <c r="D222" s="37"/>
-      <c r="E222" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G222" s="37"/>
-      <c r="H222" s="7">
-        <v>0</v>
-      </c>
-      <c r="I222" s="7">
-        <v>0</v>
-      </c>
-      <c r="J222" s="7">
-        <v>0</v>
-      </c>
-      <c r="K222" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B223" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C223" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D223" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E223" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G223" s="33">
-        <v>50</v>
-      </c>
-      <c r="H223" s="7">
-        <v>5</v>
-      </c>
-      <c r="I223" s="7">
-        <v>0</v>
-      </c>
-      <c r="J223" s="7">
-        <v>0</v>
-      </c>
-      <c r="K223" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B224" s="39"/>
-      <c r="C224" s="32"/>
-      <c r="D224" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G224" s="32"/>
-      <c r="H224" s="7">
-        <v>0</v>
-      </c>
-      <c r="I224" s="7">
-        <v>10</v>
-      </c>
-      <c r="J224" s="7">
-        <v>0</v>
-      </c>
-      <c r="K224" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B225" s="39"/>
-      <c r="C225" s="32"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G225" s="32"/>
-      <c r="H225" s="7">
-        <v>0</v>
-      </c>
-      <c r="I225" s="7">
-        <v>0</v>
-      </c>
-      <c r="J225" s="7">
-        <v>10</v>
-      </c>
-      <c r="K225" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B226" s="39"/>
-      <c r="C226" s="32"/>
-      <c r="D226" s="37"/>
-      <c r="E226" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G226" s="32"/>
-      <c r="H226" s="7">
-        <v>0</v>
-      </c>
-      <c r="I226" s="7">
-        <v>0</v>
-      </c>
-      <c r="J226" s="7">
-        <v>0</v>
-      </c>
-      <c r="K226" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B227" s="39"/>
-      <c r="C227" s="32"/>
-      <c r="D227" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E227" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G227" s="32"/>
-      <c r="H227" s="7">
-        <v>0</v>
-      </c>
-      <c r="I227" s="7">
-        <v>0</v>
-      </c>
-      <c r="J227" s="7">
-        <v>10</v>
-      </c>
-      <c r="K227" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B228" s="39"/>
-      <c r="C228" s="32"/>
-      <c r="D228" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E228" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G228" s="32"/>
-      <c r="H228" s="7">
-        <v>0</v>
-      </c>
-      <c r="I228" s="7">
-        <v>10</v>
-      </c>
-      <c r="J228" s="7">
-        <v>0</v>
-      </c>
-      <c r="K228" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="39"/>
-      <c r="C229" s="32"/>
-      <c r="D229" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E229" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G229" s="37"/>
-      <c r="H229" s="7">
-        <v>5</v>
-      </c>
-      <c r="I229" s="7">
-        <v>0</v>
-      </c>
-      <c r="J229" s="7">
-        <v>0</v>
-      </c>
-      <c r="K229" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="2:12" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B230" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C230" s="58"/>
-      <c r="D230" s="44"/>
-      <c r="E230" s="58"/>
-      <c r="F230" s="45"/>
-      <c r="G230" s="26">
-        <f>SUM(G211:G229)</f>
-        <v>175</v>
-      </c>
-      <c r="H230" s="26">
-        <f>SUM(H211:H229)</f>
-        <v>78</v>
-      </c>
-      <c r="I230" s="26">
-        <f>SUM(I211:I228)</f>
-        <v>35</v>
-      </c>
-      <c r="J230" s="26">
-        <f>SUM(J211:J229)</f>
-        <v>35</v>
-      </c>
-      <c r="K230" s="9">
-        <f>SUM(K211:K229)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="2:12" ht="23.05" x14ac:dyDescent="0.3">
-      <c r="B233" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C233" s="52"/>
-      <c r="D233" s="52"/>
-      <c r="E233" s="52"/>
-      <c r="F233" s="52"/>
-      <c r="G233" s="52"/>
-      <c r="H233" s="52"/>
-      <c r="I233" s="52"/>
-      <c r="J233" s="52"/>
-      <c r="K233" s="52"/>
-    </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-    </row>
-    <row r="235" spans="2:12" ht="35.75" x14ac:dyDescent="0.3">
-      <c r="B235" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C235" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E235" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G235" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H235" s="28">
-        <v>45314</v>
-      </c>
-      <c r="I235" s="28">
-        <v>45315</v>
-      </c>
-      <c r="J235" s="28">
-        <v>45316</v>
-      </c>
-      <c r="K235" s="28">
-        <v>45317</v>
-      </c>
-    </row>
-    <row r="236" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B236" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C236" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="D236" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E236" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="F236" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G236" s="33">
-        <v>200</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G236" s="44"/>
       <c r="H236" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I236" s="7">
         <v>0</v>
       </c>
       <c r="J236" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K236" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B237" s="32"/>
-      <c r="C237" s="32"/>
+      <c r="P236" s="62"/>
+      <c r="Q236" s="63"/>
+      <c r="R236" s="63"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="63"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
+      <c r="Y236" s="3"/>
+    </row>
+    <row r="237" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B237" s="44"/>
+      <c r="C237" s="44"/>
       <c r="D237" s="19" t="s">
         <v>169</v>
       </c>
       <c r="E237" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G237" s="32"/>
+        <v>151</v>
+      </c>
+      <c r="G237" s="44"/>
       <c r="H237" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I237" s="7">
         <v>0</v>
@@ -7134,12 +7282,21 @@
         <v>0</v>
       </c>
       <c r="K237" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B238" s="32"/>
-      <c r="C238" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="P237" s="62"/>
+      <c r="Q237" s="63"/>
+      <c r="R237" s="63"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="63"/>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+      <c r="Y237" s="3"/>
+    </row>
+    <row r="238" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B238" s="44"/>
+      <c r="C238" s="44"/>
       <c r="D238" s="19" t="s">
         <v>171</v>
       </c>
@@ -7147,9 +7304,9 @@
         <v>11</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G238" s="32"/>
+        <v>151</v>
+      </c>
+      <c r="G238" s="44"/>
       <c r="H238" s="7">
         <v>30</v>
       </c>
@@ -7157,145 +7314,704 @@
         <v>0</v>
       </c>
       <c r="J238" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K238" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B239" s="32"/>
-      <c r="C239" s="32"/>
+      <c r="P238" s="62"/>
+      <c r="Q238" s="63"/>
+      <c r="R238" s="63"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="63"/>
+      <c r="V238" s="3"/>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
+      <c r="Y238" s="3"/>
+    </row>
+    <row r="239" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B239" s="46"/>
+      <c r="C239" s="46"/>
       <c r="D239" s="19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E239" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G239" s="46"/>
+      <c r="H239" s="7">
+        <v>0</v>
+      </c>
+      <c r="I239" s="7">
+        <v>10</v>
+      </c>
+      <c r="J239" s="7">
+        <v>30</v>
+      </c>
+      <c r="K239" s="7">
+        <v>0</v>
+      </c>
+      <c r="P239" s="62"/>
+      <c r="Q239" s="63"/>
+      <c r="R239" s="63"/>
+      <c r="S239" s="29"/>
+      <c r="T239" s="3"/>
+      <c r="U239" s="63"/>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
+      <c r="Y239" s="3"/>
+    </row>
+    <row r="240" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="B240" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C240" s="38"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="38"/>
+      <c r="F240" s="40"/>
+      <c r="G240" s="26">
+        <f>SUM(G234:G239)</f>
+        <v>200</v>
+      </c>
+      <c r="H240" s="26">
+        <f>SUM(H234:H239)</f>
+        <v>50</v>
+      </c>
+      <c r="I240" s="26">
+        <f>SUM(I234:I239)</f>
+        <v>50</v>
+      </c>
+      <c r="J240" s="26">
+        <f>SUM(J234:J239)</f>
+        <v>60</v>
+      </c>
+      <c r="K240" s="9">
+        <f>SUM(K234:K239)</f>
+        <v>40</v>
+      </c>
+      <c r="L240" s="25"/>
+      <c r="P240" s="62"/>
+      <c r="Q240" s="63"/>
+      <c r="R240" s="63"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="63"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+      <c r="Y240" s="3"/>
+    </row>
+    <row r="241" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="P241" s="62"/>
+      <c r="Q241" s="63"/>
+      <c r="R241" s="63"/>
+      <c r="S241" s="29"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="63"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+      <c r="Y241" s="3"/>
+    </row>
+    <row r="242" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="P242" s="62"/>
+      <c r="Q242" s="63"/>
+      <c r="R242" s="63"/>
+      <c r="S242" s="29"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="63"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+      <c r="Y242" s="3"/>
+    </row>
+    <row r="243" spans="2:25" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B243" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C243" s="42"/>
+      <c r="D243" s="42"/>
+      <c r="E243" s="42"/>
+      <c r="F243" s="42"/>
+      <c r="G243" s="42"/>
+      <c r="H243" s="42"/>
+      <c r="I243" s="42"/>
+      <c r="J243" s="42"/>
+      <c r="K243" s="42"/>
+      <c r="P243" s="62"/>
+      <c r="Q243" s="63"/>
+      <c r="R243" s="63"/>
+      <c r="S243" s="29"/>
+      <c r="T243" s="3"/>
+      <c r="U243" s="63"/>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
+      <c r="Y243" s="3"/>
+    </row>
+    <row r="244" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+      <c r="P244" s="62"/>
+      <c r="Q244" s="63"/>
+      <c r="R244" s="63"/>
+      <c r="S244" s="29"/>
+      <c r="T244" s="3"/>
+      <c r="U244" s="63"/>
+      <c r="V244" s="3"/>
+      <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
+      <c r="Y244" s="3"/>
+    </row>
+    <row r="245" spans="2:25" ht="36" x14ac:dyDescent="0.3">
+      <c r="B245" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" s="28">
+        <v>45314</v>
+      </c>
+      <c r="I245" s="28">
+        <v>45315</v>
+      </c>
+      <c r="J245" s="28">
+        <v>45316</v>
+      </c>
+      <c r="K245" s="28">
+        <v>45317</v>
+      </c>
+      <c r="P245" s="62"/>
+      <c r="Q245" s="63"/>
+      <c r="R245" s="63"/>
+      <c r="S245" s="29"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="63"/>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
+      <c r="Y245" s="3"/>
+    </row>
+    <row r="246" spans="2:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C246" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D246" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E246" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G246" s="43">
+        <v>90</v>
+      </c>
+      <c r="H246" s="7">
+        <v>15</v>
+      </c>
+      <c r="I246" s="7">
+        <v>0</v>
+      </c>
+      <c r="J246" s="7">
+        <v>0</v>
+      </c>
+      <c r="K246" s="7">
+        <v>0</v>
+      </c>
+      <c r="P246" s="62"/>
+      <c r="Q246" s="63"/>
+      <c r="R246" s="63"/>
+      <c r="S246" s="29"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="63"/>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+      <c r="Y246" s="3"/>
+    </row>
+    <row r="247" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B247" s="44"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E247" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G247" s="44"/>
+      <c r="H247" s="7">
+        <v>0</v>
+      </c>
+      <c r="I247" s="7">
+        <v>15</v>
+      </c>
+      <c r="J247" s="7">
+        <v>0</v>
+      </c>
+      <c r="K247" s="7">
+        <v>0</v>
+      </c>
+      <c r="P247" s="62"/>
+      <c r="Q247" s="63"/>
+      <c r="R247" s="63"/>
+      <c r="S247" s="29"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="63"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+      <c r="Y247" s="3"/>
+    </row>
+    <row r="248" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B248" s="44"/>
+      <c r="C248" s="44"/>
+      <c r="D248" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E248" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G248" s="44"/>
+      <c r="H248" s="7">
+        <v>0</v>
+      </c>
+      <c r="I248" s="7">
+        <v>0</v>
+      </c>
+      <c r="J248" s="7">
+        <v>15</v>
+      </c>
+      <c r="K248" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B249" s="44"/>
+      <c r="C249" s="44"/>
+      <c r="D249" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E249" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F239" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G239" s="32"/>
-      <c r="H239" s="7">
+      <c r="F249" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G249" s="44"/>
+      <c r="H249" s="7">
+        <v>0</v>
+      </c>
+      <c r="I249" s="7">
+        <v>0</v>
+      </c>
+      <c r="J249" s="7">
+        <v>0</v>
+      </c>
+      <c r="K249" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B250" s="44"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E250" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G250" s="44"/>
+      <c r="H250" s="7">
+        <v>0</v>
+      </c>
+      <c r="I250" s="7">
+        <v>0</v>
+      </c>
+      <c r="J250" s="7">
+        <v>15</v>
+      </c>
+      <c r="K250" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B251" s="46"/>
+      <c r="C251" s="46"/>
+      <c r="D251" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E251" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G251" s="46"/>
+      <c r="H251" s="7">
+        <v>0</v>
+      </c>
+      <c r="I251" s="7">
+        <v>15</v>
+      </c>
+      <c r="J251" s="7">
+        <v>0</v>
+      </c>
+      <c r="K251" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="B252" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C252" s="38"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="38"/>
+      <c r="F252" s="40"/>
+      <c r="G252" s="26">
+        <f>SUM(G246:G251)</f>
+        <v>90</v>
+      </c>
+      <c r="H252" s="26">
+        <f>SUM(H246:H251)</f>
+        <v>15</v>
+      </c>
+      <c r="I252" s="26">
+        <f>SUM(I246:I251)</f>
         <v>30</v>
       </c>
-      <c r="I239" s="7">
-        <v>0</v>
-      </c>
-      <c r="J239" s="7">
-        <v>0</v>
-      </c>
-      <c r="K239" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B240" s="32"/>
-      <c r="C240" s="32"/>
-      <c r="D240" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E240" s="19" t="s">
+      <c r="J252" s="26">
+        <f>SUM(J246:J251)</f>
+        <v>30</v>
+      </c>
+      <c r="K252" s="9">
+        <f>SUM(K246:K251)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="2:25" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B255" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C255" s="42"/>
+      <c r="D255" s="42"/>
+      <c r="E255" s="42"/>
+      <c r="F255" s="42"/>
+      <c r="G255" s="42"/>
+      <c r="H255" s="42"/>
+      <c r="I255" s="42"/>
+      <c r="J255" s="42"/>
+      <c r="K255" s="42"/>
+    </row>
+    <row r="256" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+    </row>
+    <row r="257" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="B257" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F257" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G257" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H257" s="28">
+        <v>45314</v>
+      </c>
+      <c r="I257" s="28">
+        <v>45315</v>
+      </c>
+      <c r="J257" s="28">
+        <v>45316</v>
+      </c>
+      <c r="K257" s="28">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C258" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D258" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E258" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G258" s="43">
+        <v>100</v>
+      </c>
+      <c r="H258" s="7">
+        <v>5</v>
+      </c>
+      <c r="I258" s="7">
+        <v>5</v>
+      </c>
+      <c r="J258" s="7">
+        <v>5</v>
+      </c>
+      <c r="K258" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B259" s="44"/>
+      <c r="C259" s="44"/>
+      <c r="D259" s="44"/>
+      <c r="E259" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G259" s="44"/>
+      <c r="H259" s="7">
+        <v>0</v>
+      </c>
+      <c r="I259" s="7">
+        <v>5</v>
+      </c>
+      <c r="J259" s="7">
+        <v>0</v>
+      </c>
+      <c r="K259" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B260" s="44"/>
+      <c r="C260" s="44"/>
+      <c r="D260" s="46"/>
+      <c r="E260" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F240" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G240" s="32"/>
-      <c r="H240" s="7">
+      <c r="F260" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G260" s="44"/>
+      <c r="H260" s="7">
+        <v>10</v>
+      </c>
+      <c r="I260" s="7">
+        <v>0</v>
+      </c>
+      <c r="J260" s="7">
+        <v>5</v>
+      </c>
+      <c r="K260" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="44"/>
+      <c r="C261" s="44"/>
+      <c r="D261" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E261" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G261" s="44"/>
+      <c r="H261" s="7">
+        <v>0</v>
+      </c>
+      <c r="I261" s="7">
+        <v>5</v>
+      </c>
+      <c r="J261" s="7">
+        <v>0</v>
+      </c>
+      <c r="K261" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="44"/>
+      <c r="C262" s="44"/>
+      <c r="D262" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E262" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G262" s="44"/>
+      <c r="H262" s="7">
+        <v>15</v>
+      </c>
+      <c r="I262" s="7">
+        <v>0</v>
+      </c>
+      <c r="J262" s="7">
+        <v>5</v>
+      </c>
+      <c r="K262" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B263" s="46"/>
+      <c r="C263" s="46"/>
+      <c r="D263" s="45"/>
+      <c r="E263" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G263" s="46"/>
+      <c r="H263" s="7">
+        <v>5</v>
+      </c>
+      <c r="I263" s="7">
+        <v>15</v>
+      </c>
+      <c r="J263" s="7">
+        <v>0</v>
+      </c>
+      <c r="K263" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C264" s="38"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="38"/>
+      <c r="F264" s="40"/>
+      <c r="G264" s="26">
+        <f>SUM(G258:G263)</f>
+        <v>100</v>
+      </c>
+      <c r="H264" s="26">
+        <f>SUM(H258:H263)</f>
+        <v>35</v>
+      </c>
+      <c r="I264" s="26">
+        <f>SUM(I258:I263)</f>
         <v>30</v>
       </c>
-      <c r="I240" s="7">
-        <v>0</v>
-      </c>
-      <c r="J240" s="7">
-        <v>0</v>
-      </c>
-      <c r="K240" s="7">
-        <v>0</v>
-      </c>
-      <c r="L240" s="25"/>
-    </row>
-    <row r="241" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="37"/>
-      <c r="C241" s="37"/>
-      <c r="D241" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E241" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G241" s="37"/>
-      <c r="H241" s="7">
-        <v>30</v>
-      </c>
-      <c r="I241" s="7">
-        <v>0</v>
-      </c>
-      <c r="J241" s="7">
-        <v>0</v>
-      </c>
-      <c r="K241" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B242" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C242" s="58"/>
-      <c r="D242" s="44"/>
-      <c r="E242" s="58"/>
-      <c r="F242" s="45"/>
-      <c r="G242" s="26">
-        <f>SUM(G236:G241)</f>
-        <v>200</v>
-      </c>
-      <c r="H242" s="26">
-        <f>SUM(H236:H241)</f>
-        <v>180</v>
-      </c>
-      <c r="I242" s="26">
-        <f>SUM(I236:I241)</f>
-        <v>0</v>
-      </c>
-      <c r="J242" s="26">
-        <f>SUM(J236:J241)</f>
-        <v>0</v>
-      </c>
-      <c r="K242" s="9">
-        <f>SUM(K236:K241)</f>
-        <v>0</v>
-      </c>
+      <c r="J264" s="26">
+        <f>SUM(J258:J263)</f>
+        <v>15</v>
+      </c>
+      <c r="K264" s="9">
+        <f>SUM(K258:K263)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="2:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" spans="2:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="J272" s="66"/>
+    </row>
+    <row r="273" spans="5:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="J273" s="66"/>
+    </row>
+    <row r="274" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J274" s="36"/>
+    </row>
+    <row r="284" spans="5:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E284" s="35"/>
+    </row>
+    <row r="285" spans="5:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E285" s="35"/>
+    </row>
+    <row r="286" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E286" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B233:K233"/>
-    <mergeCell ref="B236:B241"/>
-    <mergeCell ref="C236:C241"/>
-    <mergeCell ref="G236:G241"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="B192:B203"/>
-    <mergeCell ref="C192:C203"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="B208:K208"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="G192:G203"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="C223:C229"/>
-    <mergeCell ref="G223:G229"/>
-    <mergeCell ref="D224:D226"/>
+  <mergeCells count="139">
+    <mergeCell ref="B255:K255"/>
+    <mergeCell ref="B258:B263"/>
+    <mergeCell ref="C258:C263"/>
+    <mergeCell ref="G258:G263"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="P236:P247"/>
+    <mergeCell ref="Q236:Q247"/>
+    <mergeCell ref="R236:R239"/>
+    <mergeCell ref="R240:R241"/>
+    <mergeCell ref="R242:R243"/>
+    <mergeCell ref="R244:R245"/>
+    <mergeCell ref="R246:R247"/>
+    <mergeCell ref="B195:K195"/>
+    <mergeCell ref="U236:U247"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="G210:G216"/>
+    <mergeCell ref="D211:D213"/>
     <mergeCell ref="D118:D122"/>
     <mergeCell ref="G130:G136"/>
     <mergeCell ref="D134:D136"/>
@@ -7312,6 +8028,14 @@
     <mergeCell ref="C155:C161"/>
     <mergeCell ref="G155:G161"/>
     <mergeCell ref="D146:D149"/>
+    <mergeCell ref="D150:D154"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="B123:B129"/>
     <mergeCell ref="B75:K75"/>
     <mergeCell ref="B78:B90"/>
     <mergeCell ref="C78:C90"/>
@@ -7376,14 +8100,6 @@
     <mergeCell ref="C52:C64"/>
     <mergeCell ref="G52:G64"/>
     <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D150:D154"/>
-    <mergeCell ref="D155:D158"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="B123:B129"/>
     <mergeCell ref="C123:C129"/>
     <mergeCell ref="B142:B154"/>
     <mergeCell ref="C142:C154"/>
@@ -7397,14 +8113,24 @@
     <mergeCell ref="C162:C165"/>
     <mergeCell ref="D162:D165"/>
     <mergeCell ref="G162:G165"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="C214:C222"/>
-    <mergeCell ref="B214:B222"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="G214:G222"/>
-    <mergeCell ref="G211:G213"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B220:K220"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="C223:C227"/>
+    <mergeCell ref="B223:B227"/>
+    <mergeCell ref="G223:G227"/>
     <mergeCell ref="D185:D191"/>
+    <mergeCell ref="B243:K243"/>
+    <mergeCell ref="B246:B251"/>
+    <mergeCell ref="C246:C251"/>
+    <mergeCell ref="G246:G251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B231:K231"/>
+    <mergeCell ref="B234:B239"/>
+    <mergeCell ref="C234:C239"/>
+    <mergeCell ref="G234:G239"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B192:F192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documentacion/Sprint_Backlog.xlsx
+++ b/Documentacion/Sprint_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/173d9a5eef9a690d/Documentos/Final de los Finales Documento/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPOCH\8.OCTAVO\Apli2\Repositorio\SistemaBoletosBus\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{BF45330B-4529-48C6-A34B-B192350635CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D282AE3-5131-4E2D-8821-A270E16B86EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869FE91B-FA2F-4A9D-9941-D20D1754A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIAL DE VERSIONES" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -640,13 +640,16 @@
   </si>
   <si>
     <t xml:space="preserve">Creación del Sprint Backlog 12 </t>
+  </si>
+  <si>
+    <t>Implementación de mejora de documentacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,17 +1188,8 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1209,17 +1203,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,7 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1242,11 +1263,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1254,26 +1275,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,9 +1296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1333,7 +1336,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1439,7 +1442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1581,7 +1584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1594,29 +1597,29 @@
   </sheetPr>
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="67" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="67" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:6" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="24.8" customHeight="1"/>
+    <row r="4" spans="2:6" ht="24.8" customHeight="1"/>
+    <row r="5" spans="2:6" ht="24.8" customHeight="1"/>
+    <row r="6" spans="2:6" ht="24.8" customHeight="1" thickBot="1">
       <c r="B6" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="24.8" customHeight="1" thickBot="1">
       <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="43.2" customHeight="1" thickBot="1">
       <c r="B8" s="24">
         <v>45264</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="25.95" thickBot="1">
       <c r="B9" s="24">
         <v>45265</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="25.95" thickBot="1">
       <c r="B10" s="24">
         <v>45278</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="25.95" thickBot="1">
       <c r="B11" s="24">
         <v>45290</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="25.95" thickBot="1">
       <c r="B12" s="24">
         <v>45268</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="25.95" thickBot="1">
       <c r="B13" s="24">
         <v>45293</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="25.95" thickBot="1">
       <c r="B14" s="24" t="s">
         <v>145</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="25.95" thickBot="1">
       <c r="B15" s="24">
         <v>45307</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="25.95" thickBot="1">
       <c r="B16" s="24">
         <v>45314</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="33" customHeight="1" thickBot="1">
       <c r="B17" s="24">
         <v>45320</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="38.299999999999997" customHeight="1" thickBot="1">
       <c r="B18" s="24">
         <v>45325</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="25.95" thickBot="1">
       <c r="B19" s="24">
         <v>45329</v>
       </c>
@@ -1850,86 +1853,86 @@
   </sheetPr>
   <dimension ref="B1:Y286"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A242" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q262" sqref="Q262"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A241" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258:C263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" style="5" customWidth="1"/>
     <col min="2" max="2" width="8" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="5"/>
+    <col min="3" max="3" width="41.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="42.69921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.19921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.09765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="58" t="s">
+    <row r="1" spans="2:18" ht="14.4" customHeight="1">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="2:18" ht="39.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="59" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+    </row>
+    <row r="2" spans="2:18" ht="14.4" customHeight="1">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+    </row>
+    <row r="3" spans="2:18" ht="14.4" customHeight="1">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="2:18" ht="39.200000000000003" customHeight="1">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="6" spans="2:18" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="6" spans="2:18" s="3" customFormat="1" ht="23.2" customHeight="1">
+      <c r="B6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:18" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="2:18" s="3" customFormat="1"/>
+    <row r="8" spans="2:18" s="4" customFormat="1" ht="45.8" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
@@ -1968,23 +1971,23 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="2:18" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1">
+      <c r="B9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="41">
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -2000,17 +2003,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
-      <c r="C10" s="44"/>
+    <row r="10" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1">
+      <c r="B10" s="55"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
@@ -2024,9 +2027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="50"/>
-      <c r="C11" s="45"/>
+    <row r="11" spans="2:18" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1">
+      <c r="B11" s="56"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2036,7 +2039,7 @@
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="11">
         <v>8</v>
       </c>
@@ -2050,11 +2053,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+    <row r="12" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1">
+      <c r="B12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -2066,7 +2069,7 @@
       <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="52">
         <v>70</v>
       </c>
       <c r="H12" s="10">
@@ -2082,9 +2085,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="44"/>
+    <row r="13" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1">
+      <c r="B13" s="58"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +2097,7 @@
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
@@ -2108,9 +2111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
-      <c r="C14" s="44"/>
+    <row r="14" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1">
+      <c r="B14" s="58"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2120,7 +2123,7 @@
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="8">
         <v>0</v>
       </c>
@@ -2134,9 +2137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
-      <c r="C15" s="45"/>
+    <row r="15" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1" thickBot="1">
+      <c r="B15" s="63"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2149,7 @@
       <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="11">
         <v>0</v>
       </c>
@@ -2160,11 +2163,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+    <row r="16" spans="2:18" s="3" customFormat="1" ht="42.05" customHeight="1">
+      <c r="B16" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -2176,7 +2179,7 @@
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="52">
         <v>30</v>
       </c>
       <c r="H16" s="10">
@@ -2192,9 +2195,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="52"/>
-      <c r="C17" s="44"/>
+    <row r="17" spans="2:11" ht="53" customHeight="1">
+      <c r="B17" s="58"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2207,7 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="8">
         <v>0</v>
       </c>
@@ -2218,9 +2221,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
-      <c r="C18" s="44"/>
+    <row r="18" spans="2:11" ht="42.05" customHeight="1">
+      <c r="B18" s="58"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2230,7 +2233,7 @@
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="8">
         <v>0</v>
       </c>
@@ -2244,9 +2247,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="60"/>
-      <c r="C19" s="45"/>
+    <row r="19" spans="2:11" ht="42.05" customHeight="1" thickBot="1">
+      <c r="B19" s="63"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
@@ -2256,7 +2259,7 @@
       <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="12">
         <v>0</v>
       </c>
@@ -2270,14 +2273,14 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
+    <row r="20" spans="2:11" ht="42.05" customHeight="1">
+      <c r="B20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="9">
         <f>SUM(G9:G19)</f>
         <v>110</v>
@@ -2299,21 +2302,21 @@
         <v>29.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
-      <c r="B23" s="41" t="s">
+    <row r="23" spans="2:11" ht="23.65">
+      <c r="B23" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2325,7 +2328,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="35.75">
       <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
@@ -2357,11 +2360,11 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="49" t="s">
+    <row r="26" spans="2:11" ht="34" customHeight="1">
+      <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2373,7 +2376,7 @@
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="41">
         <v>40</v>
       </c>
       <c r="H26" s="7">
@@ -2389,10 +2392,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="53" t="s">
+    <row r="27" spans="2:11" ht="34" customHeight="1">
+      <c r="B27" s="55"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="62" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -2401,7 +2404,7 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="7">
         <v>10</v>
       </c>
@@ -2415,17 +2418,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="54"/>
+    <row r="28" spans="2:11" ht="34" customHeight="1">
+      <c r="B28" s="55"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="7">
         <v>7.5</v>
       </c>
@@ -2439,17 +2442,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="49"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="54"/>
+    <row r="29" spans="2:11" ht="34" customHeight="1">
+      <c r="B29" s="55"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="7">
         <v>5</v>
       </c>
@@ -2463,17 +2466,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="55"/>
+    <row r="30" spans="2:11" ht="38.6" customHeight="1">
+      <c r="B30" s="55"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="7">
         <v>5</v>
       </c>
@@ -2487,9 +2490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="44"/>
+    <row r="31" spans="2:11" ht="38.6" customHeight="1">
+      <c r="B31" s="55"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
@@ -2499,7 +2502,7 @@
       <c r="F31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="7">
         <v>2.5</v>
       </c>
@@ -2513,9 +2516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="50"/>
-      <c r="C32" s="45"/>
+    <row r="32" spans="2:11" ht="44.35" customHeight="1" thickBot="1">
+      <c r="B32" s="56"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="13" t="s">
         <v>39</v>
       </c>
@@ -2525,7 +2528,7 @@
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="45"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="7">
         <v>7.5</v>
       </c>
@@ -2539,14 +2542,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+    <row r="33" spans="2:11" ht="24.2" customHeight="1">
+      <c r="B33" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="59" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="18" t="s">
@@ -2555,7 +2558,7 @@
       <c r="F33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="52">
         <v>100</v>
       </c>
       <c r="H33" s="10">
@@ -2571,17 +2574,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="54"/>
+    <row r="34" spans="2:11" ht="24.2" customHeight="1">
+      <c r="B34" s="58"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -2595,17 +2598,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="52"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="54"/>
+    <row r="35" spans="2:11" ht="24.2" customHeight="1">
+      <c r="B35" s="58"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="44"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -2619,17 +2622,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="24.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="55"/>
+    <row r="36" spans="2:11" ht="24.2" customHeight="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="44"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -2643,9 +2646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="52"/>
-      <c r="C37" s="44"/>
+    <row r="37" spans="2:11" ht="37.450000000000003" customHeight="1">
+      <c r="B37" s="58"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
@@ -2655,7 +2658,7 @@
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="44"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -2669,9 +2672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="52"/>
-      <c r="C38" s="44"/>
+    <row r="38" spans="2:11" ht="40.9" customHeight="1">
+      <c r="B38" s="58"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2681,7 +2684,7 @@
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="44"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -2695,9 +2698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="52"/>
-      <c r="C39" s="44"/>
+    <row r="39" spans="2:11" ht="40.9" customHeight="1">
+      <c r="B39" s="58"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2707,7 +2710,7 @@
       <c r="F39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -2721,9 +2724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="60"/>
-      <c r="C40" s="45"/>
+    <row r="40" spans="2:11" ht="64.55" customHeight="1" thickBot="1">
+      <c r="B40" s="63"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="13" t="s">
         <v>46</v>
       </c>
@@ -2733,7 +2736,7 @@
       <c r="F40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -2747,14 +2750,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="51" t="s">
+    <row r="41" spans="2:11">
+      <c r="B41" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="59" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="18" t="s">
@@ -2763,7 +2766,7 @@
       <c r="F41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="52">
         <v>10</v>
       </c>
       <c r="H41" s="10">
@@ -2779,17 +2782,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="54"/>
+    <row r="42" spans="2:11">
+      <c r="B42" s="58"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="44"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="7">
         <v>0</v>
       </c>
@@ -2803,17 +2806,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="52"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="54"/>
+    <row r="43" spans="2:11">
+      <c r="B43" s="58"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="44"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -2827,17 +2830,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="52"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="55"/>
+    <row r="44" spans="2:11">
+      <c r="B44" s="58"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="44"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -2851,9 +2854,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="52"/>
-      <c r="C45" s="44"/>
+    <row r="45" spans="2:11" ht="36.299999999999997" customHeight="1" thickBot="1">
+      <c r="B45" s="58"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="44"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="8">
         <v>0</v>
       </c>
@@ -2877,14 +2880,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B46" s="47" t="s">
+    <row r="46" spans="2:11" ht="17.850000000000001">
+      <c r="B46" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="9">
         <f>SUM(G26:G45)</f>
         <v>150</v>
@@ -2906,21 +2909,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
-      <c r="B49" s="41" t="s">
+    <row r="49" spans="2:11" ht="23.65">
+      <c r="B49" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2932,7 +2935,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="35.75">
       <c r="B51" s="15" t="s">
         <v>0</v>
       </c>
@@ -2964,14 +2967,14 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="49" t="s">
+    <row r="52" spans="2:11">
+      <c r="B52" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="62" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -2980,7 +2983,7 @@
       <c r="F52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="44">
+      <c r="G52" s="41">
         <v>50</v>
       </c>
       <c r="H52" s="7">
@@ -2996,17 +2999,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="49"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="54"/>
+    <row r="53" spans="2:11">
+      <c r="B53" s="55"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="44"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="7">
         <v>3.12</v>
       </c>
@@ -3020,17 +3023,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="49"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="54"/>
+    <row r="54" spans="2:11">
+      <c r="B54" s="55"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="44"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="7">
         <v>3.12</v>
       </c>
@@ -3044,17 +3047,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="49"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="55"/>
+    <row r="55" spans="2:11">
+      <c r="B55" s="55"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="44"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="7">
         <v>3.12</v>
       </c>
@@ -3068,10 +3071,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="49"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="53" t="s">
+    <row r="56" spans="2:11">
+      <c r="B56" s="55"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="62" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -3080,7 +3083,7 @@
       <c r="F56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="44"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -3094,17 +3097,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="49"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="54"/>
+    <row r="57" spans="2:11">
+      <c r="B57" s="55"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="60"/>
       <c r="E57" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="44"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -3118,17 +3121,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="49"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="54"/>
+    <row r="58" spans="2:11">
+      <c r="B58" s="55"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="44"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="7">
         <v>0</v>
       </c>
@@ -3142,17 +3145,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="49"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="55"/>
+    <row r="59" spans="2:11">
+      <c r="B59" s="55"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="44"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="7">
         <v>0</v>
       </c>
@@ -3166,9 +3169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="49"/>
-      <c r="C60" s="44"/>
+    <row r="60" spans="2:11" ht="28.8">
+      <c r="B60" s="55"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="7" t="s">
         <v>70</v>
       </c>
@@ -3178,7 +3181,7 @@
       <c r="F60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="44"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -3192,10 +3195,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="49"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="53" t="s">
+    <row r="61" spans="2:11" ht="14.4" customHeight="1">
+      <c r="B61" s="55"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="62" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -3204,7 +3207,7 @@
       <c r="F61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="44"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -3218,17 +3221,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="49"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="54"/>
+    <row r="62" spans="2:11">
+      <c r="B62" s="55"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="60"/>
       <c r="E62" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="44"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
@@ -3242,17 +3245,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="49"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="54"/>
+    <row r="63" spans="2:11">
+      <c r="B63" s="55"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="60"/>
       <c r="E63" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="44"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="7">
         <v>0</v>
       </c>
@@ -3266,17 +3269,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="50"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="56"/>
+    <row r="64" spans="2:11" ht="15" thickBot="1">
+      <c r="B64" s="56"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="66"/>
       <c r="E64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="45"/>
+      <c r="G64" s="47"/>
       <c r="H64" s="7">
         <v>0</v>
       </c>
@@ -3290,14 +3293,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="51" t="s">
+    <row r="65" spans="2:12" ht="15" thickBot="1">
+      <c r="B65" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="59" t="s">
         <v>75</v>
       </c>
       <c r="E65" s="18" t="s">
@@ -3306,7 +3309,7 @@
       <c r="F65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="52">
         <v>120</v>
       </c>
       <c r="H65" s="10">
@@ -3322,17 +3325,17 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="52"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="54"/>
+    <row r="66" spans="2:12" ht="15" thickBot="1">
+      <c r="B66" s="58"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="60"/>
       <c r="E66" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="44"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
@@ -3346,17 +3349,17 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="52"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="54"/>
+    <row r="67" spans="2:12" ht="15" thickBot="1">
+      <c r="B67" s="58"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="60"/>
       <c r="E67" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="44"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="7">
         <v>0</v>
       </c>
@@ -3370,17 +3373,17 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="52"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="55"/>
+    <row r="68" spans="2:12" ht="15" thickBot="1">
+      <c r="B68" s="58"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="44"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="7">
         <v>0</v>
       </c>
@@ -3394,9 +3397,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="52"/>
-      <c r="C69" s="44"/>
+    <row r="69" spans="2:12" ht="29.4" thickBot="1">
+      <c r="B69" s="58"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="2" t="s">
         <v>76</v>
       </c>
@@ -3406,7 +3409,7 @@
       <c r="F69" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="44"/>
+      <c r="G69" s="41"/>
       <c r="H69" s="7">
         <v>0</v>
       </c>
@@ -3421,9 +3424,9 @@
       </c>
       <c r="L69" s="25"/>
     </row>
-    <row r="70" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="52"/>
-      <c r="C70" s="44"/>
+    <row r="70" spans="2:12" ht="29.4" thickBot="1">
+      <c r="B70" s="58"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="2" t="s">
         <v>77</v>
       </c>
@@ -3433,7 +3436,7 @@
       <c r="F70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="44"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="7">
         <v>0</v>
       </c>
@@ -3447,9 +3450,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="52"/>
-      <c r="C71" s="44"/>
+    <row r="71" spans="2:12" ht="15" thickBot="1">
+      <c r="B71" s="58"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="2" t="s">
         <v>78</v>
       </c>
@@ -3459,7 +3462,7 @@
       <c r="F71" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="44"/>
+      <c r="G71" s="41"/>
       <c r="H71" s="7">
         <v>0</v>
       </c>
@@ -3473,14 +3476,14 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B72" s="47" t="s">
+    <row r="72" spans="2:12" ht="18">
+      <c r="B72" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="40"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="46"/>
       <c r="G72" s="9">
         <f>SUM(G52:G71)</f>
         <v>170</v>
@@ -3502,21 +3505,21 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="23.55" x14ac:dyDescent="0.3">
-      <c r="B75" s="41" t="s">
+    <row r="75" spans="2:12" ht="23.65">
+      <c r="B75" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+    </row>
+    <row r="76" spans="2:12">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3528,7 +3531,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:12" ht="36" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" ht="35.75">
       <c r="B77" s="15" t="s">
         <v>0</v>
       </c>
@@ -3560,14 +3563,14 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="49" t="s">
+    <row r="78" spans="2:12">
+      <c r="B78" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="40" t="s">
         <v>90</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -3576,7 +3579,7 @@
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="44">
+      <c r="G78" s="41">
         <v>90</v>
       </c>
       <c r="H78" s="7">
@@ -3592,17 +3595,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="49"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
+    <row r="79" spans="2:12">
+      <c r="B79" s="55"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="44"/>
+      <c r="G79" s="41"/>
       <c r="H79" s="7">
         <v>3.12</v>
       </c>
@@ -3616,17 +3619,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="49"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
+    <row r="80" spans="2:12">
+      <c r="B80" s="55"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
       <c r="E80" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="44"/>
+      <c r="G80" s="41"/>
       <c r="H80" s="7">
         <v>3.12</v>
       </c>
@@ -3640,17 +3643,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="49"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="46"/>
+    <row r="81" spans="2:11">
+      <c r="B81" s="55"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
       <c r="E81" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="44"/>
+      <c r="G81" s="41"/>
       <c r="H81" s="7">
         <v>3.12</v>
       </c>
@@ -3664,10 +3667,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="49"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="43" t="s">
+    <row r="82" spans="2:11">
+      <c r="B82" s="55"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="40" t="s">
         <v>89</v>
       </c>
       <c r="E82" s="19" t="s">
@@ -3676,7 +3679,7 @@
       <c r="F82" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="44"/>
+      <c r="G82" s="41"/>
       <c r="H82" s="7">
         <v>0</v>
       </c>
@@ -3690,17 +3693,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="49"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
+    <row r="83" spans="2:11">
+      <c r="B83" s="55"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="44"/>
+      <c r="G83" s="41"/>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -3714,17 +3717,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="49"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
+    <row r="84" spans="2:11">
+      <c r="B84" s="55"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="44"/>
+      <c r="G84" s="41"/>
       <c r="H84" s="7">
         <v>0</v>
       </c>
@@ -3738,17 +3741,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="49"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="46"/>
+    <row r="85" spans="2:11">
+      <c r="B85" s="55"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42"/>
       <c r="E85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="44"/>
+      <c r="G85" s="41"/>
       <c r="H85" s="7">
         <v>0</v>
       </c>
@@ -3762,10 +3765,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="49"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="43" t="s">
+    <row r="86" spans="2:11">
+      <c r="B86" s="55"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="40" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="19" t="s">
@@ -3774,7 +3777,7 @@
       <c r="F86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="44"/>
+      <c r="G86" s="41"/>
       <c r="H86" s="7">
         <v>0</v>
       </c>
@@ -3788,17 +3791,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="49"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
+    <row r="87" spans="2:11" ht="14.4" customHeight="1">
+      <c r="B87" s="55"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="44"/>
+      <c r="G87" s="41"/>
       <c r="H87" s="7">
         <v>0</v>
       </c>
@@ -3812,17 +3815,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="49"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
+    <row r="88" spans="2:11">
+      <c r="B88" s="55"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="44"/>
+      <c r="G88" s="41"/>
       <c r="H88" s="7">
         <v>0</v>
       </c>
@@ -3836,17 +3839,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="49"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
+    <row r="89" spans="2:11">
+      <c r="B89" s="55"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="44"/>
+      <c r="G89" s="41"/>
       <c r="H89" s="7">
         <v>0</v>
       </c>
@@ -3860,17 +3863,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="50"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
+    <row r="90" spans="2:11" ht="15" thickBot="1">
+      <c r="B90" s="56"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="45"/>
+      <c r="G90" s="47"/>
       <c r="H90" s="7">
         <v>0</v>
       </c>
@@ -3884,14 +3887,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="51" t="s">
+    <row r="91" spans="2:11" ht="15" thickBot="1">
+      <c r="B91" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C91" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="59" t="s">
         <v>114</v>
       </c>
       <c r="E91" s="18" t="s">
@@ -3900,7 +3903,7 @@
       <c r="F91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="48">
+      <c r="G91" s="52">
         <v>50</v>
       </c>
       <c r="H91" s="10">
@@ -3916,17 +3919,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="52"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="54"/>
+    <row r="92" spans="2:11" ht="15" thickBot="1">
+      <c r="B92" s="58"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="60"/>
       <c r="E92" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="44"/>
+      <c r="G92" s="41"/>
       <c r="H92" s="7">
         <v>0</v>
       </c>
@@ -3940,17 +3943,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="52"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="54"/>
+    <row r="93" spans="2:11" ht="15" thickBot="1">
+      <c r="B93" s="58"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="60"/>
       <c r="E93" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="44"/>
+      <c r="G93" s="41"/>
       <c r="H93" s="7">
         <v>0</v>
       </c>
@@ -3964,17 +3967,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="52"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="55"/>
+    <row r="94" spans="2:11" ht="15" thickBot="1">
+      <c r="B94" s="58"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="61"/>
       <c r="E94" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="44"/>
+      <c r="G94" s="41"/>
       <c r="H94" s="7">
         <v>0</v>
       </c>
@@ -3988,9 +3991,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="52"/>
-      <c r="C95" s="44"/>
+    <row r="95" spans="2:11" ht="15" thickBot="1">
+      <c r="B95" s="58"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="2" t="s">
         <v>115</v>
       </c>
@@ -4000,7 +4003,7 @@
       <c r="F95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="44"/>
+      <c r="G95" s="41"/>
       <c r="H95" s="7">
         <v>0</v>
       </c>
@@ -4014,9 +4017,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="52"/>
-      <c r="C96" s="44"/>
+    <row r="96" spans="2:11" ht="29.4" thickBot="1">
+      <c r="B96" s="58"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="2" t="s">
         <v>116</v>
       </c>
@@ -4026,7 +4029,7 @@
       <c r="F96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="44"/>
+      <c r="G96" s="41"/>
       <c r="H96" s="7">
         <v>0</v>
       </c>
@@ -4040,9 +4043,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="52"/>
-      <c r="C97" s="44"/>
+    <row r="97" spans="2:11" ht="15" thickBot="1">
+      <c r="B97" s="58"/>
+      <c r="C97" s="41"/>
       <c r="D97" s="2" t="s">
         <v>119</v>
       </c>
@@ -4052,7 +4055,7 @@
       <c r="F97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="44"/>
+      <c r="G97" s="41"/>
       <c r="H97" s="7">
         <v>0</v>
       </c>
@@ -4066,14 +4069,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="51" t="s">
+    <row r="98" spans="2:11" ht="15" thickBot="1">
+      <c r="B98" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="57" t="s">
+      <c r="D98" s="59" t="s">
         <v>117</v>
       </c>
       <c r="E98" s="18" t="s">
@@ -4082,7 +4085,7 @@
       <c r="F98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="52">
         <v>50</v>
       </c>
       <c r="H98" s="10">
@@ -4098,17 +4101,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="52"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="54"/>
+    <row r="99" spans="2:11" ht="15" thickBot="1">
+      <c r="B99" s="58"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="60"/>
       <c r="E99" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="44"/>
+      <c r="G99" s="41"/>
       <c r="H99" s="7">
         <v>0</v>
       </c>
@@ -4122,17 +4125,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="52"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="54"/>
+    <row r="100" spans="2:11" ht="15" thickBot="1">
+      <c r="B100" s="58"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="60"/>
       <c r="E100" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="44"/>
+      <c r="G100" s="41"/>
       <c r="H100" s="7">
         <v>0</v>
       </c>
@@ -4146,17 +4149,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="52"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="55"/>
+    <row r="101" spans="2:11" ht="15" thickBot="1">
+      <c r="B101" s="58"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="61"/>
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="44"/>
+      <c r="G101" s="41"/>
       <c r="H101" s="7">
         <v>0</v>
       </c>
@@ -4170,9 +4173,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="52"/>
-      <c r="C102" s="44"/>
+    <row r="102" spans="2:11" ht="15" thickBot="1">
+      <c r="B102" s="58"/>
+      <c r="C102" s="41"/>
       <c r="D102" s="2" t="s">
         <v>118</v>
       </c>
@@ -4182,7 +4185,7 @@
       <c r="F102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="44"/>
+      <c r="G102" s="41"/>
       <c r="H102" s="7">
         <v>0</v>
       </c>
@@ -4196,9 +4199,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="52"/>
-      <c r="C103" s="44"/>
+    <row r="103" spans="2:11" ht="15" thickBot="1">
+      <c r="B103" s="58"/>
+      <c r="C103" s="41"/>
       <c r="D103" s="2" t="s">
         <v>120</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="F103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="44"/>
+      <c r="G103" s="41"/>
       <c r="H103" s="7">
         <v>0</v>
       </c>
@@ -4222,9 +4225,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="52"/>
-      <c r="C104" s="44"/>
+    <row r="104" spans="2:11" ht="18" customHeight="1" thickBot="1">
+      <c r="B104" s="58"/>
+      <c r="C104" s="41"/>
       <c r="D104" s="2" t="s">
         <v>121</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="F104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="44"/>
+      <c r="G104" s="41"/>
       <c r="H104" s="7">
         <v>0</v>
       </c>
@@ -4248,14 +4251,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B105" s="47" t="s">
+    <row r="105" spans="2:11" ht="18">
+      <c r="B105" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="40"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="46"/>
       <c r="G105" s="9">
         <f>SUM(G85:G104:G78)</f>
         <v>190</v>
@@ -4277,21 +4280,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
-      <c r="B107" s="41" t="s">
+    <row r="107" spans="2:11" ht="23.65">
+      <c r="B107" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
+    </row>
+    <row r="108" spans="2:11">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4303,7 +4306,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:11" ht="35.75">
       <c r="B109" s="15" t="s">
         <v>0</v>
       </c>
@@ -4335,14 +4338,14 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="49" t="s">
+    <row r="110" spans="2:11">
+      <c r="B110" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="44" t="s">
+      <c r="C110" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="D110" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="19" t="s">
@@ -4351,7 +4354,7 @@
       <c r="F110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="44">
+      <c r="G110" s="41">
         <v>80</v>
       </c>
       <c r="H110" s="7">
@@ -4367,17 +4370,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="49"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
+    <row r="111" spans="2:11">
+      <c r="B111" s="55"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
       <c r="E111" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="44"/>
+      <c r="G111" s="41"/>
       <c r="H111" s="7">
         <v>3.12</v>
       </c>
@@ -4391,17 +4394,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="49"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
+    <row r="112" spans="2:11">
+      <c r="B112" s="55"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
       <c r="E112" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="44"/>
+      <c r="G112" s="41"/>
       <c r="H112" s="7">
         <v>3.12</v>
       </c>
@@ -4415,17 +4418,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="49"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="46"/>
+    <row r="113" spans="2:11">
+      <c r="B113" s="55"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="42"/>
       <c r="E113" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="44"/>
+      <c r="G113" s="41"/>
       <c r="H113" s="7">
         <v>3.12</v>
       </c>
@@ -4439,10 +4442,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="49"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="43" t="s">
+    <row r="114" spans="2:11">
+      <c r="B114" s="55"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="40" t="s">
         <v>98</v>
       </c>
       <c r="E114" s="19" t="s">
@@ -4451,7 +4454,7 @@
       <c r="F114" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="44"/>
+      <c r="G114" s="41"/>
       <c r="H114" s="7">
         <v>0</v>
       </c>
@@ -4465,17 +4468,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="49"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
+    <row r="115" spans="2:11">
+      <c r="B115" s="55"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
       <c r="E115" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="44"/>
+      <c r="G115" s="41"/>
       <c r="H115" s="7">
         <v>0</v>
       </c>
@@ -4489,17 +4492,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="49"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
+    <row r="116" spans="2:11">
+      <c r="B116" s="55"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
       <c r="E116" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="44"/>
+      <c r="G116" s="41"/>
       <c r="H116" s="7">
         <v>0</v>
       </c>
@@ -4513,17 +4516,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="49"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="46"/>
+    <row r="117" spans="2:11">
+      <c r="B117" s="55"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="42"/>
       <c r="E117" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="44"/>
+      <c r="G117" s="41"/>
       <c r="H117" s="7">
         <v>0</v>
       </c>
@@ -4537,10 +4540,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="49"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="43" t="s">
+    <row r="118" spans="2:11">
+      <c r="B118" s="55"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="40" t="s">
         <v>126</v>
       </c>
       <c r="E118" s="19" t="s">
@@ -4549,7 +4552,7 @@
       <c r="F118" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="44"/>
+      <c r="G118" s="41"/>
       <c r="H118" s="7">
         <v>0</v>
       </c>
@@ -4563,17 +4566,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="49"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
+    <row r="119" spans="2:11">
+      <c r="B119" s="55"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
       <c r="E119" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="44"/>
+      <c r="G119" s="41"/>
       <c r="H119" s="7">
         <v>0</v>
       </c>
@@ -4587,17 +4590,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="49"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
+    <row r="120" spans="2:11">
+      <c r="B120" s="55"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
       <c r="E120" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="44"/>
+      <c r="G120" s="41"/>
       <c r="H120" s="7">
         <v>0</v>
       </c>
@@ -4611,17 +4614,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="49"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
+    <row r="121" spans="2:11">
+      <c r="B121" s="55"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
       <c r="E121" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="44"/>
+      <c r="G121" s="41"/>
       <c r="H121" s="7">
         <v>0</v>
       </c>
@@ -4635,17 +4638,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="50"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
+    <row r="122" spans="2:11" ht="15" thickBot="1">
+      <c r="B122" s="56"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
       <c r="E122" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="45"/>
+      <c r="G122" s="47"/>
       <c r="H122" s="7">
         <v>0</v>
       </c>
@@ -4659,14 +4662,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="51" t="s">
+    <row r="123" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B123" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="C123" s="48" t="s">
+      <c r="C123" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="48" t="s">
+      <c r="D123" s="52" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="18" t="s">
@@ -4675,7 +4678,7 @@
       <c r="F123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="48">
+      <c r="G123" s="52">
         <v>43</v>
       </c>
       <c r="H123" s="10">
@@ -4691,17 +4694,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="52"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
+    <row r="124" spans="2:11" ht="15" thickBot="1">
+      <c r="B124" s="58"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
       <c r="E124" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="44"/>
+      <c r="G124" s="41"/>
       <c r="H124" s="7">
         <v>0</v>
       </c>
@@ -4715,17 +4718,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="52"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
+    <row r="125" spans="2:11" ht="15" thickBot="1">
+      <c r="B125" s="58"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
       <c r="E125" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="44"/>
+      <c r="G125" s="41"/>
       <c r="H125" s="7">
         <v>0</v>
       </c>
@@ -4739,17 +4742,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="52"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
+    <row r="126" spans="2:11" ht="15" thickBot="1">
+      <c r="B126" s="58"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
       <c r="E126" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="44"/>
+      <c r="G126" s="41"/>
       <c r="H126" s="7">
         <v>0</v>
       </c>
@@ -4763,17 +4766,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="52"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
+    <row r="127" spans="2:11" ht="15" thickBot="1">
+      <c r="B127" s="58"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
       <c r="E127" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="44"/>
+      <c r="G127" s="41"/>
       <c r="H127" s="7">
         <v>0</v>
       </c>
@@ -4787,17 +4790,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="52"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
+    <row r="128" spans="2:11" ht="15" thickBot="1">
+      <c r="B128" s="58"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
       <c r="E128" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G128" s="44"/>
+      <c r="G128" s="41"/>
       <c r="H128" s="7">
         <v>0</v>
       </c>
@@ -4811,17 +4814,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="52"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="45"/>
+    <row r="129" spans="2:11" ht="15" thickBot="1">
+      <c r="B129" s="58"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="47"/>
       <c r="E129" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="44"/>
+      <c r="G129" s="41"/>
       <c r="H129" s="7">
         <v>0</v>
       </c>
@@ -4835,14 +4838,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="51" t="s">
+    <row r="130" spans="2:11" ht="15" thickBot="1">
+      <c r="B130" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="48" t="s">
+      <c r="C130" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D130" s="48" t="s">
+      <c r="D130" s="52" t="s">
         <v>130</v>
       </c>
       <c r="E130" s="18" t="s">
@@ -4851,7 +4854,7 @@
       <c r="F130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="48">
+      <c r="G130" s="52">
         <v>47</v>
       </c>
       <c r="H130" s="10">
@@ -4867,17 +4870,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="52"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
+    <row r="131" spans="2:11" ht="15" thickBot="1">
+      <c r="B131" s="58"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
       <c r="E131" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G131" s="44"/>
+      <c r="G131" s="41"/>
       <c r="H131" s="7">
         <v>0</v>
       </c>
@@ -4891,17 +4894,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="52"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
+    <row r="132" spans="2:11" ht="15" thickBot="1">
+      <c r="B132" s="58"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
       <c r="E132" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="44"/>
+      <c r="G132" s="41"/>
       <c r="H132" s="7">
         <v>0</v>
       </c>
@@ -4915,17 +4918,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="52"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="46"/>
+    <row r="133" spans="2:11" ht="15" thickBot="1">
+      <c r="B133" s="58"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="42"/>
       <c r="E133" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G133" s="44"/>
+      <c r="G133" s="41"/>
       <c r="H133" s="7">
         <v>0</v>
       </c>
@@ -4939,10 +4942,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="52"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="43" t="s">
+    <row r="134" spans="2:11" ht="15" thickBot="1">
+      <c r="B134" s="58"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="40" t="s">
         <v>131</v>
       </c>
       <c r="E134" s="19" t="s">
@@ -4951,7 +4954,7 @@
       <c r="F134" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G134" s="44"/>
+      <c r="G134" s="41"/>
       <c r="H134" s="7">
         <v>0</v>
       </c>
@@ -4965,17 +4968,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="52"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
+    <row r="135" spans="2:11" ht="15" thickBot="1">
+      <c r="B135" s="58"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
       <c r="E135" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G135" s="44"/>
+      <c r="G135" s="41"/>
       <c r="H135" s="7">
         <v>0</v>
       </c>
@@ -4989,17 +4992,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="52"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="45"/>
+    <row r="136" spans="2:11" ht="15" thickBot="1">
+      <c r="B136" s="58"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="47"/>
       <c r="E136" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="44"/>
+      <c r="G136" s="41"/>
       <c r="H136" s="7">
         <v>0</v>
       </c>
@@ -5013,14 +5016,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B137" s="47" t="s">
+    <row r="137" spans="2:11" ht="18">
+      <c r="B137" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="40"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="46"/>
       <c r="G137" s="26">
         <f>SUM(G110:G130)</f>
         <v>170</v>
@@ -5042,21 +5045,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="23.55" x14ac:dyDescent="0.3">
-      <c r="B139" s="41" t="s">
+    <row r="139" spans="2:11" ht="23.65">
+      <c r="B139" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="42"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="42"/>
-      <c r="K139" s="42"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="39"/>
+    </row>
+    <row r="140" spans="2:11">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5068,7 +5071,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11" ht="35.75">
       <c r="B141" s="15" t="s">
         <v>0</v>
       </c>
@@ -5100,14 +5103,14 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="49" t="s">
+    <row r="142" spans="2:11">
+      <c r="B142" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="44" t="s">
+      <c r="C142" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D142" s="43" t="s">
+      <c r="D142" s="40" t="s">
         <v>111</v>
       </c>
       <c r="E142" s="19" t="s">
@@ -5116,7 +5119,7 @@
       <c r="F142" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="44">
+      <c r="G142" s="41">
         <v>80</v>
       </c>
       <c r="H142" s="7">
@@ -5132,17 +5135,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B143" s="49"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="44"/>
+    <row r="143" spans="2:11">
+      <c r="B143" s="55"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
       <c r="E143" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="44"/>
+      <c r="G143" s="41"/>
       <c r="H143" s="7">
         <v>3.12</v>
       </c>
@@ -5156,17 +5159,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="49"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="44"/>
+    <row r="144" spans="2:11">
+      <c r="B144" s="55"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
       <c r="E144" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="44"/>
+      <c r="G144" s="41"/>
       <c r="H144" s="7">
         <v>3.12</v>
       </c>
@@ -5180,17 +5183,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B145" s="49"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="46"/>
+    <row r="145" spans="2:11">
+      <c r="B145" s="55"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="42"/>
       <c r="E145" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G145" s="44"/>
+      <c r="G145" s="41"/>
       <c r="H145" s="7">
         <v>3.12</v>
       </c>
@@ -5204,10 +5207,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="49"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="43" t="s">
+    <row r="146" spans="2:11" ht="14.4" customHeight="1">
+      <c r="B146" s="55"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="40" t="s">
         <v>122</v>
       </c>
       <c r="E146" s="19" t="s">
@@ -5216,7 +5219,7 @@
       <c r="F146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="44"/>
+      <c r="G146" s="41"/>
       <c r="H146" s="7">
         <v>0</v>
       </c>
@@ -5230,17 +5233,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="49"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="44"/>
+    <row r="147" spans="2:11">
+      <c r="B147" s="55"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
       <c r="E147" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="44"/>
+      <c r="G147" s="41"/>
       <c r="H147" s="7">
         <v>0</v>
       </c>
@@ -5254,17 +5257,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="49"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
+    <row r="148" spans="2:11">
+      <c r="B148" s="55"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
       <c r="E148" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G148" s="44"/>
+      <c r="G148" s="41"/>
       <c r="H148" s="7">
         <v>0</v>
       </c>
@@ -5278,17 +5281,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B149" s="49"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
+    <row r="149" spans="2:11">
+      <c r="B149" s="55"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
       <c r="E149" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="44"/>
+      <c r="G149" s="41"/>
       <c r="H149" s="7">
         <v>0</v>
       </c>
@@ -5302,10 +5305,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B150" s="49"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="43" t="s">
+    <row r="150" spans="2:11">
+      <c r="B150" s="55"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="40" t="s">
         <v>123</v>
       </c>
       <c r="E150" s="19" t="s">
@@ -5314,7 +5317,7 @@
       <c r="F150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="44"/>
+      <c r="G150" s="41"/>
       <c r="H150" s="7">
         <v>0</v>
       </c>
@@ -5328,17 +5331,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B151" s="49"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="44"/>
+    <row r="151" spans="2:11">
+      <c r="B151" s="55"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
       <c r="E151" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="44"/>
+      <c r="G151" s="41"/>
       <c r="H151" s="7">
         <v>0</v>
       </c>
@@ -5352,17 +5355,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B152" s="49"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="44"/>
+    <row r="152" spans="2:11">
+      <c r="B152" s="55"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
       <c r="E152" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="44"/>
+      <c r="G152" s="41"/>
       <c r="H152" s="7">
         <v>0</v>
       </c>
@@ -5376,17 +5379,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B153" s="49"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="44"/>
+    <row r="153" spans="2:11">
+      <c r="B153" s="55"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
       <c r="E153" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G153" s="44"/>
+      <c r="G153" s="41"/>
       <c r="H153" s="7">
         <v>0</v>
       </c>
@@ -5400,17 +5403,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="50"/>
-      <c r="C154" s="45"/>
-      <c r="D154" s="45"/>
+    <row r="154" spans="2:11" ht="15" thickBot="1">
+      <c r="B154" s="56"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G154" s="45"/>
+      <c r="G154" s="47"/>
       <c r="H154" s="7">
         <v>0</v>
       </c>
@@ -5424,14 +5427,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="51" t="s">
+    <row r="155" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B155" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="48" t="s">
+      <c r="C155" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="48" t="s">
+      <c r="D155" s="52" t="s">
         <v>110</v>
       </c>
       <c r="E155" s="18" t="s">
@@ -5440,7 +5443,7 @@
       <c r="F155" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="48">
+      <c r="G155" s="52">
         <v>43</v>
       </c>
       <c r="H155" s="10">
@@ -5456,17 +5459,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="52"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="44"/>
+    <row r="156" spans="2:11" ht="15" thickBot="1">
+      <c r="B156" s="58"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="41"/>
       <c r="E156" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="44"/>
+      <c r="G156" s="41"/>
       <c r="H156" s="7">
         <v>0</v>
       </c>
@@ -5480,17 +5483,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="52"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="44"/>
+    <row r="157" spans="2:11" ht="15" thickBot="1">
+      <c r="B157" s="58"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
       <c r="E157" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="44"/>
+      <c r="G157" s="41"/>
       <c r="H157" s="7">
         <v>0</v>
       </c>
@@ -5504,17 +5507,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="52"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="44"/>
+    <row r="158" spans="2:11" ht="15" thickBot="1">
+      <c r="B158" s="58"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
       <c r="E158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G158" s="44"/>
+      <c r="G158" s="41"/>
       <c r="H158" s="7">
         <v>0</v>
       </c>
@@ -5528,10 +5531,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="52"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="43" t="s">
+    <row r="159" spans="2:11" ht="15" thickBot="1">
+      <c r="B159" s="58"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="40" t="s">
         <v>124</v>
       </c>
       <c r="E159" s="19" t="s">
@@ -5540,7 +5543,7 @@
       <c r="F159" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G159" s="44"/>
+      <c r="G159" s="41"/>
       <c r="H159" s="7">
         <v>0</v>
       </c>
@@ -5554,17 +5557,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="52"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="44"/>
+    <row r="160" spans="2:11" ht="15" thickBot="1">
+      <c r="B160" s="58"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="41"/>
       <c r="E160" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="44"/>
+      <c r="G160" s="41"/>
       <c r="H160" s="7">
         <v>0</v>
       </c>
@@ -5578,17 +5581,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="52"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="45"/>
+    <row r="161" spans="2:11" ht="15" thickBot="1">
+      <c r="B161" s="58"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="47"/>
       <c r="E161" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="44"/>
+      <c r="G161" s="41"/>
       <c r="H161" s="7">
         <v>0</v>
       </c>
@@ -5602,14 +5605,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="51" t="s">
+    <row r="162" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B162" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="48" t="s">
+      <c r="C162" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D162" s="48" t="s">
+      <c r="D162" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E162" s="18" t="s">
@@ -5618,7 +5621,7 @@
       <c r="F162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="48">
+      <c r="G162" s="52">
         <v>43</v>
       </c>
       <c r="H162" s="10">
@@ -5634,17 +5637,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="52"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="44"/>
+    <row r="163" spans="2:11" ht="15" thickBot="1">
+      <c r="B163" s="58"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
       <c r="E163" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="44"/>
+      <c r="G163" s="41"/>
       <c r="H163" s="7">
         <v>0</v>
       </c>
@@ -5658,17 +5661,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="52"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="44"/>
+    <row r="164" spans="2:11" ht="15" thickBot="1">
+      <c r="B164" s="58"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
       <c r="E164" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="44"/>
+      <c r="G164" s="41"/>
       <c r="H164" s="7">
         <v>0</v>
       </c>
@@ -5682,17 +5685,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="52"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
+    <row r="165" spans="2:11" ht="15" thickBot="1">
+      <c r="B165" s="58"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="41"/>
       <c r="E165" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="44"/>
+      <c r="G165" s="41"/>
       <c r="H165" s="7">
         <v>0</v>
       </c>
@@ -5706,14 +5709,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="51" t="s">
+    <row r="166" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B166" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C166" s="48" t="s">
+      <c r="C166" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D166" s="48" t="s">
+      <c r="D166" s="52" t="s">
         <v>128</v>
       </c>
       <c r="E166" s="18" t="s">
@@ -5722,7 +5725,7 @@
       <c r="F166" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G166" s="48">
+      <c r="G166" s="52">
         <v>10</v>
       </c>
       <c r="H166" s="10">
@@ -5738,17 +5741,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="52"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="44"/>
+    <row r="167" spans="2:11" ht="15" thickBot="1">
+      <c r="B167" s="58"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="41"/>
       <c r="E167" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="44"/>
+      <c r="G167" s="41"/>
       <c r="H167" s="7">
         <v>0</v>
       </c>
@@ -5762,17 +5765,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="52"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="44"/>
+    <row r="168" spans="2:11" ht="15" thickBot="1">
+      <c r="B168" s="58"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
       <c r="E168" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G168" s="44"/>
+      <c r="G168" s="41"/>
       <c r="H168" s="7">
         <v>0</v>
       </c>
@@ -5786,17 +5789,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="52"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="46"/>
+    <row r="169" spans="2:11" ht="15" thickBot="1">
+      <c r="B169" s="58"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="42"/>
       <c r="E169" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G169" s="44"/>
+      <c r="G169" s="41"/>
       <c r="H169" s="7">
         <v>0</v>
       </c>
@@ -5810,10 +5813,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="52"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="43" t="s">
+    <row r="170" spans="2:11" ht="15" thickBot="1">
+      <c r="B170" s="58"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="40" t="s">
         <v>129</v>
       </c>
       <c r="E170" s="19" t="s">
@@ -5822,7 +5825,7 @@
       <c r="F170" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="44"/>
+      <c r="G170" s="41"/>
       <c r="H170" s="7">
         <v>0</v>
       </c>
@@ -5836,17 +5839,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="52"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="44"/>
+    <row r="171" spans="2:11" ht="15" thickBot="1">
+      <c r="B171" s="58"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="41"/>
       <c r="E171" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G171" s="44"/>
+      <c r="G171" s="41"/>
       <c r="H171" s="7">
         <v>0</v>
       </c>
@@ -5860,17 +5863,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="52"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="45"/>
+    <row r="172" spans="2:11" ht="15" thickBot="1">
+      <c r="B172" s="58"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="47"/>
       <c r="E172" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G172" s="44"/>
+      <c r="G172" s="41"/>
       <c r="H172" s="7">
         <v>0</v>
       </c>
@@ -5884,14 +5887,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="2:11" ht="17.850000000000001" x14ac:dyDescent="0.3">
-      <c r="B173" s="47" t="s">
+    <row r="173" spans="2:11" ht="17.850000000000001">
+      <c r="B173" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-      <c r="F173" s="40"/>
+      <c r="C173" s="45"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="46"/>
       <c r="G173" s="26">
         <f>SUM(G142:G172)</f>
         <v>176</v>
@@ -5913,21 +5916,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="2:11" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="41" t="s">
+    <row r="176" spans="2:11" ht="23.65" customHeight="1">
+      <c r="B176" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C176" s="42"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="42"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="42"/>
-      <c r="I176" s="42"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="42"/>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C176" s="39"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="39"/>
+      <c r="G176" s="39"/>
+      <c r="H176" s="39"/>
+      <c r="I176" s="39"/>
+      <c r="J176" s="39"/>
+      <c r="K176" s="39"/>
+    </row>
+    <row r="177" spans="2:11">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -5939,7 +5942,7 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:11" ht="35.75">
       <c r="B178" s="15" t="s">
         <v>0</v>
       </c>
@@ -5971,14 +5974,14 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="179" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="61" t="s">
+    <row r="179" spans="2:11" ht="14.4" customHeight="1">
+      <c r="B179" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C179" s="43" t="s">
+      <c r="C179" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D179" s="43" t="s">
+      <c r="D179" s="40" t="s">
         <v>109</v>
       </c>
       <c r="E179" s="19" t="s">
@@ -5987,7 +5990,7 @@
       <c r="F179" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="43">
+      <c r="G179" s="40">
         <v>140</v>
       </c>
       <c r="H179" s="7">
@@ -6003,17 +6006,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B180" s="49"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="44"/>
+    <row r="180" spans="2:11">
+      <c r="B180" s="55"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41"/>
       <c r="E180" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="44"/>
+      <c r="G180" s="41"/>
       <c r="H180" s="7">
         <v>3.12</v>
       </c>
@@ -6027,17 +6030,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B181" s="49"/>
-      <c r="C181" s="44"/>
-      <c r="D181" s="44"/>
+    <row r="181" spans="2:11">
+      <c r="B181" s="55"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="41"/>
       <c r="E181" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="44"/>
+      <c r="G181" s="41"/>
       <c r="H181" s="7">
         <v>3.12</v>
       </c>
@@ -6051,17 +6054,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B182" s="49"/>
-      <c r="C182" s="44"/>
-      <c r="D182" s="46"/>
+    <row r="182" spans="2:11">
+      <c r="B182" s="55"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="42"/>
       <c r="E182" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G182" s="44"/>
+      <c r="G182" s="41"/>
       <c r="H182" s="7">
         <v>3.12</v>
       </c>
@@ -6075,10 +6078,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="49"/>
-      <c r="C183" s="44"/>
-      <c r="D183" s="43" t="s">
+    <row r="183" spans="2:11" ht="14.4" customHeight="1">
+      <c r="B183" s="55"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="40" t="s">
         <v>125</v>
       </c>
       <c r="E183" s="19" t="s">
@@ -6087,7 +6090,7 @@
       <c r="F183" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G183" s="44"/>
+      <c r="G183" s="41"/>
       <c r="H183" s="7">
         <v>0</v>
       </c>
@@ -6101,17 +6104,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B184" s="49"/>
-      <c r="C184" s="44"/>
-      <c r="D184" s="46"/>
+    <row r="184" spans="2:11">
+      <c r="B184" s="55"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="42"/>
       <c r="E184" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G184" s="44"/>
+      <c r="G184" s="41"/>
       <c r="H184" s="7">
         <v>0</v>
       </c>
@@ -6125,10 +6128,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="49"/>
-      <c r="C185" s="44"/>
-      <c r="D185" s="43" t="s">
+    <row r="185" spans="2:11" ht="14.4" customHeight="1">
+      <c r="B185" s="55"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="40" t="s">
         <v>133</v>
       </c>
       <c r="E185" s="19" t="s">
@@ -6137,7 +6140,7 @@
       <c r="F185" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G185" s="44"/>
+      <c r="G185" s="41"/>
       <c r="H185" s="7">
         <v>0</v>
       </c>
@@ -6151,17 +6154,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B186" s="49"/>
-      <c r="C186" s="44"/>
-      <c r="D186" s="44"/>
+    <row r="186" spans="2:11">
+      <c r="B186" s="55"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="41"/>
       <c r="E186" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G186" s="44"/>
+      <c r="G186" s="41"/>
       <c r="H186" s="7">
         <v>0</v>
       </c>
@@ -6175,17 +6178,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B187" s="49"/>
-      <c r="C187" s="44"/>
-      <c r="D187" s="44"/>
+    <row r="187" spans="2:11">
+      <c r="B187" s="55"/>
+      <c r="C187" s="41"/>
+      <c r="D187" s="41"/>
       <c r="E187" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G187" s="44"/>
+      <c r="G187" s="41"/>
       <c r="H187" s="7">
         <v>0</v>
       </c>
@@ -6199,17 +6202,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B188" s="49"/>
-      <c r="C188" s="44"/>
-      <c r="D188" s="44"/>
+    <row r="188" spans="2:11">
+      <c r="B188" s="55"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="41"/>
       <c r="E188" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G188" s="44"/>
+      <c r="G188" s="41"/>
       <c r="H188" s="7">
         <v>0</v>
       </c>
@@ -6223,17 +6226,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B189" s="49"/>
-      <c r="C189" s="44"/>
-      <c r="D189" s="44"/>
+    <row r="189" spans="2:11">
+      <c r="B189" s="55"/>
+      <c r="C189" s="41"/>
+      <c r="D189" s="41"/>
       <c r="E189" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G189" s="44"/>
+      <c r="G189" s="41"/>
       <c r="H189" s="7">
         <v>0</v>
       </c>
@@ -6247,17 +6250,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B190" s="49"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="44"/>
+    <row r="190" spans="2:11">
+      <c r="B190" s="55"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
       <c r="E190" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="44"/>
+      <c r="G190" s="41"/>
       <c r="H190" s="7">
         <v>0</v>
       </c>
@@ -6271,17 +6274,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="50"/>
-      <c r="C191" s="45"/>
-      <c r="D191" s="45"/>
+    <row r="191" spans="2:11" ht="15" thickBot="1">
+      <c r="B191" s="56"/>
+      <c r="C191" s="47"/>
+      <c r="D191" s="47"/>
       <c r="E191" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G191" s="45"/>
+      <c r="G191" s="47"/>
       <c r="H191" s="7">
         <v>0</v>
       </c>
@@ -6295,14 +6298,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B192" s="47" t="s">
+    <row r="192" spans="2:11" ht="18">
+      <c r="B192" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C192" s="39"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="40"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="46"/>
       <c r="G192" s="26">
         <f ca="1">SUM(G179:G196)</f>
         <v>140</v>
@@ -6324,21 +6327,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="2:11" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B195" s="41" t="s">
+    <row r="195" spans="2:11" ht="23.5">
+      <c r="B195" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C195" s="42"/>
-      <c r="D195" s="42"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="42"/>
-      <c r="G195" s="42"/>
-      <c r="H195" s="42"/>
-      <c r="I195" s="42"/>
-      <c r="J195" s="42"/>
-      <c r="K195" s="42"/>
-    </row>
-    <row r="197" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="C195" s="39"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
+      <c r="F195" s="39"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="39"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="39"/>
+    </row>
+    <row r="197" spans="2:11" ht="35.75">
       <c r="B197" s="15" t="s">
         <v>0</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="198" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:11" ht="28.8">
       <c r="B198" s="27" t="s">
         <v>153</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:11">
       <c r="B199" s="31"/>
       <c r="C199" s="31"/>
       <c r="D199" s="19" t="s">
@@ -6428,7 +6431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11">
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
       <c r="D200" s="19" t="s">
@@ -6454,7 +6457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:11" ht="28.8">
       <c r="B201" s="32" t="s">
         <v>96</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:11">
       <c r="B202" s="33"/>
       <c r="C202" s="31"/>
       <c r="D202" s="31"/>
@@ -6510,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:11">
       <c r="B203" s="33"/>
       <c r="C203" s="31"/>
       <c r="D203" s="17"/>
@@ -6534,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:11">
       <c r="B204" s="33"/>
       <c r="C204" s="31"/>
       <c r="D204" s="27" t="s">
@@ -6560,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:11">
       <c r="B205" s="33"/>
       <c r="C205" s="31"/>
       <c r="D205" s="17"/>
@@ -6584,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:11">
       <c r="B206" s="33"/>
       <c r="C206" s="31"/>
       <c r="D206" s="27" t="s">
@@ -6610,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:11">
       <c r="B207" s="33"/>
       <c r="C207" s="31"/>
       <c r="D207" s="17"/>
@@ -6634,7 +6637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11" ht="23.05" customHeight="1">
       <c r="B208" s="33"/>
       <c r="C208" s="31"/>
       <c r="D208" s="27" t="s">
@@ -6660,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:11">
       <c r="B209" s="34"/>
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
@@ -6684,11 +6687,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B210" s="64" t="s">
+    <row r="210" spans="2:11">
+      <c r="B210" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C210" s="43" t="s">
+      <c r="C210" s="40" t="s">
         <v>158</v>
       </c>
       <c r="D210" s="19" t="s">
@@ -6700,7 +6703,7 @@
       <c r="F210" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G210" s="43">
+      <c r="G210" s="40">
         <v>50</v>
       </c>
       <c r="H210" s="7">
@@ -6716,10 +6719,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:11" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="65"/>
-      <c r="C211" s="44"/>
-      <c r="D211" s="43" t="s">
+    <row r="211" spans="2:11" ht="26.5" customHeight="1">
+      <c r="B211" s="51"/>
+      <c r="C211" s="41"/>
+      <c r="D211" s="40" t="s">
         <v>163</v>
       </c>
       <c r="E211" s="19" t="s">
@@ -6728,7 +6731,7 @@
       <c r="F211" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G211" s="44"/>
+      <c r="G211" s="41"/>
       <c r="H211" s="7">
         <v>0</v>
       </c>
@@ -6742,17 +6745,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="65"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="44"/>
+    <row r="212" spans="2:11" ht="18.45" customHeight="1">
+      <c r="B212" s="51"/>
+      <c r="C212" s="41"/>
+      <c r="D212" s="41"/>
       <c r="E212" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G212" s="44"/>
+      <c r="G212" s="41"/>
       <c r="H212" s="7">
         <v>0</v>
       </c>
@@ -6766,17 +6769,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:11" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="65"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="46"/>
+    <row r="213" spans="2:11" ht="17.850000000000001" customHeight="1">
+      <c r="B213" s="51"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="42"/>
       <c r="E213" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G213" s="44"/>
+      <c r="G213" s="41"/>
       <c r="H213" s="7">
         <v>0</v>
       </c>
@@ -6790,9 +6793,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="65"/>
-      <c r="C214" s="44"/>
+    <row r="214" spans="2:11" ht="18.45" customHeight="1">
+      <c r="B214" s="51"/>
+      <c r="C214" s="41"/>
       <c r="D214" s="19" t="s">
         <v>160</v>
       </c>
@@ -6802,7 +6805,7 @@
       <c r="F214" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G214" s="44"/>
+      <c r="G214" s="41"/>
       <c r="H214" s="7">
         <v>0</v>
       </c>
@@ -6816,9 +6819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B215" s="65"/>
-      <c r="C215" s="44"/>
+    <row r="215" spans="2:11">
+      <c r="B215" s="51"/>
+      <c r="C215" s="41"/>
       <c r="D215" s="19" t="s">
         <v>161</v>
       </c>
@@ -6828,7 +6831,7 @@
       <c r="F215" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G215" s="44"/>
+      <c r="G215" s="41"/>
       <c r="H215" s="7">
         <v>0</v>
       </c>
@@ -6842,9 +6845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="65"/>
-      <c r="C216" s="44"/>
+    <row r="216" spans="2:11" ht="15" thickBot="1">
+      <c r="B216" s="51"/>
+      <c r="C216" s="41"/>
       <c r="D216" s="30" t="s">
         <v>162</v>
       </c>
@@ -6854,7 +6857,7 @@
       <c r="F216" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G216" s="46"/>
+      <c r="G216" s="42"/>
       <c r="H216" s="7">
         <v>5</v>
       </c>
@@ -6868,14 +6871,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B217" s="37" t="s">
+    <row r="217" spans="2:11" ht="18">
+      <c r="B217" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C217" s="38"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="38"/>
-      <c r="F217" s="40"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="44"/>
+      <c r="F217" s="46"/>
       <c r="G217" s="26">
         <f>SUM(G198:G216)</f>
         <v>175</v>
@@ -6897,21 +6900,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="2:11" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B220" s="41" t="s">
+    <row r="220" spans="2:11" ht="23.5">
+      <c r="B220" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C220" s="42"/>
-      <c r="D220" s="42"/>
-      <c r="E220" s="42"/>
-      <c r="F220" s="42"/>
-      <c r="G220" s="42"/>
-      <c r="H220" s="42"/>
-      <c r="I220" s="42"/>
-      <c r="J220" s="42"/>
-      <c r="K220" s="42"/>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C220" s="39"/>
+      <c r="D220" s="39"/>
+      <c r="E220" s="39"/>
+      <c r="F220" s="39"/>
+      <c r="G220" s="39"/>
+      <c r="H220" s="39"/>
+      <c r="I220" s="39"/>
+      <c r="J220" s="39"/>
+      <c r="K220" s="39"/>
+    </row>
+    <row r="221" spans="2:11">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -6923,7 +6926,7 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:11" ht="35.75">
       <c r="B222" s="15" t="s">
         <v>0</v>
       </c>
@@ -6955,11 +6958,11 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B223" s="43" t="s">
+    <row r="223" spans="2:11">
+      <c r="B223" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C223" s="43" t="s">
+      <c r="C223" s="40" t="s">
         <v>135</v>
       </c>
       <c r="D223" s="19" t="s">
@@ -6971,7 +6974,7 @@
       <c r="F223" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G223" s="43">
+      <c r="G223" s="40">
         <v>40</v>
       </c>
       <c r="H223" s="7">
@@ -6987,9 +6990,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B224" s="44"/>
-      <c r="C224" s="44"/>
+    <row r="224" spans="2:11">
+      <c r="B224" s="41"/>
+      <c r="C224" s="41"/>
       <c r="D224" s="19" t="s">
         <v>137</v>
       </c>
@@ -6999,7 +7002,7 @@
       <c r="F224" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G224" s="44"/>
+      <c r="G224" s="41"/>
       <c r="H224" s="7">
         <v>0</v>
       </c>
@@ -7013,9 +7016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B225" s="44"/>
-      <c r="C225" s="44"/>
+    <row r="225" spans="2:25">
+      <c r="B225" s="41"/>
+      <c r="C225" s="41"/>
       <c r="D225" s="19" t="s">
         <v>138</v>
       </c>
@@ -7025,7 +7028,7 @@
       <c r="F225" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G225" s="44"/>
+      <c r="G225" s="41"/>
       <c r="H225" s="7">
         <v>0</v>
       </c>
@@ -7039,9 +7042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B226" s="44"/>
-      <c r="C226" s="44"/>
+    <row r="226" spans="2:25">
+      <c r="B226" s="41"/>
+      <c r="C226" s="41"/>
       <c r="D226" s="19" t="s">
         <v>139</v>
       </c>
@@ -7051,7 +7054,7 @@
       <c r="F226" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G226" s="44"/>
+      <c r="G226" s="41"/>
       <c r="H226" s="7">
         <v>7.5</v>
       </c>
@@ -7065,9 +7068,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="227" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="44"/>
-      <c r="C227" s="44"/>
+    <row r="227" spans="2:25" ht="15" thickBot="1">
+      <c r="B227" s="41"/>
+      <c r="C227" s="41"/>
       <c r="D227" s="19" t="s">
         <v>140</v>
       </c>
@@ -7077,7 +7080,7 @@
       <c r="F227" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G227" s="44"/>
+      <c r="G227" s="41"/>
       <c r="H227" s="7">
         <v>0</v>
       </c>
@@ -7091,14 +7094,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="2:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="B228" s="37" t="s">
+    <row r="228" spans="2:25" ht="18">
+      <c r="B228" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C228" s="38"/>
-      <c r="D228" s="39"/>
-      <c r="E228" s="38"/>
-      <c r="F228" s="40"/>
+      <c r="C228" s="44"/>
+      <c r="D228" s="45"/>
+      <c r="E228" s="44"/>
+      <c r="F228" s="46"/>
       <c r="G228" s="26">
         <f>SUM(G223:G227)</f>
         <v>40</v>
@@ -7120,21 +7123,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="2:25" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B231" s="41" t="s">
+    <row r="231" spans="2:25" ht="23.5">
+      <c r="B231" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C231" s="42"/>
-      <c r="D231" s="42"/>
-      <c r="E231" s="42"/>
-      <c r="F231" s="42"/>
-      <c r="G231" s="42"/>
-      <c r="H231" s="42"/>
-      <c r="I231" s="42"/>
-      <c r="J231" s="42"/>
-      <c r="K231" s="42"/>
-    </row>
-    <row r="233" spans="2:25" ht="36" x14ac:dyDescent="0.3">
+      <c r="C231" s="39"/>
+      <c r="D231" s="39"/>
+      <c r="E231" s="39"/>
+      <c r="F231" s="39"/>
+      <c r="G231" s="39"/>
+      <c r="H231" s="39"/>
+      <c r="I231" s="39"/>
+      <c r="J231" s="39"/>
+      <c r="K231" s="39"/>
+    </row>
+    <row r="233" spans="2:25" ht="35.75">
       <c r="B233" s="15" t="s">
         <v>0</v>
       </c>
@@ -7166,11 +7169,11 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="234" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B234" s="43" t="s">
+    <row r="234" spans="2:25" ht="28.8">
+      <c r="B234" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C234" s="43" t="s">
+      <c r="C234" s="40" t="s">
         <v>172</v>
       </c>
       <c r="D234" s="19" t="s">
@@ -7182,7 +7185,7 @@
       <c r="F234" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G234" s="43">
+      <c r="G234" s="40">
         <v>200</v>
       </c>
       <c r="H234" s="7">
@@ -7198,9 +7201,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:25" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="44"/>
-      <c r="C235" s="44"/>
+    <row r="235" spans="2:25" ht="40.75" customHeight="1">
+      <c r="B235" s="41"/>
+      <c r="C235" s="41"/>
       <c r="D235" s="19" t="s">
         <v>168</v>
       </c>
@@ -7210,7 +7213,7 @@
       <c r="F235" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G235" s="44"/>
+      <c r="G235" s="41"/>
       <c r="H235" s="7">
         <v>0</v>
       </c>
@@ -7224,9 +7227,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B236" s="44"/>
-      <c r="C236" s="44"/>
+    <row r="236" spans="2:25">
+      <c r="B236" s="41"/>
+      <c r="C236" s="41"/>
       <c r="D236" s="19" t="s">
         <v>170</v>
       </c>
@@ -7236,7 +7239,7 @@
       <c r="F236" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G236" s="44"/>
+      <c r="G236" s="41"/>
       <c r="H236" s="7">
         <v>0</v>
       </c>
@@ -7249,19 +7252,19 @@
       <c r="K236" s="7">
         <v>0</v>
       </c>
-      <c r="P236" s="62"/>
-      <c r="Q236" s="63"/>
-      <c r="R236" s="63"/>
+      <c r="P236" s="48"/>
+      <c r="Q236" s="49"/>
+      <c r="R236" s="49"/>
       <c r="T236" s="3"/>
-      <c r="U236" s="63"/>
+      <c r="U236" s="49"/>
       <c r="V236" s="3"/>
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
     </row>
-    <row r="237" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B237" s="44"/>
-      <c r="C237" s="44"/>
+    <row r="237" spans="2:25">
+      <c r="B237" s="41"/>
+      <c r="C237" s="41"/>
       <c r="D237" s="19" t="s">
         <v>169</v>
       </c>
@@ -7271,7 +7274,7 @@
       <c r="F237" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G237" s="44"/>
+      <c r="G237" s="41"/>
       <c r="H237" s="7">
         <v>0</v>
       </c>
@@ -7284,19 +7287,19 @@
       <c r="K237" s="7">
         <v>20</v>
       </c>
-      <c r="P237" s="62"/>
-      <c r="Q237" s="63"/>
-      <c r="R237" s="63"/>
+      <c r="P237" s="48"/>
+      <c r="Q237" s="49"/>
+      <c r="R237" s="49"/>
       <c r="T237" s="3"/>
-      <c r="U237" s="63"/>
+      <c r="U237" s="49"/>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
     </row>
-    <row r="238" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B238" s="44"/>
-      <c r="C238" s="44"/>
+    <row r="238" spans="2:25">
+      <c r="B238" s="41"/>
+      <c r="C238" s="41"/>
       <c r="D238" s="19" t="s">
         <v>171</v>
       </c>
@@ -7306,7 +7309,7 @@
       <c r="F238" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G238" s="44"/>
+      <c r="G238" s="41"/>
       <c r="H238" s="7">
         <v>30</v>
       </c>
@@ -7319,19 +7322,19 @@
       <c r="K238" s="7">
         <v>0</v>
       </c>
-      <c r="P238" s="62"/>
-      <c r="Q238" s="63"/>
-      <c r="R238" s="63"/>
+      <c r="P238" s="48"/>
+      <c r="Q238" s="49"/>
+      <c r="R238" s="49"/>
       <c r="T238" s="3"/>
-      <c r="U238" s="63"/>
+      <c r="U238" s="49"/>
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
     </row>
-    <row r="239" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="46"/>
-      <c r="C239" s="46"/>
+    <row r="239" spans="2:25" ht="15" thickBot="1">
+      <c r="B239" s="42"/>
+      <c r="C239" s="42"/>
       <c r="D239" s="19" t="s">
         <v>173</v>
       </c>
@@ -7341,7 +7344,7 @@
       <c r="F239" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G239" s="46"/>
+      <c r="G239" s="42"/>
       <c r="H239" s="7">
         <v>0</v>
       </c>
@@ -7354,25 +7357,25 @@
       <c r="K239" s="7">
         <v>0</v>
       </c>
-      <c r="P239" s="62"/>
-      <c r="Q239" s="63"/>
-      <c r="R239" s="63"/>
+      <c r="P239" s="48"/>
+      <c r="Q239" s="49"/>
+      <c r="R239" s="49"/>
       <c r="S239" s="29"/>
       <c r="T239" s="3"/>
-      <c r="U239" s="63"/>
+      <c r="U239" s="49"/>
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
     </row>
-    <row r="240" spans="2:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="B240" s="37" t="s">
+    <row r="240" spans="2:25" ht="17.850000000000001">
+      <c r="B240" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C240" s="38"/>
-      <c r="D240" s="39"/>
-      <c r="E240" s="38"/>
-      <c r="F240" s="40"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="45"/>
+      <c r="E240" s="44"/>
+      <c r="F240" s="46"/>
       <c r="G240" s="26">
         <f>SUM(G234:G239)</f>
         <v>200</v>
@@ -7394,65 +7397,65 @@
         <v>40</v>
       </c>
       <c r="L240" s="25"/>
-      <c r="P240" s="62"/>
-      <c r="Q240" s="63"/>
-      <c r="R240" s="63"/>
+      <c r="P240" s="48"/>
+      <c r="Q240" s="49"/>
+      <c r="R240" s="49"/>
       <c r="T240" s="3"/>
-      <c r="U240" s="63"/>
+      <c r="U240" s="49"/>
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
     </row>
-    <row r="241" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="P241" s="62"/>
-      <c r="Q241" s="63"/>
-      <c r="R241" s="63"/>
+    <row r="241" spans="2:25">
+      <c r="P241" s="48"/>
+      <c r="Q241" s="49"/>
+      <c r="R241" s="49"/>
       <c r="S241" s="29"/>
       <c r="T241" s="3"/>
-      <c r="U241" s="63"/>
+      <c r="U241" s="49"/>
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
     </row>
-    <row r="242" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="P242" s="62"/>
-      <c r="Q242" s="63"/>
-      <c r="R242" s="63"/>
+    <row r="242" spans="2:25">
+      <c r="P242" s="48"/>
+      <c r="Q242" s="49"/>
+      <c r="R242" s="49"/>
       <c r="S242" s="29"/>
       <c r="T242" s="3"/>
-      <c r="U242" s="63"/>
+      <c r="U242" s="49"/>
       <c r="V242" s="3"/>
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
     </row>
-    <row r="243" spans="2:25" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B243" s="41" t="s">
+    <row r="243" spans="2:25" ht="23.05">
+      <c r="B243" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C243" s="42"/>
-      <c r="D243" s="42"/>
-      <c r="E243" s="42"/>
-      <c r="F243" s="42"/>
-      <c r="G243" s="42"/>
-      <c r="H243" s="42"/>
-      <c r="I243" s="42"/>
-      <c r="J243" s="42"/>
-      <c r="K243" s="42"/>
-      <c r="P243" s="62"/>
-      <c r="Q243" s="63"/>
-      <c r="R243" s="63"/>
+      <c r="C243" s="39"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="39"/>
+      <c r="F243" s="39"/>
+      <c r="G243" s="39"/>
+      <c r="H243" s="39"/>
+      <c r="I243" s="39"/>
+      <c r="J243" s="39"/>
+      <c r="K243" s="39"/>
+      <c r="P243" s="48"/>
+      <c r="Q243" s="49"/>
+      <c r="R243" s="49"/>
       <c r="S243" s="29"/>
       <c r="T243" s="3"/>
-      <c r="U243" s="63"/>
+      <c r="U243" s="49"/>
       <c r="V243" s="3"/>
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
     </row>
-    <row r="244" spans="2:25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:25" ht="10.25" customHeight="1">
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -7463,18 +7466,18 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
-      <c r="P244" s="62"/>
-      <c r="Q244" s="63"/>
-      <c r="R244" s="63"/>
+      <c r="P244" s="48"/>
+      <c r="Q244" s="49"/>
+      <c r="R244" s="49"/>
       <c r="S244" s="29"/>
       <c r="T244" s="3"/>
-      <c r="U244" s="63"/>
+      <c r="U244" s="49"/>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
     </row>
-    <row r="245" spans="2:25" ht="36" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:25" ht="35.75">
       <c r="B245" s="15" t="s">
         <v>0</v>
       </c>
@@ -7505,22 +7508,22 @@
       <c r="K245" s="28">
         <v>45317</v>
       </c>
-      <c r="P245" s="62"/>
-      <c r="Q245" s="63"/>
-      <c r="R245" s="63"/>
+      <c r="P245" s="48"/>
+      <c r="Q245" s="49"/>
+      <c r="R245" s="49"/>
       <c r="S245" s="29"/>
       <c r="T245" s="3"/>
-      <c r="U245" s="63"/>
+      <c r="U245" s="49"/>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
     </row>
-    <row r="246" spans="2:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="43" t="s">
+    <row r="246" spans="2:25" ht="28.8" customHeight="1">
+      <c r="B246" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="C246" s="43" t="s">
+      <c r="C246" s="40" t="s">
         <v>176</v>
       </c>
       <c r="D246" s="19" t="s">
@@ -7532,7 +7535,7 @@
       <c r="F246" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G246" s="43">
+      <c r="G246" s="40">
         <v>90</v>
       </c>
       <c r="H246" s="7">
@@ -7547,20 +7550,20 @@
       <c r="K246" s="7">
         <v>0</v>
       </c>
-      <c r="P246" s="62"/>
-      <c r="Q246" s="63"/>
-      <c r="R246" s="63"/>
+      <c r="P246" s="48"/>
+      <c r="Q246" s="49"/>
+      <c r="R246" s="49"/>
       <c r="S246" s="29"/>
       <c r="T246" s="3"/>
-      <c r="U246" s="63"/>
+      <c r="U246" s="49"/>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
     </row>
-    <row r="247" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B247" s="44"/>
-      <c r="C247" s="44"/>
+    <row r="247" spans="2:25">
+      <c r="B247" s="41"/>
+      <c r="C247" s="41"/>
       <c r="D247" s="19" t="s">
         <v>182</v>
       </c>
@@ -7570,7 +7573,7 @@
       <c r="F247" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G247" s="44"/>
+      <c r="G247" s="41"/>
       <c r="H247" s="7">
         <v>0</v>
       </c>
@@ -7583,20 +7586,20 @@
       <c r="K247" s="7">
         <v>0</v>
       </c>
-      <c r="P247" s="62"/>
-      <c r="Q247" s="63"/>
-      <c r="R247" s="63"/>
+      <c r="P247" s="48"/>
+      <c r="Q247" s="49"/>
+      <c r="R247" s="49"/>
       <c r="S247" s="29"/>
       <c r="T247" s="3"/>
-      <c r="U247" s="63"/>
+      <c r="U247" s="49"/>
       <c r="V247" s="3"/>
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
     </row>
-    <row r="248" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B248" s="44"/>
-      <c r="C248" s="44"/>
+    <row r="248" spans="2:25">
+      <c r="B248" s="41"/>
+      <c r="C248" s="41"/>
       <c r="D248" s="19" t="s">
         <v>183</v>
       </c>
@@ -7606,7 +7609,7 @@
       <c r="F248" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G248" s="44"/>
+      <c r="G248" s="41"/>
       <c r="H248" s="7">
         <v>0</v>
       </c>
@@ -7620,9 +7623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B249" s="44"/>
-      <c r="C249" s="44"/>
+    <row r="249" spans="2:25">
+      <c r="B249" s="41"/>
+      <c r="C249" s="41"/>
       <c r="D249" s="19" t="s">
         <v>184</v>
       </c>
@@ -7632,7 +7635,7 @@
       <c r="F249" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G249" s="44"/>
+      <c r="G249" s="41"/>
       <c r="H249" s="7">
         <v>0</v>
       </c>
@@ -7646,9 +7649,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B250" s="44"/>
-      <c r="C250" s="44"/>
+    <row r="250" spans="2:25" ht="28.8">
+      <c r="B250" s="41"/>
+      <c r="C250" s="41"/>
       <c r="D250" s="19" t="s">
         <v>185</v>
       </c>
@@ -7658,7 +7661,7 @@
       <c r="F250" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G250" s="44"/>
+      <c r="G250" s="41"/>
       <c r="H250" s="7">
         <v>0</v>
       </c>
@@ -7672,9 +7675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="46"/>
-      <c r="C251" s="46"/>
+    <row r="251" spans="2:25" ht="15" thickBot="1">
+      <c r="B251" s="42"/>
+      <c r="C251" s="42"/>
       <c r="D251" s="19" t="s">
         <v>180</v>
       </c>
@@ -7684,7 +7687,7 @@
       <c r="F251" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G251" s="46"/>
+      <c r="G251" s="42"/>
       <c r="H251" s="7">
         <v>0</v>
       </c>
@@ -7698,14 +7701,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="B252" s="37" t="s">
+    <row r="252" spans="2:25" ht="18">
+      <c r="B252" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C252" s="38"/>
-      <c r="D252" s="39"/>
-      <c r="E252" s="38"/>
-      <c r="F252" s="40"/>
+      <c r="C252" s="44"/>
+      <c r="D252" s="45"/>
+      <c r="E252" s="44"/>
+      <c r="F252" s="46"/>
       <c r="G252" s="26">
         <f>SUM(G246:G251)</f>
         <v>90</v>
@@ -7727,21 +7730,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="2:25" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B255" s="41" t="s">
+    <row r="255" spans="2:25" ht="23.5">
+      <c r="B255" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C255" s="42"/>
-      <c r="D255" s="42"/>
-      <c r="E255" s="42"/>
-      <c r="F255" s="42"/>
-      <c r="G255" s="42"/>
-      <c r="H255" s="42"/>
-      <c r="I255" s="42"/>
-      <c r="J255" s="42"/>
-      <c r="K255" s="42"/>
-    </row>
-    <row r="256" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C255" s="39"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="39"/>
+      <c r="F255" s="39"/>
+      <c r="G255" s="39"/>
+      <c r="H255" s="39"/>
+      <c r="I255" s="39"/>
+      <c r="J255" s="39"/>
+      <c r="K255" s="39"/>
+    </row>
+    <row r="256" spans="2:25">
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -7753,7 +7756,7 @@
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
     </row>
-    <row r="257" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:11" ht="35.75">
       <c r="B257" s="15" t="s">
         <v>0</v>
       </c>
@@ -7785,14 +7788,14 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="258" spans="2:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="43" t="s">
+    <row r="258" spans="2:11" ht="28.8" customHeight="1">
+      <c r="B258" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C258" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D258" s="43" t="s">
+      <c r="C258" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D258" s="40" t="s">
         <v>194</v>
       </c>
       <c r="E258" s="19" t="s">
@@ -7801,7 +7804,7 @@
       <c r="F258" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G258" s="43">
+      <c r="G258" s="40">
         <v>100</v>
       </c>
       <c r="H258" s="7">
@@ -7817,17 +7820,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B259" s="44"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="44"/>
+    <row r="259" spans="2:11">
+      <c r="B259" s="41"/>
+      <c r="C259" s="41"/>
+      <c r="D259" s="41"/>
       <c r="E259" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G259" s="44"/>
+      <c r="G259" s="41"/>
       <c r="H259" s="7">
         <v>0</v>
       </c>
@@ -7841,17 +7844,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B260" s="44"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="46"/>
+    <row r="260" spans="2:11">
+      <c r="B260" s="41"/>
+      <c r="C260" s="41"/>
+      <c r="D260" s="42"/>
       <c r="E260" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G260" s="44"/>
+      <c r="G260" s="41"/>
       <c r="H260" s="7">
         <v>10</v>
       </c>
@@ -7865,9 +7868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="44"/>
-      <c r="C261" s="44"/>
+    <row r="261" spans="2:11" ht="54" customHeight="1">
+      <c r="B261" s="41"/>
+      <c r="C261" s="41"/>
       <c r="D261" s="19" t="s">
         <v>193</v>
       </c>
@@ -7877,7 +7880,7 @@
       <c r="F261" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G261" s="44"/>
+      <c r="G261" s="41"/>
       <c r="H261" s="7">
         <v>0</v>
       </c>
@@ -7891,10 +7894,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="2:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="44"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="43" t="s">
+    <row r="262" spans="2:11" ht="37.15" customHeight="1">
+      <c r="B262" s="41"/>
+      <c r="C262" s="41"/>
+      <c r="D262" s="40" t="s">
         <v>192</v>
       </c>
       <c r="E262" s="19" t="s">
@@ -7903,7 +7906,7 @@
       <c r="F262" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G262" s="44"/>
+      <c r="G262" s="41"/>
       <c r="H262" s="7">
         <v>15</v>
       </c>
@@ -7917,17 +7920,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="46"/>
-      <c r="C263" s="46"/>
-      <c r="D263" s="45"/>
+    <row r="263" spans="2:11" ht="31.25" customHeight="1" thickBot="1">
+      <c r="B263" s="42"/>
+      <c r="C263" s="42"/>
+      <c r="D263" s="47"/>
       <c r="E263" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G263" s="46"/>
+      <c r="G263" s="42"/>
       <c r="H263" s="7">
         <v>5</v>
       </c>
@@ -7941,14 +7944,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="37" t="s">
+    <row r="264" spans="2:11" ht="32.4" customHeight="1">
+      <c r="B264" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="C264" s="38"/>
-      <c r="D264" s="39"/>
-      <c r="E264" s="38"/>
-      <c r="F264" s="40"/>
+      <c r="C264" s="44"/>
+      <c r="D264" s="45"/>
+      <c r="E264" s="44"/>
+      <c r="F264" s="46"/>
       <c r="G264" s="26">
         <f>SUM(G258:G263)</f>
         <v>100</v>
@@ -7970,48 +7973,117 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="2:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="2:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="J272" s="66"/>
-    </row>
-    <row r="273" spans="5:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="J273" s="66"/>
-    </row>
-    <row r="274" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:11" ht="32.4" customHeight="1"/>
+    <row r="268" spans="2:11" ht="34.85" customHeight="1"/>
+    <row r="272" spans="2:11" ht="16.7">
+      <c r="J272" s="37"/>
+    </row>
+    <row r="273" spans="5:10" ht="16.7">
+      <c r="J273" s="37"/>
+    </row>
+    <row r="274" spans="5:10" ht="16.149999999999999">
       <c r="J274" s="36"/>
     </row>
-    <row r="284" spans="5:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="284" spans="5:10" ht="16.149999999999999">
       <c r="E284" s="35"/>
     </row>
-    <row r="285" spans="5:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="285" spans="5:10" ht="16.149999999999999">
       <c r="E285" s="35"/>
     </row>
-    <row r="286" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="5:10" ht="16.149999999999999">
       <c r="E286" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="B255:K255"/>
-    <mergeCell ref="B258:B263"/>
-    <mergeCell ref="C258:C263"/>
-    <mergeCell ref="G258:G263"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="D258:D260"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="P236:P247"/>
-    <mergeCell ref="Q236:Q247"/>
-    <mergeCell ref="R236:R239"/>
-    <mergeCell ref="R240:R241"/>
-    <mergeCell ref="R242:R243"/>
-    <mergeCell ref="R244:R245"/>
-    <mergeCell ref="R246:R247"/>
-    <mergeCell ref="B195:K195"/>
-    <mergeCell ref="U236:U247"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="G210:G216"/>
-    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="D185:D191"/>
+    <mergeCell ref="B243:K243"/>
+    <mergeCell ref="B246:B251"/>
+    <mergeCell ref="C246:C251"/>
+    <mergeCell ref="G246:G251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B231:K231"/>
+    <mergeCell ref="B234:B239"/>
+    <mergeCell ref="C234:C239"/>
+    <mergeCell ref="G234:G239"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="B142:B154"/>
+    <mergeCell ref="C142:C154"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="G166:G172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="C78:C90"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="G78:G90"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="G98:G104"/>
+    <mergeCell ref="D123:D129"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="G91:G97"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="G123:G129"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B110:B122"/>
+    <mergeCell ref="C110:C122"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="G110:G122"/>
+    <mergeCell ref="D114:D117"/>
     <mergeCell ref="D118:D122"/>
     <mergeCell ref="G130:G136"/>
     <mergeCell ref="D134:D136"/>
@@ -8036,101 +8108,32 @@
     <mergeCell ref="C130:C136"/>
     <mergeCell ref="D130:D133"/>
     <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="C78:C90"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="G78:G90"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="G98:G104"/>
-    <mergeCell ref="D123:D129"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="G91:G97"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="G123:G129"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B107:K107"/>
-    <mergeCell ref="B110:B122"/>
-    <mergeCell ref="C110:C122"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="G110:G122"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="C1:K3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B52:B64"/>
-    <mergeCell ref="C52:C64"/>
-    <mergeCell ref="G52:G64"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="B142:B154"/>
-    <mergeCell ref="C142:C154"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="D166:D169"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="G166:G172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="G162:G165"/>
-    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="R236:R239"/>
+    <mergeCell ref="R240:R241"/>
+    <mergeCell ref="R242:R243"/>
+    <mergeCell ref="R244:R245"/>
+    <mergeCell ref="R246:R247"/>
+    <mergeCell ref="B195:K195"/>
+    <mergeCell ref="U236:U247"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="G210:G216"/>
+    <mergeCell ref="D211:D213"/>
     <mergeCell ref="B220:K220"/>
     <mergeCell ref="B228:F228"/>
     <mergeCell ref="C223:C227"/>
     <mergeCell ref="B223:B227"/>
     <mergeCell ref="G223:G227"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="B243:K243"/>
-    <mergeCell ref="B246:B251"/>
-    <mergeCell ref="C246:C251"/>
-    <mergeCell ref="G246:G251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B231:K231"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="C234:C239"/>
-    <mergeCell ref="G234:G239"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B255:K255"/>
+    <mergeCell ref="B258:B263"/>
+    <mergeCell ref="C258:C263"/>
+    <mergeCell ref="G258:G263"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="P236:P247"/>
+    <mergeCell ref="Q236:Q247"/>
+    <mergeCell ref="B252:F252"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
